--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -128,45 +128,106 @@
     <t>Owner</t>
   </si>
   <si>
+    <t>Crotch_Lv3</t>
+  </si>
+  <si>
+    <t>Crotch_Lv5</t>
+  </si>
+  <si>
+    <t>AiGroup_id</t>
+  </si>
+  <si>
+    <t>Extinction</t>
+  </si>
+  <si>
+    <t>CompleteExtinction</t>
+  </si>
+  <si>
+    <t>CardName_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardNameDesc_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMine_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMine_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundance_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundance_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frican_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frican_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Crotch_Lv1</t>
-  </si>
-  <si>
-    <t>Crotch_Lv3</t>
-  </si>
-  <si>
-    <t>Crotch_Lv5</t>
-  </si>
-  <si>
-    <t>AiGroup_id</t>
-  </si>
-  <si>
-    <t>Extinction</t>
-  </si>
-  <si>
-    <t>CompleteExtinction</t>
-  </si>
-  <si>
-    <t>CardName_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardNameDesc_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMine_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundance_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frican_Lv1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +681,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -636,7 +697,7 @@
     <col min="12" max="12" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.796875" style="1"/>
@@ -644,22 +705,22 @@
   <sheetData>
     <row r="1" spans="1:20" ht="17.399999999999999">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -677,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>27</v>
@@ -706,13 +767,13 @@
     </row>
     <row r="2" spans="1:20" ht="17.399999999999999">
       <c r="A2" s="5">
-        <v>1001</v>
+        <v>100101</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
@@ -742,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -758,16 +819,16 @@
     </row>
     <row r="3" spans="1:20" ht="17.399999999999999">
       <c r="A3" s="5">
-        <v>1002</v>
+        <v>100301</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -787,9 +848,15 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5">
@@ -798,7 +865,7 @@
     </row>
     <row r="4" spans="1:20" ht="17.399999999999999">
       <c r="A4" s="5">
-        <v>1003</v>
+        <v>200101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
@@ -831,16 +898,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999">
       <c r="A5" s="5">
-        <v>1004</v>
+        <v>300101</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -867,9 +940,15 @@
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="O5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="R5" s="5">
         <v>9000111</v>
       </c>
@@ -878,7 +957,7 @@
     </row>
     <row r="6" spans="1:20" ht="17.399999999999999">
       <c r="A6" s="5">
-        <v>1005</v>
+        <v>300201</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -905,9 +984,15 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5">
         <v>9000221</v>
@@ -945,9 +1030,15 @@
         <v>1</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -119,115 +119,116 @@
     <t>Level_5_img</t>
   </si>
   <si>
+    <t>HandEnd_Ability</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Crotch_Lv3</t>
+  </si>
+  <si>
+    <t>Crotch_Lv5</t>
+  </si>
+  <si>
+    <t>AiGroup_id</t>
+  </si>
+  <si>
+    <t>Extinction</t>
+  </si>
+  <si>
+    <t>CompleteExtinction</t>
+  </si>
+  <si>
+    <t>CardName_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardNameDesc_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMine_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMine_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundance_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundance_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frican_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frican_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crotch_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldMine_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundance_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frican_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HandStart_Ability</t>
-  </si>
-  <si>
-    <t>HandEnd_Ability</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Crotch_Lv3</t>
-  </si>
-  <si>
-    <t>Crotch_Lv5</t>
-  </si>
-  <si>
-    <t>AiGroup_id</t>
-  </si>
-  <si>
-    <t>Extinction</t>
-  </si>
-  <si>
-    <t>CompleteExtinction</t>
-  </si>
-  <si>
-    <t>CardName_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardNameDesc_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abundance_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abundance_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frican_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frican_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crotch_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abundance_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frican_Lv1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,46 +682,47 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="4.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.75" style="1"/>
+    <col min="11" max="11" width="4.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="1"/>
+    <col min="13" max="13" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.399999999999999">
+    <row r="1" spans="1:20" ht="16.5">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -738,10 +740,10 @@
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>27</v>
@@ -756,16 +758,16 @@
         <v>30</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="17.399999999999999">
+    <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="5">
         <v>100101</v>
       </c>
@@ -773,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
@@ -803,13 +805,13 @@
         <v>1</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -817,7 +819,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17.399999999999999">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="5">
         <v>100301</v>
       </c>
@@ -825,10 +827,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -849,13 +851,13 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -863,7 +865,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17.399999999999999">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="5">
         <v>200101</v>
       </c>
@@ -899,19 +901,19 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="17.399999999999999">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="5">
         <v>300101</v>
       </c>
@@ -941,13 +943,13 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="R5" s="5">
         <v>9000111</v>
@@ -955,7 +957,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="17.399999999999999">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="5">
         <v>300201</v>
       </c>
@@ -985,13 +987,13 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5">
@@ -999,7 +1001,7 @@
       </c>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="17.399999999999999">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="A7" s="5">
         <v>1006</v>
       </c>
@@ -1031,13 +1033,13 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>HandStart_Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InUse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,33 +683,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1"/>
     <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="8.75" style="1"/>
     <col min="11" max="11" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.75" style="1"/>
+    <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5">
+    <row r="1" spans="1:21" ht="16.5">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -740,34 +745,37 @@
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5">
+    <row r="2" spans="1:21" ht="16.5">
       <c r="A2" s="5">
         <v>100101</v>
       </c>
@@ -800,26 +808,29 @@
       <c r="L2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="M2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:21" ht="16.5">
       <c r="A3" s="5">
         <v>100301</v>
       </c>
@@ -846,26 +857,29 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:21" ht="16.5">
       <c r="A4" s="5">
         <v>200101</v>
       </c>
@@ -899,21 +913,24 @@
       <c r="M4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:21" ht="16.5">
       <c r="A5" s="5">
         <v>300101</v>
       </c>
@@ -940,24 +957,27 @@
       <c r="L5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>9000111</v>
       </c>
-      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:21" ht="16.5">
       <c r="A6" s="5">
         <v>300201</v>
       </c>
@@ -984,24 +1004,27 @@
       <c r="L6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <v>9000221</v>
       </c>
-      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:21" ht="16.5">
       <c r="A7" s="5">
         <v>1006</v>
       </c>
@@ -1031,23 +1054,26 @@
       <c r="M7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
+      <c r="N7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="L8" s="3"/>
+    <row r="8" spans="1:21">
       <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1049,7 +1049,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5" t="b">
         <v>1</v>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>InUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트아쳐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,13 +320,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -711,369 +712,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>100101</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>21001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>100301</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>21002</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5" t="b">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>200101</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>21003</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>150</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" ht="16.5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>300101</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>21004</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="b">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="5" t="b">
+      <c r="M5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>9000111</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="16.5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>300201</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>21005</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="b">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="5" t="b">
+      <c r="M6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
         <v>9000221</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="16.5">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>21006</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="b">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="M7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+    <row r="8" spans="1:21" ht="16.5">
+      <c r="A8" s="4">
+        <v>100201</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
+        <v>1001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -238,13 +238,36 @@
   <si>
     <t>테스트아쳐</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -266,11 +289,19 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -320,22 +351,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -684,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -727,7 +768,7 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -777,353 +818,406 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>100101</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>21001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5">
         <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>100301</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>21002</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="b">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>200101</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>21003</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>150</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="16.5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>300101</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>21004</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="b">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="b">
+      <c r="M5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="5">
         <v>9000111</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" ht="16.5">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>300201</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>21005</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="b">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="M6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <v>9000221</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="16.5">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>21006</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="b">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="M7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="16.5">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>100201</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>11002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>3</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5">
+      <c r="A9" s="7">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="7">
+        <v>31002</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="9">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -261,6 +261,13 @@
   </si>
   <si>
     <t>Poison</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_Id</t>
   </si>
 </sst>
 </file>
@@ -376,7 +383,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -725,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -738,21 +745,22 @@
     <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.75" style="1"/>
-    <col min="11" max="11" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.75" style="1"/>
+    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.75" style="1"/>
+    <col min="12" max="12" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -766,58 +774,61 @@
         <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="5">
         <v>100101</v>
       </c>
@@ -830,49 +841,52 @@
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>21001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="5">
         <v>100301</v>
       </c>
@@ -885,43 +899,44 @@
       <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>21002</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="5">
         <v>200101</v>
       </c>
@@ -934,45 +949,46 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>21003</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>150</v>
       </c>
-      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="O4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="16.5">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="5">
         <v>300101</v>
       </c>
@@ -985,41 +1001,42 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>21004</v>
       </c>
-      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>9000111</v>
       </c>
-      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="5">
         <v>300201</v>
       </c>
@@ -1032,41 +1049,42 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>21005</v>
       </c>
-      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5">
         <v>9000221</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="16.5">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="5">
         <v>1006</v>
       </c>
@@ -1079,41 +1097,42 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>21006</v>
       </c>
-      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="b">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="5" t="b">
-        <v>1</v>
-      </c>
       <c r="N7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="5">
         <v>100201</v>
       </c>
@@ -1126,49 +1145,50 @@
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>11002</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="N8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5">
+      <c r="U8" s="5"/>
+      <c r="V8" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="7">
         <v>1007</v>
       </c>
@@ -1181,45 +1201,49 @@
       <c r="D9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>31002</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <v>20</v>
       </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="O9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="9">
+      <c r="S9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="9">
         <v>1001</v>
       </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5">
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241C4F3-9F99-4A36-8C65-EC8F21D5FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="330" yWindow="390" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -138,14 +139,6 @@
   </si>
   <si>
     <t>CompleteExtinction</t>
-  </si>
-  <si>
-    <t>CardName_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Card_Id</t>
@@ -244,14 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CardName_1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Magic</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -268,12 +253,51 @@
   </si>
   <si>
     <t>CardShortDesc_Id</t>
+  </si>
+  <si>
+    <t>CardName_1002</t>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1002</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1003</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1004</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1005</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1006</t>
+  </si>
+  <si>
+    <t>CardName_1007</t>
+  </si>
+  <si>
+    <t>CardDesc_1007</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1007</t>
+  </si>
+  <si>
+    <t>CardName_1008</t>
+  </si>
+  <si>
+    <t>CardDesc_1008</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -358,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -367,12 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,15 +749,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
@@ -762,19 +780,19 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>9</v>
@@ -798,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>36</v>
@@ -819,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>31</v>
@@ -836,13 +854,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>69</v>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
@@ -872,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>33</v>
@@ -894,12 +912,14 @@
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
@@ -922,13 +942,13 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -949,7 +969,9 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
@@ -976,13 +998,13 @@
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -1001,7 +1023,9 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1022,13 +1046,13 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T5" s="5">
         <v>9000111</v>
@@ -1049,7 +1073,9 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1070,13 +1096,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5">
@@ -1097,7 +1123,9 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1120,13 +1148,13 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1137,15 +1165,17 @@
         <v>100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>33</v>
@@ -1189,56 +1219,58 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>1007</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5">
+        <v>31002</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="7">
-        <v>31002</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
-        <v>20</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="9">
+      <c r="S9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241C4F3-9F99-4A36-8C65-EC8F21D5FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="390" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="390" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -145,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CardName_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CardNameDesc_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,70 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireBall_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abundance_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abundance_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frican_Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frican_Lv5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crotch_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldMine_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abundance_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protect_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frican_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HandStart_Ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,76 +160,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>CardShortDesc_Id</t>
+  </si>
+  <si>
+    <t>CardName_1002</t>
+  </si>
+  <si>
+    <t>CardDesc_1002</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1002</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1003</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1004</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1005</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1006</t>
+  </si>
+  <si>
+    <t>CardName_1007</t>
+  </si>
+  <si>
+    <t>CardDesc_1007</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1007</t>
+  </si>
+  <si>
+    <t>CardName_1008</t>
+  </si>
+  <si>
+    <t>CardDesc_1008</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1008</t>
+  </si>
+  <si>
+    <t>CardName_1001</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1001</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Crotch_Lv1</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>FireBall_Lv1</t>
+  </si>
+  <si>
+    <t>FireBall_Lv3</t>
+  </si>
+  <si>
+    <t>FireBall_Lv5</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>GoldMine_Lv1</t>
+  </si>
+  <si>
+    <t>GoldMine_Lv3</t>
+  </si>
+  <si>
+    <t>GoldMine_Lv5</t>
+  </si>
+  <si>
+    <t>Abundance_Lv1</t>
+  </si>
+  <si>
+    <t>Abundance_Lv3</t>
+  </si>
+  <si>
+    <t>Abundance_Lv5</t>
+  </si>
+  <si>
+    <t>Protect_Lv1</t>
+  </si>
+  <si>
+    <t>Protect_Lv3</t>
+  </si>
+  <si>
+    <t>Protect_Lv5</t>
+  </si>
+  <si>
+    <t>Frican_Lv1</t>
+  </si>
+  <si>
+    <t>Frican_Lv3</t>
+  </si>
+  <si>
+    <t>Frican_Lv5</t>
+  </si>
+  <si>
     <t>테스트아쳐</t>
+  </si>
+  <si>
+    <t>토하기</t>
+  </si>
+  <si>
+    <t>GoldPot</t>
+  </si>
+  <si>
+    <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldPot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardShortDesc_Id</t>
-  </si>
-  <si>
-    <t>CardName_1002</t>
-  </si>
-  <si>
-    <t>CardDesc_1002</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1002</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1003</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1004</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1005</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1006</t>
-  </si>
-  <si>
-    <t>CardName_1007</t>
-  </si>
-  <si>
-    <t>CardDesc_1007</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1007</t>
-  </si>
-  <si>
-    <t>CardName_1008</t>
-  </si>
-  <si>
-    <t>CardDesc_1008</t>
-  </si>
-  <si>
-    <t>CardShortDesc_1008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -318,13 +305,6 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -386,22 +366,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -749,15 +729,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
@@ -765,20 +745,21 @@
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="1"/>
-    <col min="7" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.75" style="1"/>
-    <col min="12" max="12" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.75" style="1"/>
+    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:23" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -786,67 +767,70 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:23" ht="16.5">
       <c r="A2" s="5">
         <v>100101</v>
       </c>
@@ -854,57 +838,60 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5">
         <v>21001</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>3</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>52</v>
+      <c r="O2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5">
+        <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="5">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:23" ht="16.5">
       <c r="A3" s="5">
         <v>100301</v>
       </c>
@@ -912,51 +899,54 @@
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="5">
         <v>21002</v>
       </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="U3" s="5"/>
-      <c r="V3" s="5">
+      <c r="V3" s="5"/>
+      <c r="W3" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:23" ht="16.5">
       <c r="A4" s="5">
         <v>200101</v>
       </c>
@@ -970,47 +960,50 @@
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="5">
         <v>21003</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>150</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="P4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:23" ht="16.5">
       <c r="A5" s="5">
         <v>300101</v>
       </c>
@@ -1024,43 +1017,46 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="5">
         <v>21004</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="5">
+        <v>71</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="5">
         <v>9000111</v>
       </c>
-      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:23" ht="16.5">
       <c r="A6" s="5">
         <v>300201</v>
       </c>
@@ -1074,43 +1070,46 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5">
         <v>21005</v>
       </c>
-      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5">
+        <v>74</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
         <v>9000221</v>
       </c>
-      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:23" ht="16.5">
       <c r="A7" s="5">
         <v>1006</v>
       </c>
@@ -1124,157 +1123,166 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5">
         <v>21006</v>
       </c>
-      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="b">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="5" t="b">
-        <v>1</v>
-      </c>
       <c r="O7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="P7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:23" ht="16.5">
       <c r="A8" s="5">
         <v>100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="5">
         <v>11002</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>52</v>
+      <c r="O8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5">
+        <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="5">
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:23" ht="16.5">
       <c r="A9" s="5">
         <v>1007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="5">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="5">
         <v>31002</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>20</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>64</v>
+      <c r="P9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="7">
+        <v>81</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:23" ht="16.5">
       <c r="E15" s="5"/>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -279,13 +279,87 @@
   <si>
     <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽑을 덱 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1012</t>
+  </si>
+  <si>
+    <t>CardDesc_1012</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1012</t>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무덤 덱 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1013</t>
+  </si>
+  <si>
+    <t>CardDesc_1013</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -311,6 +385,13 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -362,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -382,6 +463,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -734,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1282,6 +1364,165 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="10" spans="1:23" ht="16.5">
+      <c r="A10" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="5">
+        <v>31002</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5">
+      <c r="A11" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="5">
+        <v>31002</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5">
+      <c r="A12" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="5">
+        <v>31002</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="15" spans="1:23" ht="16.5">
       <c r="E15" s="5"/>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -816,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1387,7 +1387,7 @@
         <v>88</v>
       </c>
       <c r="H10" s="5">
-        <v>31002</v>
+        <v>41001</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1440,7 +1440,7 @@
         <v>96</v>
       </c>
       <c r="H11" s="5">
-        <v>31002</v>
+        <v>41002</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1493,7 +1493,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="5">
-        <v>31002</v>
+        <v>41003</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -353,6 +353,42 @@
   </si>
   <si>
     <t>CardShortDesc_1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카드 삼키기 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swallow_Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swallow_Lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swallow_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +449,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -443,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -464,6 +506,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -816,7 +868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -835,7 +887,8 @@
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="8.75" style="1"/>
@@ -1520,6 +1573,59 @@
       <c r="U12" s="5"/>
       <c r="V12" s="9"/>
       <c r="W12" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5">
+      <c r="A13" s="10">
+        <v>1014</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="10">
+        <v>41004</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" s="10"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B351F2-E1F2-454C-A9E4-EF4EDBC58D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="390" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -394,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -485,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -505,14 +506,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,15 +863,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46:K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="5">
         <v>3</v>
@@ -1465,7 +1465,7 @@
         <v>90</v>
       </c>
       <c r="U10" s="5"/>
-      <c r="V10" s="9"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="7">
         <v>1001</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>98</v>
       </c>
       <c r="U11" s="5"/>
-      <c r="V11" s="9"/>
+      <c r="V11" s="8"/>
       <c r="W11" s="7">
         <v>1001</v>
       </c>
@@ -1571,61 +1571,61 @@
         <v>90</v>
       </c>
       <c r="U12" s="5"/>
-      <c r="V12" s="9"/>
+      <c r="V12" s="8"/>
       <c r="W12" s="7">
         <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>1014</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>41004</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="10" t="b">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11" t="s">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13">
+      <c r="U13" s="9"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="12">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B351F2-E1F2-454C-A9E4-EF4EDBC58D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE10EB-739D-4C93-9FD9-1CF18A434EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -389,6 +389,46 @@
   </si>
   <si>
     <t>Swallow_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -515,6 +561,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46:K47"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1629,8 +1678,118 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="14" spans="1:23" ht="16.5">
+      <c r="A14" s="13">
+        <v>81001</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="13">
+        <v>810010</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="15" spans="1:23" ht="16.5">
-      <c r="E15" s="5"/>
+      <c r="A15" s="13">
+        <v>81002</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="13">
+        <v>810020</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="16.5">
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE10EB-739D-4C93-9FD9-1CF18A434EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D7E7F-4B1E-46ED-9285-8D5A83398EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>#NameDesc</t>
-  </si>
-  <si>
-    <t>CardType</t>
   </si>
   <si>
     <t>CostMana</t>
@@ -429,6 +426,63 @@
   </si>
   <si>
     <t>Lucy_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핥기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81003</t>
+  </si>
+  <si>
+    <t>CardDesc_81003</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81003</t>
+  </si>
+  <si>
+    <t>Lucy_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노려보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81004</t>
+  </si>
+  <si>
+    <t>CardDesc_81004</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81004</t>
+  </si>
+  <si>
+    <t>Lucy_004</t>
+  </si>
+  <si>
+    <t>CardName_81005</t>
+  </si>
+  <si>
+    <t>CardDesc_81005</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81005</t>
+  </si>
+  <si>
+    <t>Lucy_005</t>
+  </si>
+  <si>
+    <t>찌르고 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,13 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -554,13 +608,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,11 +960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -945,73 +992,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5">
@@ -1019,22 +1066,22 @@
         <v>100101</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H2" s="5">
         <v>21001</v>
@@ -1061,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -1080,22 +1127,22 @@
         <v>100301</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5">
         <v>21002</v>
@@ -1116,13 +1163,13 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1135,7 +1182,7 @@
         <v>200101</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -1144,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="5">
         <v>21003</v>
@@ -1175,13 +1222,13 @@
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1192,7 +1239,7 @@
         <v>300101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -1201,13 +1248,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="5">
         <v>21004</v>
@@ -1226,13 +1273,13 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="U5" s="5">
         <v>9000111</v>
@@ -1245,7 +1292,7 @@
         <v>300201</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>2</v>
@@ -1254,13 +1301,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="5">
         <v>21005</v>
@@ -1279,13 +1326,13 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5">
@@ -1298,7 +1345,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -1307,13 +1354,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="5">
         <v>21006</v>
@@ -1334,13 +1381,13 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1351,22 +1398,22 @@
         <v>100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="5">
         <v>11002</v>
@@ -1393,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1412,22 +1459,22 @@
         <v>1007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5">
         <v>31002</v>
@@ -1452,13 +1499,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="8"/>
@@ -1471,22 +1518,22 @@
         <v>1011</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="H10" s="5">
         <v>41001</v>
@@ -1505,13 +1552,13 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="8"/>
@@ -1524,22 +1571,22 @@
         <v>1012</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="H11" s="5">
         <v>41002</v>
@@ -1558,13 +1605,13 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="8"/>
@@ -1577,22 +1624,22 @@
         <v>1013</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="F12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="H12" s="5">
         <v>41003</v>
@@ -1611,13 +1658,13 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="8"/>
@@ -1626,170 +1673,335 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>1014</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="5">
+        <v>41004</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="9">
-        <v>41004</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="T13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12">
+      <c r="U13" s="5"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="7">
         <v>1001</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.5">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>81001</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="9">
+        <v>810010</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="13">
-        <v>810010</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13">
+      <c r="S14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>81002</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="9">
+        <v>810020</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="13">
-        <v>810020</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="13" t="b">
+      <c r="S15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5">
+      <c r="A16" s="9">
+        <v>81003</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="9">
+        <v>810030</v>
+      </c>
+      <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="16.5">
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:23" ht="16.5">
+      <c r="A17" s="9">
+        <v>81004</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="9">
+        <v>810040</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.5">
+      <c r="A18" s="9">
+        <v>81005</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="9">
+        <v>810050</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5">
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D7E7F-4B1E-46ED-9285-8D5A83398EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F84E00-D649-4D7B-86E8-92439F379763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -484,6 +484,38 @@
   <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81006</t>
+  </si>
+  <si>
+    <t>CardDesc_81006</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81006</t>
+  </si>
+  <si>
+    <t>Lucy_006</t>
+  </si>
+  <si>
+    <t>임프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81007</t>
+  </si>
+  <si>
+    <t>CardDesc_81007</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81007</t>
+  </si>
+  <si>
+    <t>Lucy_007</t>
   </si>
 </sst>
 </file>
@@ -960,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2000,8 +2032,124 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="19" spans="1:23" ht="16.5">
+      <c r="A19" s="9">
+        <v>81006</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="9">
+        <v>810060</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="20" spans="1:23" ht="16.5">
-      <c r="E20" s="5"/>
+      <c r="A20" s="9">
+        <v>81007</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="9">
+        <v>810070</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <v>3</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9">
+        <v>1</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.5">
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F84E00-D649-4D7B-86E8-92439F379763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EAF7B-FC23-47BE-92F0-AD53D7C2F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="163">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Crotch_Lv5</t>
-  </si>
-  <si>
-    <t>AiGroup_id</t>
   </si>
   <si>
     <t>Extinction</t>
@@ -516,6 +513,58 @@
   </si>
   <si>
     <t>Lucy_007</t>
+  </si>
+  <si>
+    <t>임프 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81008</t>
+  </si>
+  <si>
+    <t>CardDesc_81008</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81008</t>
+  </si>
+  <si>
+    <t>Lucy_008</t>
+  </si>
+  <si>
+    <t>겹주름 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81009</t>
+  </si>
+  <si>
+    <t>CardDesc_81009</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81009</t>
+  </si>
+  <si>
+    <t>Lucy_009</t>
+  </si>
+  <si>
+    <t>촌충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81010</t>
+  </si>
+  <si>
+    <t>CardDesc_81010</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81010</t>
+  </si>
+  <si>
+    <t>Lucy_010</t>
+  </si>
+  <si>
+    <t>AiGroup_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -992,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1024,28 +1073,28 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
@@ -1063,13 +1112,13 @@
         <v>13</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>26</v>
@@ -1084,7 +1133,7 @@
         <v>29</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>30</v>
@@ -1101,19 +1150,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="5">
         <v>21001</v>
@@ -1140,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>32</v>
@@ -1162,19 +1211,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5">
         <v>21002</v>
@@ -1195,13 +1244,13 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1223,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5">
         <v>21003</v>
@@ -1254,13 +1303,13 @@
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1280,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="5">
         <v>21004</v>
@@ -1305,13 +1354,13 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="U5" s="5">
         <v>9000111</v>
@@ -1333,13 +1382,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5">
         <v>21005</v>
@@ -1358,13 +1407,13 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5">
@@ -1386,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="5">
         <v>21006</v>
@@ -1413,13 +1462,13 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1430,22 +1479,22 @@
         <v>100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="5">
         <v>11002</v>
@@ -1472,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>32</v>
@@ -1491,22 +1540,22 @@
         <v>1007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5">
         <v>31002</v>
@@ -1531,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="8"/>
@@ -1550,22 +1599,22 @@
         <v>1011</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H10" s="5">
         <v>41001</v>
@@ -1584,13 +1633,13 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="8"/>
@@ -1603,22 +1652,22 @@
         <v>1012</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H11" s="5">
         <v>41002</v>
@@ -1637,13 +1686,13 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="8"/>
@@ -1656,22 +1705,22 @@
         <v>1013</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="F12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H12" s="5">
         <v>41003</v>
@@ -1690,13 +1739,13 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="8"/>
@@ -1709,22 +1758,22 @@
         <v>1014</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H13" s="5">
         <v>41004</v>
@@ -1743,13 +1792,13 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="8"/>
@@ -1762,22 +1811,22 @@
         <v>81001</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="9">
         <v>810010</v>
@@ -1798,13 +1847,13 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1817,22 +1866,22 @@
         <v>81002</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="9">
         <v>810020</v>
@@ -1853,13 +1902,13 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -1872,22 +1921,22 @@
         <v>81003</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="9">
         <v>810030</v>
@@ -1908,13 +1957,13 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -1927,22 +1976,22 @@
         <v>81004</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="9">
         <v>810040</v>
@@ -1963,13 +2012,13 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -1982,22 +2031,22 @@
         <v>81005</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="9">
         <v>810050</v>
@@ -2018,13 +2067,13 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -2037,22 +2086,22 @@
         <v>81006</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="9">
         <v>810060</v>
@@ -2073,13 +2122,13 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -2092,22 +2141,22 @@
         <v>81007</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="9">
         <v>810070</v>
@@ -2134,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -2148,8 +2197,189 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="21" spans="1:23" ht="16.5">
+      <c r="A21" s="9">
+        <v>81008</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="9">
+        <v>810080</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>3</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="22" spans="1:23" ht="16.5">
-      <c r="E22" s="5"/>
+      <c r="A22" s="9">
+        <v>81009</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="9">
+        <v>810090</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
+        <v>6</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5">
+      <c r="A23" s="9">
+        <v>81010</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="9">
+        <v>810100</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>10</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16.5">
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EAF7B-FC23-47BE-92F0-AD53D7C2F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F01E1F-2055-4EF9-BF86-D15523B002D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -565,6 +565,38 @@
   <si>
     <t>AiGroup_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81011</t>
+  </si>
+  <si>
+    <t>CardDesc_81011</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81011</t>
+  </si>
+  <si>
+    <t>Lucy_011</t>
+  </si>
+  <si>
+    <t>아메바뇌염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81012</t>
+  </si>
+  <si>
+    <t>CardDesc_81012</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81012</t>
+  </si>
+  <si>
+    <t>Lucy_012</t>
   </si>
 </sst>
 </file>
@@ -1041,11 +1073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2343,11 +2375,11 @@
         <v>810100</v>
       </c>
       <c r="I23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L23" s="9">
         <v>1</v>
@@ -2378,8 +2410,130 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="24" spans="1:23" ht="16.5">
+      <c r="A24" s="9">
+        <v>81011</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="9">
+        <v>810110</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
+        <v>8</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9">
+        <v>1</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="25" spans="1:23" ht="16.5">
-      <c r="E25" s="5"/>
+      <c r="A25" s="9">
+        <v>81012</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="9">
+        <v>810120</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <v>6</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5">
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F01E1F-2055-4EF9-BF86-D15523B002D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E77D4-9BC1-4939-9662-0FB8594A8758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -597,6 +597,54 @@
   </si>
   <si>
     <t>Lucy_012</t>
+  </si>
+  <si>
+    <t>구토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81013</t>
+  </si>
+  <si>
+    <t>CardDesc_81013</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81013</t>
+  </si>
+  <si>
+    <t>Lucy_013</t>
+  </si>
+  <si>
+    <t>구토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81014</t>
+  </si>
+  <si>
+    <t>CardDesc_81014</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81014</t>
+  </si>
+  <si>
+    <t>Lucy_014</t>
+  </si>
+  <si>
+    <t>혈토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81015</t>
+  </si>
+  <si>
+    <t>CardDesc_81015</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81015</t>
+  </si>
+  <si>
+    <t>Lucy_015</t>
   </si>
 </sst>
 </file>
@@ -640,7 +688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,12 +710,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -720,9 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,11 +1112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1854,7 +1893,7 @@
       <c r="E14" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -1909,7 +1948,7 @@
       <c r="E15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -1964,7 +2003,7 @@
       <c r="E16" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -2019,7 +2058,7 @@
       <c r="E17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -2074,7 +2113,7 @@
       <c r="E18" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -2129,7 +2168,7 @@
       <c r="E19" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -2184,7 +2223,7 @@
       <c r="E20" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -2245,7 +2284,7 @@
       <c r="E21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -2306,7 +2345,7 @@
       <c r="E22" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -2365,7 +2404,7 @@
       <c r="E23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -2426,7 +2465,7 @@
       <c r="E24" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -2487,10 +2526,10 @@
       <c r="E25" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="9">
@@ -2532,8 +2571,177 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="26" spans="1:23" ht="16.5">
+      <c r="A26" s="9">
+        <v>81013</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="9">
+        <v>810130</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="27" spans="1:23" ht="16.5">
-      <c r="E27" s="5"/>
+      <c r="A27" s="9">
+        <v>81014</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="9">
+        <v>810140</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5">
+      <c r="A28" s="9">
+        <v>81015</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="9">
+        <v>810150</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16.5">
+      <c r="E30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E77D4-9BC1-4939-9662-0FB8594A8758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB45813A-053F-4F66-A14B-A6DB798DA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="198">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -645,6 +645,38 @@
   </si>
   <si>
     <t>Lucy_015</t>
+  </si>
+  <si>
+    <t>한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81016</t>
+  </si>
+  <si>
+    <t>CardDesc_81016</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81016</t>
+  </si>
+  <si>
+    <t>CardName_81017</t>
+  </si>
+  <si>
+    <t>CardDesc_81017</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81017</t>
+  </si>
+  <si>
+    <t>Lucy_016</t>
+  </si>
+  <si>
+    <t>Lucy_017</t>
   </si>
 </sst>
 </file>
@@ -1112,11 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2740,8 +2772,122 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="29" spans="1:23" ht="16.5">
+      <c r="A29" s="9">
+        <v>81016</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="9">
+        <v>810160</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9">
+        <v>1</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="30" spans="1:23" ht="16.5">
-      <c r="E30" s="5"/>
+      <c r="A30" s="9">
+        <v>81017</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="9">
+        <v>810170</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9">
+        <v>1</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16.5">
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB45813A-053F-4F66-A14B-A6DB798DA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC45DF-33B2-4598-9C13-D266ACD364D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="247">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -677,6 +677,166 @@
   </si>
   <si>
     <t>Lucy_017</t>
+  </si>
+  <si>
+    <t>크게 한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81018</t>
+  </si>
+  <si>
+    <t>CardDesc_81018</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81018</t>
+  </si>
+  <si>
+    <t>Lucy_018</t>
+  </si>
+  <si>
+    <t>CardName_81019</t>
+  </si>
+  <si>
+    <t>CardDesc_81019</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81019</t>
+  </si>
+  <si>
+    <t>빨아 먹기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_019</t>
+  </si>
+  <si>
+    <t>포만감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81020</t>
+  </si>
+  <si>
+    <t>CardDesc_81020</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81020</t>
+  </si>
+  <si>
+    <t>Lucy_020</t>
+  </si>
+  <si>
+    <t>김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81021</t>
+  </si>
+  <si>
+    <t>CardDesc_81021</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81021</t>
+  </si>
+  <si>
+    <t>Lucy_021</t>
+  </si>
+  <si>
+    <t>골동품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81022</t>
+  </si>
+  <si>
+    <t>CardDesc_81022</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81022</t>
+  </si>
+  <si>
+    <t>Lucy_022</t>
+  </si>
+  <si>
+    <t>CardName_81023</t>
+  </si>
+  <si>
+    <t>CardDesc_81023</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81023</t>
+  </si>
+  <si>
+    <t>Lucy_023</t>
+  </si>
+  <si>
+    <t>독의 숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81024</t>
+  </si>
+  <si>
+    <t>CardDesc_81024</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81024</t>
+  </si>
+  <si>
+    <t>Lucy_024</t>
+  </si>
+  <si>
+    <t>소화불량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_1015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_1015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81025</t>
+  </si>
+  <si>
+    <t>CardDesc_81025</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81025</t>
+  </si>
+  <si>
+    <t>Lucy_025</t>
+  </si>
+  <si>
+    <t>CardName_81026</t>
+  </si>
+  <si>
+    <t>CardDesc_81026</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81026</t>
+  </si>
+  <si>
+    <t>무라마사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_026</t>
   </si>
 </sst>
 </file>
@@ -1144,17 +1304,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
+      <selection pane="bottomLeft" activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
@@ -1165,16 +1325,16 @@
     <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5">
+    <row r="1" spans="1:23" ht="17">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1245,7 +1405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5">
+    <row r="2" spans="1:23" ht="17">
       <c r="A2" s="5">
         <v>100101</v>
       </c>
@@ -1306,7 +1466,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5">
+    <row r="3" spans="1:23" ht="17">
       <c r="A3" s="5">
         <v>100301</v>
       </c>
@@ -1361,7 +1521,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5">
+    <row r="4" spans="1:23" ht="17">
       <c r="A4" s="5">
         <v>200101</v>
       </c>
@@ -1418,7 +1578,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="16.5">
+    <row r="5" spans="1:23" ht="17">
       <c r="A5" s="5">
         <v>300101</v>
       </c>
@@ -1471,7 +1631,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5">
+    <row r="6" spans="1:23" ht="17">
       <c r="A6" s="5">
         <v>300201</v>
       </c>
@@ -1524,7 +1684,7 @@
       </c>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5">
+    <row r="7" spans="1:23" ht="17">
       <c r="A7" s="5">
         <v>1006</v>
       </c>
@@ -1577,7 +1737,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" ht="16.5">
+    <row r="8" spans="1:23" ht="17">
       <c r="A8" s="5">
         <v>100201</v>
       </c>
@@ -1638,7 +1798,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5">
+    <row r="9" spans="1:23" ht="17">
       <c r="A9" s="5">
         <v>1007</v>
       </c>
@@ -1697,7 +1857,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5">
+    <row r="10" spans="1:23" ht="17">
       <c r="A10" s="5">
         <v>1011</v>
       </c>
@@ -1750,7 +1910,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5">
+    <row r="11" spans="1:23" ht="17">
       <c r="A11" s="5">
         <v>1012</v>
       </c>
@@ -1803,7 +1963,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5">
+    <row r="12" spans="1:23" ht="17">
       <c r="A12" s="5">
         <v>1013</v>
       </c>
@@ -1856,7 +2016,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5">
+    <row r="13" spans="1:23" ht="17">
       <c r="A13" s="5">
         <v>1014</v>
       </c>
@@ -1909,76 +2069,76 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5">
-      <c r="A14" s="9">
+    <row r="14" spans="1:23" ht="17">
+      <c r="A14" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5">
+        <v>41004</v>
+      </c>
+      <c r="I14" s="6">
+        <v>99</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="17">
+      <c r="A15" s="9">
         <v>81001</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="9">
-        <v>810010</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="16.5">
-      <c r="A15" s="9">
-        <v>81002</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
@@ -1987,7 +2147,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="9">
-        <v>810020</v>
+        <v>810010</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
@@ -2005,13 +2165,13 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -2019,21 +2179,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5">
+    <row r="16" spans="1:23" ht="17">
       <c r="A16" s="9">
-        <v>81003</v>
+        <v>81002</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -2042,10 +2202,10 @@
         <v>58</v>
       </c>
       <c r="H16" s="9">
-        <v>810030</v>
+        <v>810020</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2060,13 +2220,13 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -2074,21 +2234,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="17">
       <c r="A17" s="9">
-        <v>81004</v>
+        <v>81003</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>16</v>
@@ -2097,7 +2257,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="9">
-        <v>810040</v>
+        <v>810030</v>
       </c>
       <c r="I17" s="9">
         <v>0</v>
@@ -2115,13 +2275,13 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -2129,33 +2289,33 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="17">
       <c r="A18" s="9">
-        <v>81005</v>
+        <v>81004</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H18" s="9">
-        <v>810050</v>
+        <v>810040</v>
       </c>
       <c r="I18" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2170,13 +2330,13 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -2184,30 +2344,30 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="17">
       <c r="A19" s="9">
-        <v>81006</v>
+        <v>81005</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="H19" s="9">
-        <v>810060</v>
+        <v>810050</v>
       </c>
       <c r="I19" s="9">
         <v>2</v>
@@ -2225,13 +2385,13 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -2239,60 +2399,54 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="17">
       <c r="A20" s="9">
-        <v>81007</v>
+        <v>81006</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="9">
-        <v>810070</v>
+        <v>810060</v>
       </c>
       <c r="I20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="9">
-        <v>3</v>
-      </c>
-      <c r="L20" s="9">
-        <v>2</v>
-      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="O20" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="9"/>
-      <c r="Q20" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="9"/>
       <c r="R20" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -2300,21 +2454,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="17">
       <c r="A21" s="9">
-        <v>81008</v>
+        <v>81007</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>18</v>
@@ -2323,17 +2477,17 @@
         <v>58</v>
       </c>
       <c r="H21" s="9">
-        <v>810080</v>
+        <v>810070</v>
       </c>
       <c r="I21" s="9">
         <v>1</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9">
+        <v>3</v>
+      </c>
+      <c r="L21" s="9">
         <v>2</v>
-      </c>
-      <c r="L21" s="9">
-        <v>3</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="b">
@@ -2347,13 +2501,13 @@
         <v>1</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -2361,39 +2515,41 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="17">
       <c r="A22" s="9">
-        <v>81009</v>
+        <v>81008</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H22" s="9">
-        <v>810090</v>
+        <v>810080</v>
       </c>
       <c r="I22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9">
-        <v>6</v>
-      </c>
-      <c r="L22" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>3</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9" t="b">
         <v>1</v>
@@ -2406,13 +2562,13 @@
         <v>1</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -2420,41 +2576,39 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="17">
       <c r="A23" s="9">
-        <v>81010</v>
+        <v>81009</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="H23" s="9">
-        <v>810100</v>
+        <v>810090</v>
       </c>
       <c r="I23" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9">
-        <v>5</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="b">
         <v>1</v>
@@ -2467,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -2481,37 +2635,37 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="17">
       <c r="A24" s="9">
-        <v>81011</v>
+        <v>81010</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H24" s="9">
-        <v>810110</v>
+        <v>810100</v>
       </c>
       <c r="I24" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L24" s="9">
         <v>1</v>
@@ -2528,13 +2682,13 @@
         <v>1</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -2542,37 +2696,37 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="17">
       <c r="A25" s="9">
-        <v>81012</v>
+        <v>81011</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="H25" s="9">
-        <v>810120</v>
+        <v>810110</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" s="9">
         <v>1</v>
@@ -2589,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2603,35 +2757,41 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="17">
       <c r="A26" s="9">
-        <v>81013</v>
+        <v>81012</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H26" s="9">
-        <v>810130</v>
-      </c>
-      <c r="I26" s="9"/>
+        <v>810120</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="K26" s="9">
+        <v>6</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9" t="b">
         <v>1</v>
@@ -2644,13 +2804,13 @@
         <v>1</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -2658,21 +2818,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="17">
       <c r="A27" s="9">
-        <v>81014</v>
+        <v>81013</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>16</v>
@@ -2681,10 +2841,10 @@
         <v>58</v>
       </c>
       <c r="H27" s="9">
-        <v>810140</v>
+        <v>810130</v>
       </c>
       <c r="I27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2701,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -2715,33 +2875,33 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="17">
       <c r="A28" s="9">
-        <v>81015</v>
+        <v>81014</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H28" s="9">
-        <v>810150</v>
+        <v>810140</v>
       </c>
       <c r="I28" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2758,13 +2918,13 @@
         <v>1</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -2772,33 +2932,33 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="17">
       <c r="A29" s="9">
-        <v>81016</v>
+        <v>81015</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="H29" s="9">
-        <v>810160</v>
+        <v>810150</v>
       </c>
       <c r="I29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2815,13 +2975,13 @@
         <v>1</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -2829,21 +2989,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="17">
       <c r="A30" s="9">
-        <v>81017</v>
+        <v>81016</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>16</v>
@@ -2852,7 +3012,7 @@
         <v>58</v>
       </c>
       <c r="H30" s="9">
-        <v>810170</v>
+        <v>810160</v>
       </c>
       <c r="I30" s="9">
         <v>1</v>
@@ -2872,13 +3032,13 @@
         <v>1</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -2886,8 +3046,575 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
-      <c r="E32" s="5"/>
+    <row r="31" spans="1:23" ht="17">
+      <c r="A31" s="9">
+        <v>81017</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="9">
+        <v>810170</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="17">
+      <c r="A32" s="9">
+        <v>81018</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="9">
+        <v>810180</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="17">
+      <c r="A33" s="9">
+        <v>81019</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="9">
+        <v>810190</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="17">
+      <c r="A34" s="9">
+        <v>81020</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="9">
+        <v>810200</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="17">
+      <c r="A35" s="9">
+        <v>81021</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="9">
+        <v>810210</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="17">
+      <c r="A36" s="9">
+        <v>81022</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="9">
+        <v>810220</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9">
+        <v>1</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="17">
+      <c r="A37" s="9">
+        <v>81023</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="9">
+        <v>810230</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9">
+        <v>1</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="17">
+      <c r="A38" s="9">
+        <v>81024</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="9">
+        <v>810240</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="17">
+      <c r="A39" s="9">
+        <v>81025</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="9">
+        <v>810250</v>
+      </c>
+      <c r="I39" s="9">
+        <v>2</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9">
+        <v>1</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="17">
+      <c r="A40" s="9">
+        <v>81026</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="9">
+        <v>810260</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9">
+        <v>1</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9">
+        <v>1001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC45DF-33B2-4598-9C13-D266ACD364D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3134B497-512B-4523-AC70-4FB0872510F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="272">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Crotch_Lv5</t>
-  </si>
-  <si>
-    <t>Extinction</t>
   </si>
   <si>
     <t>CompleteExtinction</t>
@@ -837,6 +834,98 @@
   </si>
   <si>
     <t>Lucy_026</t>
+  </si>
+  <si>
+    <t>CardName_81027</t>
+  </si>
+  <si>
+    <t>CardDesc_81027</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81027</t>
+  </si>
+  <si>
+    <t>CardName_81028</t>
+  </si>
+  <si>
+    <t>CardDesc_81028</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81028</t>
+  </si>
+  <si>
+    <t>Lucy_027</t>
+  </si>
+  <si>
+    <t>Lucy_028</t>
+  </si>
+  <si>
+    <t>단식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헛구역질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대의 명약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_81030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_81030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extinction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 아귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81031</t>
+  </si>
+  <si>
+    <t>CardDesc_81031</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81031</t>
+  </si>
+  <si>
+    <t>Lucy_031</t>
   </si>
 </sst>
 </file>
@@ -880,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,6 +1049,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U44" sqref="U44"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1336,28 +1434,28 @@
   <sheetData>
     <row r="1" spans="1:23" ht="17">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
@@ -1375,13 +1473,13 @@
         <v>13</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>26</v>
@@ -1396,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>30</v>
@@ -1413,19 +1511,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5">
         <v>21001</v>
@@ -1452,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>32</v>
@@ -1474,19 +1572,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5">
         <v>21002</v>
@@ -1507,13 +1605,13 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1535,13 +1633,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="5">
         <v>21003</v>
@@ -1566,13 +1664,13 @@
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1592,13 +1690,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="5">
         <v>21004</v>
@@ -1617,13 +1715,13 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="U5" s="5">
         <v>9000111</v>
@@ -1645,13 +1743,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="5">
         <v>21005</v>
@@ -1670,13 +1768,13 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5">
@@ -1698,13 +1796,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="5">
         <v>21006</v>
@@ -1725,13 +1823,13 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1742,22 +1840,22 @@
         <v>100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="5">
         <v>11002</v>
@@ -1784,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>32</v>
@@ -1803,22 +1901,22 @@
         <v>1007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5">
         <v>31002</v>
@@ -1843,13 +1941,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="8"/>
@@ -1862,22 +1960,22 @@
         <v>1011</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="5">
         <v>41001</v>
@@ -1896,13 +1994,13 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="8"/>
@@ -1915,22 +2013,22 @@
         <v>1012</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H11" s="5">
         <v>41002</v>
@@ -1949,13 +2047,13 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="8"/>
@@ -1968,22 +2066,22 @@
         <v>1013</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H12" s="5">
         <v>41003</v>
@@ -2002,13 +2100,13 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="8"/>
@@ -2021,22 +2119,22 @@
         <v>1014</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H13" s="5">
         <v>41004</v>
@@ -2055,13 +2153,13 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="8"/>
@@ -2074,22 +2172,22 @@
         <v>1015</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="F14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="5">
         <v>41004</v>
@@ -2110,13 +2208,13 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="8"/>
@@ -2129,22 +2227,22 @@
         <v>81001</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="9">
         <v>810010</v>
@@ -2165,13 +2263,13 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -2184,22 +2282,22 @@
         <v>81002</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="9">
         <v>810020</v>
@@ -2220,13 +2318,13 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -2239,22 +2337,22 @@
         <v>81003</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="9">
         <v>810030</v>
@@ -2275,13 +2373,13 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -2294,22 +2392,22 @@
         <v>81004</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="9">
         <v>810040</v>
@@ -2330,13 +2428,13 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -2349,22 +2447,22 @@
         <v>81005</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="9">
         <v>810050</v>
@@ -2385,13 +2483,13 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -2404,22 +2502,22 @@
         <v>81006</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="9">
         <v>810060</v>
@@ -2440,13 +2538,13 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -2459,22 +2557,22 @@
         <v>81007</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="9">
         <v>810070</v>
@@ -2501,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -2520,22 +2618,22 @@
         <v>81008</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="9">
         <v>810080</v>
@@ -2562,13 +2660,13 @@
         <v>1</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -2581,22 +2679,22 @@
         <v>81009</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="9">
         <v>810090</v>
@@ -2621,13 +2719,13 @@
         <v>1</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -2640,22 +2738,22 @@
         <v>81010</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="9">
         <v>810100</v>
@@ -2682,13 +2780,13 @@
         <v>1</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -2701,22 +2799,22 @@
         <v>81011</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="9">
         <v>810110</v>
@@ -2743,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2762,22 +2860,22 @@
         <v>81012</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="9">
         <v>810120</v>
@@ -2804,13 +2902,13 @@
         <v>1</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -2823,22 +2921,22 @@
         <v>81013</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="9">
         <v>810130</v>
@@ -2854,20 +2952,18 @@
         <v>1</v>
       </c>
       <c r="O27" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="9"/>
-      <c r="Q27" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -2880,22 +2976,22 @@
         <v>81014</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="9">
         <v>810140</v>
@@ -2911,20 +3007,18 @@
         <v>1</v>
       </c>
       <c r="O28" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="9"/>
-      <c r="Q28" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="9"/>
       <c r="R28" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -2937,22 +3031,22 @@
         <v>81015</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="9">
         <v>810150</v>
@@ -2968,20 +3062,18 @@
         <v>1</v>
       </c>
       <c r="O29" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="9"/>
-      <c r="Q29" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q29" s="9"/>
       <c r="R29" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -2994,22 +3086,22 @@
         <v>81016</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="9">
         <v>810160</v>
@@ -3025,20 +3117,18 @@
         <v>1</v>
       </c>
       <c r="O30" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q30" s="9"/>
       <c r="R30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -3051,22 +3141,22 @@
         <v>81017</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="9">
         <v>810170</v>
@@ -3082,20 +3172,18 @@
         <v>1</v>
       </c>
       <c r="O31" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="9"/>
-      <c r="Q31" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q31" s="9"/>
       <c r="R31" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3108,22 +3196,22 @@
         <v>81018</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H32" s="9">
         <v>810180</v>
@@ -3139,20 +3227,18 @@
         <v>1</v>
       </c>
       <c r="O32" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="9"/>
-      <c r="Q32" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q32" s="9"/>
       <c r="R32" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3165,22 +3251,22 @@
         <v>81019</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="9">
         <v>810190</v>
@@ -3196,20 +3282,18 @@
         <v>1</v>
       </c>
       <c r="O33" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="9"/>
-      <c r="Q33" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q33" s="9"/>
       <c r="R33" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3222,22 +3306,22 @@
         <v>81020</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="9">
         <v>810200</v>
@@ -3253,20 +3337,18 @@
         <v>1</v>
       </c>
       <c r="O34" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="9"/>
-      <c r="Q34" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q34" s="9"/>
       <c r="R34" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3279,22 +3361,22 @@
         <v>81021</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="9">
         <v>810210</v>
@@ -3313,17 +3395,15 @@
         <v>1</v>
       </c>
       <c r="P35" s="9"/>
-      <c r="Q35" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q35" s="9"/>
       <c r="R35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -3336,22 +3416,22 @@
         <v>81022</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="9">
         <v>810220</v>
@@ -3370,17 +3450,15 @@
         <v>1</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q36" s="9"/>
       <c r="R36" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -3393,22 +3471,22 @@
         <v>81023</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="9">
         <v>810230</v>
@@ -3424,20 +3502,18 @@
         <v>1</v>
       </c>
       <c r="O37" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="9"/>
-      <c r="Q37" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q37" s="9"/>
       <c r="R37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -3450,22 +3526,22 @@
         <v>81024</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" s="9">
         <v>810240</v>
@@ -3484,17 +3560,15 @@
         <v>1</v>
       </c>
       <c r="P38" s="9"/>
-      <c r="Q38" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q38" s="9"/>
       <c r="R38" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
@@ -3507,22 +3581,22 @@
         <v>81025</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="9">
         <v>810250</v>
@@ -3541,17 +3615,15 @@
         <v>1</v>
       </c>
       <c r="P39" s="9"/>
-      <c r="Q39" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q39" s="9"/>
       <c r="R39" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -3564,22 +3636,22 @@
         <v>81026</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="9">
         <v>810260</v>
@@ -3598,21 +3670,300 @@
         <v>1</v>
       </c>
       <c r="P40" s="9"/>
-      <c r="Q40" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q40" s="9"/>
       <c r="R40" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="17">
+      <c r="A41" s="10">
+        <v>81027</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="10">
+        <v>810270</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="17">
+      <c r="A42" s="10">
+        <v>81028</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="10">
+        <v>810280</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="17">
+      <c r="A43" s="9">
+        <v>81029</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="9">
+        <v>810290</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="17">
+      <c r="A44" s="9">
+        <v>81030</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="9">
+        <v>810300</v>
+      </c>
+      <c r="I44" s="9">
+        <v>2</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="17">
+      <c r="A45" s="9">
+        <v>81031</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="9">
+        <v>810310</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9">
+        <v>4</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9">
+        <v>1</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3134B497-512B-4523-AC70-4FB0872510F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731B47E-A5F1-4950-A40A-8CEA193D4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -560,10 +560,6 @@
     <t>Lucy_010</t>
   </si>
   <si>
-    <t>AiGroup_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고래회충</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -926,6 +922,10 @@
   </si>
   <si>
     <t>Lucy_031</t>
+  </si>
+  <si>
+    <t>AiGroup_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1405,34 +1405,34 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1"/>
-    <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.75" style="1"/>
-    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="1"/>
+    <col min="7" max="7" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.69921875" style="1"/>
+    <col min="13" max="13" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="1"/>
+    <col min="16" max="16" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17">
+    <row r="1" spans="1:23" ht="17.399999999999999">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>79</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
@@ -1476,7 +1476,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>34</v>
@@ -1503,7 +1503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17">
+    <row r="2" spans="1:23" ht="17.399999999999999">
       <c r="A2" s="5">
         <v>100101</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="17">
+    <row r="3" spans="1:23" ht="17.399999999999999">
       <c r="A3" s="5">
         <v>100301</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17">
+    <row r="4" spans="1:23" ht="17.399999999999999">
       <c r="A4" s="5">
         <v>200101</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="17">
+    <row r="5" spans="1:23" ht="17.399999999999999">
       <c r="A5" s="5">
         <v>300101</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" ht="17">
+    <row r="6" spans="1:23" ht="17.399999999999999">
       <c r="A6" s="5">
         <v>300201</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="17">
+    <row r="7" spans="1:23" ht="17.399999999999999">
       <c r="A7" s="5">
         <v>1006</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" ht="17">
+    <row r="8" spans="1:23" ht="17.399999999999999">
       <c r="A8" s="5">
         <v>100201</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17">
+    <row r="9" spans="1:23" ht="17.399999999999999">
       <c r="A9" s="5">
         <v>1007</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17">
+    <row r="10" spans="1:23" ht="17.399999999999999">
       <c r="A10" s="5">
         <v>1011</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17">
+    <row r="11" spans="1:23" ht="17.399999999999999">
       <c r="A11" s="5">
         <v>1012</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17">
+    <row r="12" spans="1:23" ht="17.399999999999999">
       <c r="A12" s="5">
         <v>1013</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17">
+    <row r="13" spans="1:23" ht="17.399999999999999">
       <c r="A13" s="5">
         <v>1014</v>
       </c>
@@ -2167,21 +2167,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17">
+    <row r="14" spans="1:23" ht="17.399999999999999">
       <c r="A14" s="5">
         <v>1015</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>84</v>
@@ -2222,7 +2222,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17">
+    <row r="15" spans="1:23" ht="17.399999999999999">
       <c r="A15" s="9">
         <v>81001</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17">
+    <row r="16" spans="1:23" ht="17.399999999999999">
       <c r="A16" s="9">
         <v>81002</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17">
+    <row r="17" spans="1:23" ht="17.399999999999999">
       <c r="A17" s="9">
         <v>81003</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="17">
+    <row r="18" spans="1:23" ht="17.399999999999999">
       <c r="A18" s="9">
         <v>81004</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17">
+    <row r="19" spans="1:23" ht="17.399999999999999">
       <c r="A19" s="9">
         <v>81005</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="17">
+    <row r="20" spans="1:23" ht="17.399999999999999">
       <c r="A20" s="9">
         <v>81006</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17">
+    <row r="21" spans="1:23" ht="17.399999999999999">
       <c r="A21" s="9">
         <v>81007</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="17">
+    <row r="22" spans="1:23" ht="17.399999999999999">
       <c r="A22" s="9">
         <v>81008</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="17">
+    <row r="23" spans="1:23" ht="17.399999999999999">
       <c r="A23" s="9">
         <v>81009</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="17">
+    <row r="24" spans="1:23" ht="17.399999999999999">
       <c r="A24" s="9">
         <v>81010</v>
       </c>
@@ -2794,21 +2794,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="17">
+    <row r="25" spans="1:23" ht="17.399999999999999">
       <c r="A25" s="9">
         <v>81011</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>18</v>
@@ -2841,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2855,21 +2855,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="17">
+    <row r="26" spans="1:23" ht="17.399999999999999">
       <c r="A26" s="9">
         <v>81012</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>18</v>
@@ -2902,13 +2902,13 @@
         <v>1</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -2916,21 +2916,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17">
+    <row r="27" spans="1:23" ht="17.399999999999999">
       <c r="A27" s="9">
         <v>81013</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>16</v>
@@ -2957,13 +2957,13 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -2971,21 +2971,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="17">
+    <row r="28" spans="1:23" ht="17.399999999999999">
       <c r="A28" s="9">
         <v>81014</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>16</v>
@@ -3012,13 +3012,13 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -3026,21 +3026,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="17">
+    <row r="29" spans="1:23" ht="17.399999999999999">
       <c r="A29" s="9">
         <v>81015</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>16</v>
@@ -3067,13 +3067,13 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -3081,21 +3081,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="17">
+    <row r="30" spans="1:23" ht="17.399999999999999">
       <c r="A30" s="9">
         <v>81016</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>16</v>
@@ -3122,13 +3122,13 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -3136,21 +3136,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="17">
+    <row r="31" spans="1:23" ht="17.399999999999999">
       <c r="A31" s="9">
         <v>81017</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>16</v>
@@ -3177,13 +3177,13 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3191,21 +3191,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="17">
+    <row r="32" spans="1:23" ht="17.399999999999999">
       <c r="A32" s="9">
         <v>81018</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>16</v>
@@ -3232,13 +3232,13 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3246,21 +3246,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="17">
+    <row r="33" spans="1:23" ht="17.399999999999999">
       <c r="A33" s="9">
         <v>81019</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>16</v>
@@ -3287,13 +3287,13 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3301,21 +3301,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="17">
+    <row r="34" spans="1:23" ht="17.399999999999999">
       <c r="A34" s="9">
         <v>81020</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>16</v>
@@ -3342,13 +3342,13 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3356,21 +3356,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="17">
+    <row r="35" spans="1:23" ht="17.399999999999999">
       <c r="A35" s="9">
         <v>81021</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>16</v>
@@ -3397,13 +3397,13 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -3411,21 +3411,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="17">
+    <row r="36" spans="1:23" ht="17.399999999999999">
       <c r="A36" s="9">
         <v>81022</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>16</v>
@@ -3452,13 +3452,13 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -3466,21 +3466,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="17">
+    <row r="37" spans="1:23" ht="17.399999999999999">
       <c r="A37" s="9">
         <v>81023</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>16</v>
@@ -3507,13 +3507,13 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -3521,21 +3521,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="17">
+    <row r="38" spans="1:23" ht="17.399999999999999">
       <c r="A38" s="9">
         <v>81024</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>16</v>
@@ -3562,13 +3562,13 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
@@ -3576,21 +3576,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="17">
+    <row r="39" spans="1:23" ht="17.399999999999999">
       <c r="A39" s="9">
         <v>81025</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>16</v>
@@ -3617,13 +3617,13 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -3631,21 +3631,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="17">
+    <row r="40" spans="1:23" ht="17.399999999999999">
       <c r="A40" s="9">
         <v>81026</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>16</v>
@@ -3672,13 +3672,13 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -3686,21 +3686,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="17">
+    <row r="41" spans="1:23" ht="17.399999999999999">
       <c r="A41" s="10">
         <v>81027</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>16</v>
@@ -3727,13 +3727,13 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -3741,21 +3741,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="17">
+    <row r="42" spans="1:23" ht="17.399999999999999">
       <c r="A42" s="10">
         <v>81028</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>16</v>
@@ -3782,13 +3782,13 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -3796,21 +3796,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="17">
+    <row r="43" spans="1:23" ht="17.399999999999999">
       <c r="A43" s="9">
         <v>81029</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>16</v>
@@ -3837,13 +3837,13 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
@@ -3851,21 +3851,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="17">
+    <row r="44" spans="1:23" ht="17.399999999999999">
       <c r="A44" s="9">
         <v>81030</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>16</v>
@@ -3892,13 +3892,13 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
@@ -3906,21 +3906,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="17">
+    <row r="45" spans="1:23" ht="17.399999999999999">
       <c r="A45" s="9">
         <v>81031</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>18</v>
@@ -3953,13 +3953,13 @@
         <v>1</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731B47E-A5F1-4950-A40A-8CEA193D4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA264D01-AA8C-4B64-95FA-FB43A8BC8F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4092" yWindow="1680" windowWidth="23040" windowHeight="13512" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="273">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -925,6 +925,10 @@
   </si>
   <si>
     <t>AiGroup_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810150, 31002, 810130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,14 +1032,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,6 +1055,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1405,8 +1419,8 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -1418,7 +1432,7 @@
     <col min="5" max="5" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.69921875" style="1"/>
     <col min="7" max="7" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="8.69921875" style="1"/>
     <col min="13" max="13" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="2" bestFit="1" customWidth="1"/>
@@ -1454,7 +1468,7 @@
       <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>271</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1504,2466 +1518,2466 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>100101</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="11">
         <v>21001</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>3</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>3</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="17.399999999999999">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>100301</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="11">
         <v>21002</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="b">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="17.399999999999999">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>200101</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <v>21003</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>150</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" ht="17.399999999999999">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>300101</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>21004</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="b">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="b">
+      <c r="O5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>9000111</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="17.399999999999999">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>300201</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>21005</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="b">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="5" t="b">
+      <c r="O6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>9000221</v>
       </c>
-      <c r="W6" s="5"/>
+      <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="17.399999999999999">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>21006</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="b">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
+      <c r="O7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23" ht="17.399999999999999">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>100201</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="11">
         <v>11002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>3</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.399999999999999">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1007</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>31002</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
         <v>20</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="7">
+      <c r="U9" s="4"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17.399999999999999">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1011</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <v>41001</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="b">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7">
+      <c r="U10" s="4"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.399999999999999">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1012</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>41002</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="b">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="7">
+      <c r="U11" s="4"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="17.399999999999999">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>1013</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="11">
         <v>41003</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="b">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="7">
+      <c r="U12" s="4"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.399999999999999">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>1014</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="11">
         <v>41004</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="b">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="7">
+      <c r="U13" s="4"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.399999999999999">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>1015</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="11">
         <v>41004</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>99</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="b">
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="7">
+      <c r="U14" s="4"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="6">
         <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="17.399999999999999">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>81001</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="12">
         <v>810010</v>
       </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9" t="b">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9" t="s">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9">
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.399999999999999">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>81002</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="12">
         <v>810020</v>
       </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9" t="b">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9" t="s">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9">
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17.399999999999999">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>81003</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="12">
         <v>810030</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>0</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9" t="b">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9" t="s">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9">
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17.399999999999999">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>81004</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="12">
         <v>810040</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9" t="b">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9" t="s">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9">
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17.399999999999999">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>81005</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="12">
         <v>810050</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>2</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="9" t="b">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9" t="s">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9">
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17.399999999999999">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>81006</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="12">
         <v>810060</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>2</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9" t="b">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9">
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17.399999999999999">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>81007</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="12">
         <v>810070</v>
       </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
         <v>3</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>2</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9">
-        <v>1</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="T21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9">
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17.399999999999999">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>81008</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="12">
         <v>810080</v>
       </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
         <v>2</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>3</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9">
-        <v>1</v>
-      </c>
-      <c r="R22" s="9" t="s">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9">
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17.399999999999999">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>81009</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="12">
         <v>810090</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>2</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
         <v>6</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9">
-        <v>1</v>
-      </c>
-      <c r="R23" s="9" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8">
+        <v>1</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9">
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17.399999999999999">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>81010</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="12">
         <v>810100</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>0</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
         <v>5</v>
       </c>
-      <c r="L24" s="9">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9">
-        <v>1</v>
-      </c>
-      <c r="R24" s="9" t="s">
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
+      <c r="R24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9">
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17.399999999999999">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>81011</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="12">
         <v>810110</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>2</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
         <v>8</v>
       </c>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9">
-        <v>1</v>
-      </c>
-      <c r="R25" s="9" t="s">
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8">
+        <v>1</v>
+      </c>
+      <c r="R25" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="9" t="s">
+      <c r="T25" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9">
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17.399999999999999">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>81012</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="12">
         <v>810120</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>2</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8">
         <v>6</v>
       </c>
-      <c r="L26" s="9">
-        <v>1</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9">
-        <v>1</v>
-      </c>
-      <c r="R26" s="9" t="s">
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8">
+        <v>1</v>
+      </c>
+      <c r="R26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="T26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9">
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17.399999999999999">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>81013</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="12">
         <v>810130</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="9" t="b">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9" t="s">
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9">
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17.399999999999999">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>81014</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="12">
         <v>810140</v>
       </c>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" s="9" t="b">
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9" t="s">
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9">
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17.399999999999999">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>81015</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="9">
-        <v>810150</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="8">
         <v>2</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="9" t="b">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9" t="s">
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="S29" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="9" t="s">
+      <c r="T29" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9">
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17.399999999999999">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>81016</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="12">
         <v>810160</v>
       </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="9" t="b">
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9" t="s">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9">
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17.399999999999999">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>81017</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="12">
         <v>810170</v>
       </c>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="9" t="b">
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9" t="s">
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9">
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17.399999999999999">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>81018</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="12">
         <v>810180</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>2</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" s="9" t="b">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9" t="s">
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="S32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="T32" s="9" t="s">
+      <c r="T32" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9">
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="17.399999999999999">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>81019</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="12">
         <v>810190</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>2</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="9" t="b">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9" t="s">
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="9" t="s">
+      <c r="S33" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="T33" s="9" t="s">
+      <c r="T33" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9">
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="17.399999999999999">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>81020</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="12">
         <v>810200</v>
       </c>
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" s="9" t="b">
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9" t="s">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="S34" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="T34" s="9" t="s">
+      <c r="T34" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9">
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="17.399999999999999">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>81021</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="12">
         <v>810210</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>0</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9" t="s">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="S35" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="T35" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9">
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="17.399999999999999">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>81022</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="12">
         <v>810220</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>0</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9" t="s">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="S36" s="9" t="s">
+      <c r="S36" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="T36" s="9" t="s">
+      <c r="T36" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9">
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="17.399999999999999">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>81023</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="12">
         <v>810230</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>2</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" s="9" t="b">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9" t="s">
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="S37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="T37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9">
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="17.399999999999999">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>81024</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="12">
         <v>810240</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <v>0</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9" t="s">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="S38" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="T38" s="9" t="s">
+      <c r="T38" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9">
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="17.399999999999999">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>81025</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="12">
         <v>810250</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>2</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9" t="s">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="S39" s="9" t="s">
+      <c r="S39" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="T39" s="9" t="s">
+      <c r="T39" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9">
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="17.399999999999999">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>81026</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="12">
         <v>810260</v>
       </c>
-      <c r="I40" s="9">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9" t="s">
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="S40" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="T40" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9">
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="17.399999999999999">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>81027</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="13">
         <v>810270</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>2</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="10" t="b">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10" t="s">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="S41" s="10" t="s">
+      <c r="S41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="T41" s="10" t="s">
+      <c r="T41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10">
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="17.399999999999999">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>81028</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="13">
         <v>810280</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>2</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" s="10" t="b">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10" t="s">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="S42" s="10" t="s">
+      <c r="S42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="T42" s="10" t="s">
+      <c r="T42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10">
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="17.399999999999999">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>81029</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="12">
         <v>810290</v>
       </c>
-      <c r="I43" s="9">
-        <v>1</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" s="9" t="b">
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9" t="s">
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="S43" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="T43" s="9" t="s">
+      <c r="T43" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9">
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="17.399999999999999">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>81030</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="12">
         <v>810300</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>2</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9" t="s">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="S44" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="T44" s="9" t="s">
+      <c r="T44" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9">
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="17.399999999999999">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>81031</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="12">
         <v>810310</v>
       </c>
-      <c r="I45" s="9">
-        <v>1</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9">
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8">
         <v>4</v>
       </c>
-      <c r="L45" s="9">
-        <v>1</v>
-      </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9">
-        <v>1</v>
-      </c>
-      <c r="R45" s="9" t="s">
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8">
+        <v>1</v>
+      </c>
+      <c r="R45" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="S45" s="9" t="s">
+      <c r="S45" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="T45" s="9" t="s">
+      <c r="T45" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9">
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA264D01-AA8C-4B64-95FA-FB43A8BC8F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD760BB5-0512-450B-8B8E-D761C9D5F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4092" yWindow="1680" windowWidth="23040" windowHeight="13512" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -928,7 +928,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>810150, 31002, 810130</t>
+    <t>810150, 810151, 810152</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1055,19 +1055,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1419,34 +1409,34 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="1"/>
-    <col min="7" max="7" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.69921875" style="1"/>
-    <col min="13" max="13" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.75" style="1"/>
+    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.69921875" style="1"/>
+    <col min="16" max="16" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.399999999999999">
+    <row r="1" spans="1:23" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.399999999999999">
+    <row r="2" spans="1:23" ht="16.5">
       <c r="A2" s="4">
         <v>100101</v>
       </c>
@@ -1539,7 +1529,7 @@
       <c r="G2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="4">
         <v>21001</v>
       </c>
       <c r="I2" s="4">
@@ -1578,7 +1568,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="17.399999999999999">
+    <row r="3" spans="1:23" ht="16.5">
       <c r="A3" s="4">
         <v>100301</v>
       </c>
@@ -1600,7 +1590,7 @@
       <c r="G3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="4">
         <v>21002</v>
       </c>
       <c r="I3" s="4">
@@ -1633,7 +1623,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17.399999999999999">
+    <row r="4" spans="1:23" ht="16.5">
       <c r="A4" s="4">
         <v>200101</v>
       </c>
@@ -1655,7 +1645,7 @@
       <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="4">
         <v>21003</v>
       </c>
       <c r="I4" s="4">
@@ -1690,7 +1680,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="17.399999999999999">
+    <row r="5" spans="1:23" ht="16.5">
       <c r="A5" s="4">
         <v>300101</v>
       </c>
@@ -1712,7 +1702,7 @@
       <c r="G5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="4">
         <v>21004</v>
       </c>
       <c r="I5" s="4"/>
@@ -1743,7 +1733,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="17.399999999999999">
+    <row r="6" spans="1:23" ht="16.5">
       <c r="A6" s="4">
         <v>300201</v>
       </c>
@@ -1765,7 +1755,7 @@
       <c r="G6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="4">
         <v>21005</v>
       </c>
       <c r="I6" s="5"/>
@@ -1796,7 +1786,7 @@
       </c>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="17.399999999999999">
+    <row r="7" spans="1:23" ht="16.5">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -1818,7 +1808,7 @@
       <c r="G7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="4">
         <v>21006</v>
       </c>
       <c r="I7" s="5"/>
@@ -1849,7 +1839,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="17.399999999999999">
+    <row r="8" spans="1:23" ht="16.5">
       <c r="A8" s="4">
         <v>100201</v>
       </c>
@@ -1871,7 +1861,7 @@
       <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="4">
         <v>11002</v>
       </c>
       <c r="I8" s="4">
@@ -1910,7 +1900,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.399999999999999">
+    <row r="9" spans="1:23" ht="16.5">
       <c r="A9" s="4">
         <v>1007</v>
       </c>
@@ -1932,7 +1922,7 @@
       <c r="G9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="4">
         <v>31002</v>
       </c>
       <c r="I9" s="5"/>
@@ -1969,7 +1959,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.399999999999999">
+    <row r="10" spans="1:23" ht="16.5">
       <c r="A10" s="4">
         <v>1011</v>
       </c>
@@ -1991,7 +1981,7 @@
       <c r="G10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="4">
         <v>41001</v>
       </c>
       <c r="I10" s="5"/>
@@ -2022,7 +2012,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.399999999999999">
+    <row r="11" spans="1:23" ht="16.5">
       <c r="A11" s="4">
         <v>1012</v>
       </c>
@@ -2044,7 +2034,7 @@
       <c r="G11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="4">
         <v>41002</v>
       </c>
       <c r="I11" s="5"/>
@@ -2075,7 +2065,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17.399999999999999">
+    <row r="12" spans="1:23" ht="16.5">
       <c r="A12" s="4">
         <v>1013</v>
       </c>
@@ -2097,7 +2087,7 @@
       <c r="G12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="4">
         <v>41003</v>
       </c>
       <c r="I12" s="5"/>
@@ -2128,7 +2118,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.399999999999999">
+    <row r="13" spans="1:23" ht="16.5">
       <c r="A13" s="4">
         <v>1014</v>
       </c>
@@ -2150,7 +2140,7 @@
       <c r="G13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="4">
         <v>41004</v>
       </c>
       <c r="I13" s="5"/>
@@ -2181,7 +2171,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.399999999999999">
+    <row r="14" spans="1:23" ht="16.5">
       <c r="A14" s="4">
         <v>1015</v>
       </c>
@@ -2203,7 +2193,7 @@
       <c r="G14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="4">
         <v>41004</v>
       </c>
       <c r="I14" s="5">
@@ -2236,7 +2226,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.399999999999999">
+    <row r="15" spans="1:23" ht="16.5">
       <c r="A15" s="8">
         <v>81001</v>
       </c>
@@ -2258,7 +2248,7 @@
       <c r="G15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <v>810010</v>
       </c>
       <c r="I15" s="8">
@@ -2291,7 +2281,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.399999999999999">
+    <row r="16" spans="1:23" ht="16.5">
       <c r="A16" s="8">
         <v>81002</v>
       </c>
@@ -2313,7 +2303,7 @@
       <c r="G16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="8">
         <v>810020</v>
       </c>
       <c r="I16" s="8">
@@ -2346,7 +2336,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17.399999999999999">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="8">
         <v>81003</v>
       </c>
@@ -2368,7 +2358,7 @@
       <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <v>810030</v>
       </c>
       <c r="I17" s="8">
@@ -2401,7 +2391,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="17.399999999999999">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="8">
         <v>81004</v>
       </c>
@@ -2423,7 +2413,7 @@
       <c r="G18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="8">
         <v>810040</v>
       </c>
       <c r="I18" s="8">
@@ -2456,7 +2446,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17.399999999999999">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="8">
         <v>81005</v>
       </c>
@@ -2478,7 +2468,7 @@
       <c r="G19" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="8">
         <v>810050</v>
       </c>
       <c r="I19" s="8">
@@ -2511,7 +2501,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="17.399999999999999">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="8">
         <v>81006</v>
       </c>
@@ -2533,7 +2523,7 @@
       <c r="G20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="8">
         <v>810060</v>
       </c>
       <c r="I20" s="8">
@@ -2566,7 +2556,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17.399999999999999">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="8">
         <v>81007</v>
       </c>
@@ -2588,7 +2578,7 @@
       <c r="G21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="8">
         <v>810070</v>
       </c>
       <c r="I21" s="8">
@@ -2627,7 +2617,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="17.399999999999999">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="8">
         <v>81008</v>
       </c>
@@ -2649,7 +2639,7 @@
       <c r="G22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="8">
         <v>810080</v>
       </c>
       <c r="I22" s="8">
@@ -2688,7 +2678,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="17.399999999999999">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="8">
         <v>81009</v>
       </c>
@@ -2710,7 +2700,7 @@
       <c r="G23" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <v>810090</v>
       </c>
       <c r="I23" s="8">
@@ -2747,7 +2737,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="17.399999999999999">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="8">
         <v>81010</v>
       </c>
@@ -2769,7 +2759,7 @@
       <c r="G24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="8">
         <v>810100</v>
       </c>
       <c r="I24" s="8">
@@ -2808,7 +2798,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="17.399999999999999">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="8">
         <v>81011</v>
       </c>
@@ -2830,7 +2820,7 @@
       <c r="G25" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <v>810110</v>
       </c>
       <c r="I25" s="8">
@@ -2869,7 +2859,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="17.399999999999999">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="8">
         <v>81012</v>
       </c>
@@ -2891,7 +2881,7 @@
       <c r="G26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="8">
         <v>810120</v>
       </c>
       <c r="I26" s="8">
@@ -2930,7 +2920,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.399999999999999">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="8">
         <v>81013</v>
       </c>
@@ -2952,7 +2942,7 @@
       <c r="G27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="8">
         <v>810130</v>
       </c>
       <c r="I27" s="8">
@@ -2985,7 +2975,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="17.399999999999999">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="8">
         <v>81014</v>
       </c>
@@ -3007,7 +2997,7 @@
       <c r="G28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="8">
         <v>810140</v>
       </c>
       <c r="I28" s="8">
@@ -3040,7 +3030,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="17.399999999999999">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="8">
         <v>81015</v>
       </c>
@@ -3062,7 +3052,7 @@
       <c r="G29" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="8" t="s">
         <v>272</v>
       </c>
       <c r="I29" s="8">
@@ -3095,7 +3085,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="17.399999999999999">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="8">
         <v>81016</v>
       </c>
@@ -3117,7 +3107,7 @@
       <c r="G30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="8">
         <v>810160</v>
       </c>
       <c r="I30" s="8">
@@ -3150,7 +3140,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="17.399999999999999">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="8">
         <v>81017</v>
       </c>
@@ -3172,7 +3162,7 @@
       <c r="G31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="8">
         <v>810170</v>
       </c>
       <c r="I31" s="8">
@@ -3205,7 +3195,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="17.399999999999999">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="8">
         <v>81018</v>
       </c>
@@ -3227,7 +3217,7 @@
       <c r="G32" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="8">
         <v>810180</v>
       </c>
       <c r="I32" s="8">
@@ -3260,7 +3250,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="17.399999999999999">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="8">
         <v>81019</v>
       </c>
@@ -3282,7 +3272,7 @@
       <c r="G33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="8">
         <v>810190</v>
       </c>
       <c r="I33" s="8">
@@ -3315,7 +3305,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="17.399999999999999">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="8">
         <v>81020</v>
       </c>
@@ -3337,7 +3327,7 @@
       <c r="G34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="8">
         <v>810200</v>
       </c>
       <c r="I34" s="8">
@@ -3370,7 +3360,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="17.399999999999999">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="8">
         <v>81021</v>
       </c>
@@ -3392,7 +3382,7 @@
       <c r="G35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="8">
         <v>810210</v>
       </c>
       <c r="I35" s="8">
@@ -3425,7 +3415,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="17.399999999999999">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="8">
         <v>81022</v>
       </c>
@@ -3447,7 +3437,7 @@
       <c r="G36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="8">
         <v>810220</v>
       </c>
       <c r="I36" s="8">
@@ -3480,7 +3470,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="17.399999999999999">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="8">
         <v>81023</v>
       </c>
@@ -3502,7 +3492,7 @@
       <c r="G37" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="8">
         <v>810230</v>
       </c>
       <c r="I37" s="8">
@@ -3535,7 +3525,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="17.399999999999999">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="8">
         <v>81024</v>
       </c>
@@ -3557,7 +3547,7 @@
       <c r="G38" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="8">
         <v>810240</v>
       </c>
       <c r="I38" s="8">
@@ -3590,7 +3580,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="17.399999999999999">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="8">
         <v>81025</v>
       </c>
@@ -3612,7 +3602,7 @@
       <c r="G39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="8">
         <v>810250</v>
       </c>
       <c r="I39" s="8">
@@ -3645,7 +3635,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="17.399999999999999">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="8">
         <v>81026</v>
       </c>
@@ -3667,7 +3657,7 @@
       <c r="G40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="8">
         <v>810260</v>
       </c>
       <c r="I40" s="8">
@@ -3700,7 +3690,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="17.399999999999999">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="9">
         <v>81027</v>
       </c>
@@ -3722,7 +3712,7 @@
       <c r="G41" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="9">
         <v>810270</v>
       </c>
       <c r="I41" s="9">
@@ -3755,7 +3745,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="17.399999999999999">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="9">
         <v>81028</v>
       </c>
@@ -3777,7 +3767,7 @@
       <c r="G42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="9">
         <v>810280</v>
       </c>
       <c r="I42" s="9">
@@ -3810,7 +3800,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="17.399999999999999">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="8">
         <v>81029</v>
       </c>
@@ -3832,7 +3822,7 @@
       <c r="G43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="8">
         <v>810290</v>
       </c>
       <c r="I43" s="8">
@@ -3865,7 +3855,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="17.399999999999999">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="8">
         <v>81030</v>
       </c>
@@ -3887,7 +3877,7 @@
       <c r="G44" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="8">
         <v>810300</v>
       </c>
       <c r="I44" s="8">
@@ -3920,7 +3910,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="17.399999999999999">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="8">
         <v>81031</v>
       </c>
@@ -3942,7 +3932,7 @@
       <c r="G45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="8">
         <v>810310</v>
       </c>
       <c r="I45" s="8">

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD760BB5-0512-450B-8B8E-D761C9D5F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9FCD40-CDAA-489E-B0CF-1872D584176C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="278">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -929,6 +929,26 @@
   </si>
   <si>
     <t>810150, 810151, 810152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810100, 810101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810110, 810111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810120, 810121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810130, 810131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810140, 810141, 810142</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +993,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,6 +1021,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1058,6 +1084,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1410,7 +1444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2226,917 +2260,917 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16.5">
-      <c r="A15" s="8">
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A15" s="11">
         <v>81001</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <v>810010</v>
       </c>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8" t="b">
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8" t="s">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5">
-      <c r="A16" s="8">
+    <row r="16" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A16" s="11">
         <v>81002</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="11">
         <v>810020</v>
       </c>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8" t="b">
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8" t="s">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8">
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
-      <c r="A17" s="8">
+    <row r="17" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A17" s="11">
         <v>81003</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="11">
         <v>810030</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8" t="b">
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8" t="s">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8">
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
-      <c r="A18" s="8">
+    <row r="18" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A18" s="11">
         <v>81004</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="11">
         <v>810040</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8" t="b">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8" t="s">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8">
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
-      <c r="A19" s="8">
+    <row r="19" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A19" s="11">
         <v>81005</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="11">
         <v>810050</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8" t="b">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8" t="s">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8">
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
-      <c r="A20" s="8">
+    <row r="20" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A20" s="11">
         <v>81006</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="11">
         <v>810060</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="11">
         <v>2</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8" t="b">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8" t="s">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8">
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
-      <c r="A21" s="8">
+    <row r="21" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A21" s="11">
         <v>81007</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="11">
         <v>810070</v>
       </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8">
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
         <v>3</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="11">
         <v>2</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-      <c r="R21" s="8" t="s">
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11">
+        <v>1</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="T21" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8">
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
-      <c r="A22" s="8">
+    <row r="22" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A22" s="11">
         <v>81008</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="11">
         <v>810080</v>
       </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8">
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="11">
         <v>3</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8">
-        <v>1</v>
-      </c>
-      <c r="R22" s="8" t="s">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11">
+        <v>1</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="T22" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8">
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
-      <c r="A23" s="8">
+    <row r="23" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A23" s="11">
         <v>81009</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="11">
         <v>810090</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8">
-        <v>1</v>
-      </c>
-      <c r="R23" s="8" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="S23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="T23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8">
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
-      <c r="A24" s="8">
+    <row r="24" spans="1:23" s="12" customFormat="1" ht="16.5">
+      <c r="A24" s="11">
         <v>81010</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="8">
-        <v>810100</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="H24" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" s="11">
         <v>0</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <v>5</v>
       </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8">
-        <v>1</v>
-      </c>
-      <c r="R24" s="8" t="s">
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="S24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8">
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
-      <c r="A25" s="8">
+    <row r="25" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A25" s="13">
         <v>81011</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="8">
-        <v>810110</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" s="13">
         <v>2</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13">
         <v>8</v>
       </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8">
-        <v>1</v>
-      </c>
-      <c r="R25" s="8" t="s">
+      <c r="L25" s="13">
+        <v>4</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13">
+        <v>1</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="T25" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8">
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
-      <c r="A26" s="8">
+    <row r="26" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A26" s="13">
         <v>81012</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="8">
-        <v>810120</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="13">
         <v>2</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
         <v>6</v>
       </c>
-      <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8">
-        <v>1</v>
-      </c>
-      <c r="R26" s="8" t="s">
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="T26" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8">
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
-      <c r="A27" s="8">
+    <row r="27" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A27" s="13">
         <v>81013</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="8">
-        <v>810130</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="13">
         <v>0</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8" t="b">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8" t="s">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="T27" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8">
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
-      <c r="A28" s="8">
+    <row r="28" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A28" s="13">
         <v>81014</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="8">
-        <v>810140</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" s="8" t="b">
+      <c r="H28" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8" t="s">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8">
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
-      <c r="A29" s="8">
+    <row r="29" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A29" s="13">
         <v>81015</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="13">
         <v>2</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="8" t="b">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8" t="s">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8">
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
-      <c r="A30" s="8">
+    <row r="30" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A30" s="13">
         <v>81016</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="13">
         <v>810160</v>
       </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="8" t="b">
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8" t="s">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="8" t="s">
+      <c r="T30" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8">
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9FCD40-CDAA-489E-B0CF-1872D584176C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292F89AA-BBB3-4F56-84E6-04C54E7A0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="281">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -949,6 +949,18 @@
   </si>
   <si>
     <t>810140, 810141, 810142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810190, 810191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810240, 810241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810250, 810251</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1443,8 +1455,8 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2801,7 +2813,7 @@
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L24" s="11">
         <v>1</v>
@@ -2832,895 +2844,895 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A25" s="13">
+    <row r="25" spans="1:23" ht="16.5">
+      <c r="A25" s="4">
         <v>81011</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="4">
         <v>2</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>8</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13">
-        <v>1</v>
-      </c>
-      <c r="R25" s="13" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A26" s="13">
+    <row r="26" spans="1:23" ht="16.5">
+      <c r="A26" s="4">
         <v>81012</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <v>6</v>
       </c>
-      <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13">
-        <v>1</v>
-      </c>
-      <c r="R26" s="13" t="s">
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A27" s="13">
+    <row r="27" spans="1:23" ht="16.5">
+      <c r="A27" s="4">
         <v>81013</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="13" t="b">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13" t="s">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A28" s="13">
+    <row r="28" spans="1:23" ht="16.5">
+      <c r="A28" s="4">
         <v>81014</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I28" s="13">
-        <v>1</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" s="13" t="b">
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A29" s="13">
+    <row r="29" spans="1:23" ht="16.5">
+      <c r="A29" s="4">
         <v>81015</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="4">
         <v>2</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="13" t="b">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A30" s="13">
+    <row r="30" spans="1:23" ht="16.5">
+      <c r="A30" s="4">
         <v>81016</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="4">
         <v>810160</v>
       </c>
-      <c r="I30" s="13">
-        <v>1</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="13" t="b">
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13" t="s">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
-      <c r="A31" s="8">
+    <row r="31" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A31" s="13">
         <v>81017</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="13">
         <v>810170</v>
       </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="8" t="b">
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8" t="s">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="T31" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8">
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
-      <c r="A32" s="8">
+    <row r="32" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A32" s="13">
         <v>81018</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="13">
         <v>810180</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="13">
         <v>2</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" s="8" t="b">
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8" t="s">
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T32" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8">
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
-      <c r="A33" s="8">
+    <row r="33" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A33" s="13">
         <v>81019</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="8">
-        <v>810190</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="H33" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" s="13">
         <v>2</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="8" t="b">
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="T33" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8">
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
-      <c r="A34" s="8">
+    <row r="34" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A34" s="13">
         <v>81020</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="13">
         <v>810200</v>
       </c>
-      <c r="I34" s="8">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" s="8" t="b">
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8" t="s">
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8">
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
-      <c r="A35" s="8">
+    <row r="35" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A35" s="13">
         <v>81021</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="13">
         <v>810210</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8" t="s">
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="T35" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8">
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
-      <c r="A36" s="8">
+    <row r="36" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A36" s="13">
         <v>81022</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="13">
         <v>810220</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8" t="s">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="T36" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8">
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
-      <c r="A37" s="8">
+    <row r="37" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A37" s="13">
         <v>81023</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="13">
         <v>810230</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="13">
         <v>2</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" s="8" t="b">
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8" t="s">
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="T37" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8">
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
-      <c r="A38" s="8">
+    <row r="38" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A38" s="13">
         <v>81024</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="8">
-        <v>810240</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="H38" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I38" s="13">
         <v>0</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8" t="s">
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="S38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8">
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
-      <c r="A39" s="8">
+    <row r="39" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A39" s="13">
         <v>81025</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="8">
-        <v>810250</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="H39" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I39" s="13">
         <v>2</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8" t="s">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="S39" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8">
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
-      <c r="A40" s="8">
+    <row r="40" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A40" s="13">
         <v>81026</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="13">
         <v>810260</v>
       </c>
-      <c r="I40" s="8">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8" t="s">
+      <c r="I40" s="13">
+        <v>1</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="S40" s="8" t="s">
+      <c r="S40" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8">
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13">
         <v>1001</v>
       </c>
     </row>
@@ -3834,113 +3846,113 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
-      <c r="A43" s="8">
+    <row r="43" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A43" s="13">
         <v>81029</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="13">
         <v>810290</v>
       </c>
-      <c r="I43" s="8">
-        <v>1</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" s="8" t="b">
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8" t="s">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="S43" s="8" t="s">
+      <c r="S43" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="T43" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8">
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13">
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
-      <c r="A44" s="8">
+    <row r="44" spans="1:23" s="14" customFormat="1" ht="16.5">
+      <c r="A44" s="13">
         <v>81030</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="13">
         <v>810300</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="13">
         <v>2</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8" t="s">
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="S44" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="T44" s="8" t="s">
+      <c r="T44" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8">
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292F89AA-BBB3-4F56-84E6-04C54E7A0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA77F9-74FE-4BAF-8E6B-1F13ED30A179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="282">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -961,6 +961,10 @@
   </si>
   <si>
     <t>810250, 810251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810170, 810170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1100,10 +1104,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1455,8 +1455,8 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3186,553 +3186,553 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A31" s="13">
+    <row r="31" spans="1:23" ht="16.5">
+      <c r="A31" s="4">
         <v>81017</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="13">
-        <v>810170</v>
-      </c>
-      <c r="I31" s="13">
-        <v>1</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="13" t="b">
+      <c r="H31" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13" t="s">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A32" s="13">
+    <row r="32" spans="1:23" ht="16.5">
+      <c r="A32" s="4">
         <v>81018</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="4">
         <v>810180</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" s="13" t="b">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13" t="s">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A33" s="13">
+    <row r="33" spans="1:23" ht="16.5">
+      <c r="A33" s="4">
         <v>81019</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="13" t="b">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13" t="s">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A34" s="13">
+    <row r="34" spans="1:23" ht="16.5">
+      <c r="A34" s="4">
         <v>81020</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="4">
         <v>810200</v>
       </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" s="13" t="b">
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13" t="s">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A35" s="13">
+    <row r="35" spans="1:23" ht="16.5">
+      <c r="A35" s="4">
         <v>81021</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="4">
         <v>810210</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="4">
         <v>0</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13" t="s">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="S35" s="13" t="s">
+      <c r="S35" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="T35" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A36" s="13">
+    <row r="36" spans="1:23" ht="16.5">
+      <c r="A36" s="4">
         <v>81022</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="4">
         <v>810220</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13" t="s">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A37" s="13">
+    <row r="37" spans="1:23" ht="16.5">
+      <c r="A37" s="4">
         <v>81023</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="4">
         <v>810230</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" s="13" t="b">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13" t="s">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A38" s="13">
+    <row r="38" spans="1:23" ht="16.5">
+      <c r="A38" s="4">
         <v>81024</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="4">
         <v>0</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13" t="s">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A39" s="13">
+    <row r="39" spans="1:23" ht="16.5">
+      <c r="A39" s="4">
         <v>81025</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="4">
         <v>2</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13" t="s">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="T39" s="13" t="s">
+      <c r="T39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13">
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A40" s="13">
+    <row r="40" spans="1:23" ht="16.5">
+      <c r="A40" s="4">
         <v>81026</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="4">
         <v>810260</v>
       </c>
-      <c r="I40" s="13">
-        <v>1</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13" t="s">
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S40" s="13" t="s">
+      <c r="S40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13">
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4">
         <v>1001</v>
       </c>
     </row>
@@ -3846,113 +3846,113 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A43" s="13">
+    <row r="43" spans="1:23" ht="16.5">
+      <c r="A43" s="4">
         <v>81029</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="4">
         <v>810290</v>
       </c>
-      <c r="I43" s="13">
-        <v>1</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" s="13" t="b">
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="S43" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13">
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="14" customFormat="1" ht="16.5">
-      <c r="A44" s="13">
+    <row r="44" spans="1:23" ht="16.5">
+      <c r="A44" s="4">
         <v>81030</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="4">
         <v>810300</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="4">
         <v>2</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13" t="s">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="T44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13">
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA77F9-74FE-4BAF-8E6B-1F13ED30A179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0915F1-2969-4213-9B99-E584DB12D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="293">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -965,6 +965,42 @@
   </si>
   <si>
     <t>810170, 810170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 지휘관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81032</t>
+  </si>
+  <si>
+    <t>CardDesc_81032</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81032</t>
+  </si>
+  <si>
+    <t>Lucy_032</t>
+  </si>
+  <si>
+    <t>임프 자폭병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81033</t>
+  </si>
+  <si>
+    <t>CardDesc_81033</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81033</t>
+  </si>
+  <si>
+    <t>Lucy_033</t>
+  </si>
+  <si>
+    <t>810330, 810331</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1452,11 +1488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3957,7 +3993,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5">
-      <c r="A45" s="8">
+      <c r="A45" s="4">
         <v>81031</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -4014,6 +4050,124 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16.5">
+      <c r="A46" s="4">
+        <v>81032</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="4">
+        <v>810320</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
+        <v>6</v>
+      </c>
+      <c r="L46" s="4">
+        <v>2</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16.5">
+      <c r="A47" s="4">
+        <v>81033</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <v>99</v>
+      </c>
+      <c r="L47" s="4">
+        <v>6</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0915F1-2969-4213-9B99-E584DB12D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226E013-F0AD-4F84-94EC-A6979AB20E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="299">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1001,6 +1001,26 @@
   </si>
   <si>
     <t>810330, 810331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼내오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81034</t>
+  </si>
+  <si>
+    <t>CardDesc_81034</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81034</t>
+  </si>
+  <si>
+    <t>Lucy_034</t>
+  </si>
+  <si>
+    <t>810340, 810341</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1488,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4171,6 +4191,61 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="48" spans="1:23" ht="16.5">
+      <c r="A48" s="4">
+        <v>81034</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226E013-F0AD-4F84-94EC-A6979AB20E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA5AFE-C950-44D7-96B5-02F15EF5C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="305">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1022,6 +1022,26 @@
   <si>
     <t>810340, 810341</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81035</t>
+  </si>
+  <si>
+    <t>CardDesc_81035</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81035</t>
+  </si>
+  <si>
+    <t>810350, 810351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_035</t>
   </si>
 </sst>
 </file>
@@ -1508,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4227,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -4243,6 +4263,61 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.5">
+      <c r="A49" s="4">
+        <v>81035</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA5AFE-C950-44D7-96B5-02F15EF5C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E51AEA-2FEA-419E-9592-2A5DE2F31025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7515" yWindow="3180" windowWidth="29145" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -1000,10 +1000,6 @@
     <t>Lucy_033</t>
   </si>
   <si>
-    <t>810330, 810331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꺼내오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,6 +1038,10 @@
   </si>
   <si>
     <t>Lucy_035</t>
+  </si>
+  <si>
+    <t>IsSameTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1528,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1545,20 +1545,22 @@
     <col min="6" max="6" width="8.75" style="1"/>
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.75" style="1"/>
-    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="1"/>
+    <col min="9" max="9" width="30.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.75" style="1"/>
+    <col min="14" max="14" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5">
+    <row r="1" spans="1:24" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1583,53 +1585,56 @@
       <c r="H1" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5">
+    <row r="2" spans="1:24" ht="16.5">
       <c r="A2" s="4">
         <v>100101</v>
       </c>
@@ -1654,43 +1659,44 @@
       <c r="H2" s="4">
         <v>21001</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>2</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>3</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>3</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="M2" s="4">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4"/>
       <c r="O2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="P2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="4">
+      <c r="W2" s="4"/>
+      <c r="X2" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5">
+    <row r="3" spans="1:24" ht="16.5">
       <c r="A3" s="4">
         <v>100301</v>
       </c>
@@ -1715,37 +1721,38 @@
       <c r="H3" s="4">
         <v>21002</v>
       </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N3" s="4"/>
       <c r="O3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="W3" s="4">
+      <c r="W3" s="4"/>
+      <c r="X3" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5">
+    <row r="4" spans="1:24" ht="16.5">
       <c r="A4" s="4">
         <v>200101</v>
       </c>
@@ -1770,39 +1777,40 @@
       <c r="H4" s="4">
         <v>21003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>150</v>
       </c>
-      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="P4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5">
       <c r="A5" s="4">
         <v>300101</v>
       </c>
@@ -1832,30 +1840,31 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>9000111</v>
       </c>
-      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5">
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5">
       <c r="A6" s="4">
         <v>300201</v>
       </c>
@@ -1880,35 +1889,36 @@
       <c r="H6" s="4">
         <v>21005</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
         <v>9000221</v>
       </c>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" ht="16.5">
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -1933,35 +1943,36 @@
       <c r="H7" s="4">
         <v>21006</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4" t="b">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="P7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
+      <c r="Q7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5">
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5">
       <c r="A8" s="4">
         <v>100201</v>
       </c>
@@ -1986,43 +1997,44 @@
       <c r="H8" s="4">
         <v>11002</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>3</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="P8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="4">
+      <c r="W8" s="4"/>
+      <c r="X8" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5">
+    <row r="9" spans="1:24" ht="16.5">
       <c r="A9" s="4">
         <v>1007</v>
       </c>
@@ -2047,41 +2059,42 @@
       <c r="H9" s="4">
         <v>31002</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
         <v>20</v>
       </c>
-      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="P9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5" t="s">
+      <c r="Q9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="6">
+      <c r="U9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5">
+    <row r="10" spans="1:24" ht="16.5">
       <c r="A10" s="4">
         <v>1011</v>
       </c>
@@ -2106,35 +2119,36 @@
       <c r="H10" s="4">
         <v>41001</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="6">
+      <c r="V10" s="4"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5">
+    <row r="11" spans="1:24" ht="16.5">
       <c r="A11" s="4">
         <v>1012</v>
       </c>
@@ -2159,35 +2173,36 @@
       <c r="H11" s="4">
         <v>41002</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="6">
+      <c r="V11" s="4"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5">
+    <row r="12" spans="1:24" ht="16.5">
       <c r="A12" s="4">
         <v>1013</v>
       </c>
@@ -2212,35 +2227,36 @@
       <c r="H12" s="4">
         <v>41003</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="6">
+      <c r="U12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5">
+    <row r="13" spans="1:24" ht="16.5">
       <c r="A13" s="4">
         <v>1014</v>
       </c>
@@ -2265,35 +2281,36 @@
       <c r="H13" s="4">
         <v>41004</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="6">
+      <c r="V13" s="4"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5">
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="4">
         <v>1015</v>
       </c>
@@ -2318,37 +2335,38 @@
       <c r="H14" s="4">
         <v>41004</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
         <v>99</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4"/>
+      <c r="S14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6">
+      <c r="V14" s="4"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="6">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A15" s="11">
         <v>81001</v>
       </c>
@@ -2373,37 +2391,38 @@
       <c r="H15" s="11">
         <v>810010</v>
       </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="R15" s="11"/>
       <c r="S15" s="11" t="s">
         <v>113</v>
       </c>
       <c r="T15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="11"/>
+      <c r="U15" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="V15" s="11"/>
-      <c r="W15" s="11">
+      <c r="W15" s="11"/>
+      <c r="X15" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="16" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A16" s="11">
         <v>81002</v>
       </c>
@@ -2428,37 +2447,38 @@
       <c r="H16" s="11">
         <v>810020</v>
       </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="R16" s="11"/>
       <c r="S16" s="11" t="s">
         <v>118</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="11"/>
+      <c r="U16" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="V16" s="11"/>
-      <c r="W16" s="11">
+      <c r="W16" s="11"/>
+      <c r="X16" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A17" s="11">
         <v>81003</v>
       </c>
@@ -2483,37 +2503,38 @@
       <c r="H17" s="11">
         <v>810030</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="11" t="s">
-        <v>123</v>
-      </c>
+      <c r="R17" s="11"/>
       <c r="S17" s="11" t="s">
         <v>123</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="11"/>
+      <c r="U17" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="V17" s="11"/>
-      <c r="W17" s="11">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A18" s="11">
         <v>81004</v>
       </c>
@@ -2538,37 +2559,38 @@
       <c r="H18" s="11">
         <v>810040</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N18" s="11"/>
       <c r="O18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="R18" s="11"/>
       <c r="S18" s="11" t="s">
         <v>129</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="11"/>
+      <c r="U18" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="V18" s="11"/>
-      <c r="W18" s="11">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A19" s="11">
         <v>81005</v>
       </c>
@@ -2593,37 +2615,38 @@
       <c r="H19" s="11">
         <v>810050</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N19" s="11"/>
       <c r="O19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="R19" s="11"/>
       <c r="S19" s="11" t="s">
         <v>133</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="U19" s="11"/>
+      <c r="U19" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="V19" s="11"/>
-      <c r="W19" s="11">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A20" s="11">
         <v>81006</v>
       </c>
@@ -2648,37 +2671,38 @@
       <c r="H20" s="11">
         <v>810060</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
         <v>2</v>
       </c>
-      <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="R20" s="11"/>
       <c r="S20" s="11" t="s">
         <v>140</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="U20" s="11"/>
+      <c r="U20" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="V20" s="11"/>
-      <c r="W20" s="11">
+      <c r="W20" s="11"/>
+      <c r="X20" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A21" s="11">
         <v>81007</v>
       </c>
@@ -2703,29 +2727,27 @@
       <c r="H21" s="11">
         <v>810070</v>
       </c>
-      <c r="I21" s="11">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
         <v>3</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <v>2</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N21" s="11"/>
       <c r="O21" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11">
-        <v>1</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>145</v>
+      <c r="P21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11">
+        <v>1</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>145</v>
@@ -2733,13 +2755,16 @@
       <c r="T21" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="11"/>
+      <c r="U21" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="V21" s="11"/>
-      <c r="W21" s="11">
+      <c r="W21" s="11"/>
+      <c r="X21" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="22" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A22" s="11">
         <v>81008</v>
       </c>
@@ -2764,29 +2789,27 @@
       <c r="H22" s="11">
         <v>810080</v>
       </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M22" s="11">
         <v>3</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N22" s="11"/>
       <c r="O22" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11">
-        <v>1</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>150</v>
+      <c r="P22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11">
+        <v>1</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>150</v>
@@ -2794,13 +2817,16 @@
       <c r="T22" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="U22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="V22" s="11"/>
-      <c r="W22" s="11">
+      <c r="W22" s="11"/>
+      <c r="X22" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="23" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A23" s="11">
         <v>81009</v>
       </c>
@@ -2825,27 +2851,25 @@
       <c r="H23" s="11">
         <v>810090</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11">
-        <v>1</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>155</v>
+      <c r="P23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11">
+        <v>1</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>155</v>
@@ -2853,13 +2877,16 @@
       <c r="T23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="11"/>
+      <c r="U23" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="V23" s="11"/>
-      <c r="W23" s="11">
+      <c r="W23" s="11"/>
+      <c r="X23" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="12" customFormat="1" ht="16.5">
+    <row r="24" spans="1:24" s="12" customFormat="1" ht="16.5">
       <c r="A24" s="11">
         <v>81010</v>
       </c>
@@ -2884,29 +2911,27 @@
       <c r="H24" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
         <v>0</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
         <v>14</v>
       </c>
-      <c r="L24" s="11">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="M24" s="11">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11"/>
       <c r="O24" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11">
-        <v>1</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>160</v>
+      <c r="P24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11">
+        <v>1</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>160</v>
@@ -2914,13 +2939,16 @@
       <c r="T24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="U24" s="11"/>
+      <c r="U24" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="V24" s="11"/>
-      <c r="W24" s="11">
+      <c r="W24" s="11"/>
+      <c r="X24" s="11">
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="4">
         <v>81011</v>
       </c>
@@ -2945,29 +2973,27 @@
       <c r="H25" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
         <v>8</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>165</v>
+      <c r="P25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
+        <v>1</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>165</v>
@@ -2975,13 +3001,16 @@
       <c r="T25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="U25" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="V25" s="4"/>
-      <c r="W25" s="4">
+      <c r="W25" s="4"/>
+      <c r="X25" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="4">
         <v>81012</v>
       </c>
@@ -3006,29 +3035,27 @@
       <c r="H26" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
         <v>6</v>
       </c>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>170</v>
+      <c r="P26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4">
+        <v>1</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>170</v>
@@ -3036,13 +3063,16 @@
       <c r="T26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="V26" s="4"/>
-      <c r="W26" s="4">
+      <c r="W26" s="4"/>
+      <c r="X26" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="4">
         <v>81013</v>
       </c>
@@ -3067,37 +3097,38 @@
       <c r="H27" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
         <v>175</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="4"/>
+      <c r="U27" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="V27" s="4"/>
-      <c r="W27" s="4">
+      <c r="W27" s="4"/>
+      <c r="X27" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="4">
         <v>81014</v>
       </c>
@@ -3122,37 +3153,40 @@
       <c r="H28" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4"/>
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>180</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="U28" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="V28" s="4"/>
-      <c r="W28" s="4">
+      <c r="W28" s="4"/>
+      <c r="X28" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="4">
         <v>81015</v>
       </c>
@@ -3177,37 +3211,38 @@
       <c r="H29" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>2</v>
       </c>
-      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>185</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="U29" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="V29" s="4"/>
-      <c r="W29" s="4">
+      <c r="W29" s="4"/>
+      <c r="X29" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="4">
         <v>81016</v>
       </c>
@@ -3232,37 +3267,38 @@
       <c r="H30" s="4">
         <v>810160</v>
       </c>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
         <v>194</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="U30" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="V30" s="4"/>
-      <c r="W30" s="4">
+      <c r="W30" s="4"/>
+      <c r="X30" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="4">
         <v>81017</v>
       </c>
@@ -3287,37 +3323,38 @@
       <c r="H31" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
         <v>195</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="U31" s="4"/>
+      <c r="U31" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="V31" s="4"/>
-      <c r="W31" s="4">
+      <c r="W31" s="4"/>
+      <c r="X31" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="4">
         <v>81018</v>
       </c>
@@ -3342,37 +3379,38 @@
       <c r="H32" s="4">
         <v>810180</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
         <v>200</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="U32" s="4"/>
+      <c r="U32" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="V32" s="4"/>
-      <c r="W32" s="4">
+      <c r="W32" s="4"/>
+      <c r="X32" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:24" ht="16.5">
       <c r="A33" s="4">
         <v>81019</v>
       </c>
@@ -3397,37 +3435,38 @@
       <c r="H33" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
         <v>205</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="U33" s="4"/>
+      <c r="U33" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="V33" s="4"/>
-      <c r="W33" s="4">
+      <c r="W33" s="4"/>
+      <c r="X33" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:24" ht="16.5">
       <c r="A34" s="4">
         <v>81020</v>
       </c>
@@ -3452,37 +3491,38 @@
       <c r="H34" s="4">
         <v>810200</v>
       </c>
-      <c r="I34" s="4">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
         <v>210</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="U34" s="4"/>
+      <c r="U34" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="V34" s="4"/>
-      <c r="W34" s="4">
+      <c r="W34" s="4"/>
+      <c r="X34" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:24" ht="16.5">
       <c r="A35" s="4">
         <v>81021</v>
       </c>
@@ -3507,37 +3547,38 @@
       <c r="H35" s="4">
         <v>810210</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>0</v>
       </c>
-      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P35" s="4"/>
+      <c r="P35" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="R35" s="4"/>
       <c r="S35" s="4" t="s">
         <v>215</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="4"/>
+      <c r="U35" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="V35" s="4"/>
-      <c r="W35" s="4">
+      <c r="W35" s="4"/>
+      <c r="X35" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:24" ht="16.5">
       <c r="A36" s="4">
         <v>81022</v>
       </c>
@@ -3562,37 +3603,38 @@
       <c r="H36" s="4">
         <v>810220</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>0</v>
       </c>
-      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P36" s="4"/>
+      <c r="P36" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q36" s="4"/>
-      <c r="R36" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
         <v>220</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="U36" s="4"/>
+      <c r="U36" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="V36" s="4"/>
-      <c r="W36" s="4">
+      <c r="W36" s="4"/>
+      <c r="X36" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:24" ht="16.5">
       <c r="A37" s="4">
         <v>81023</v>
       </c>
@@ -3617,37 +3659,38 @@
       <c r="H37" s="4">
         <v>810230</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>2</v>
       </c>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N37" s="4"/>
       <c r="O37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="R37" s="4"/>
       <c r="S37" s="4" t="s">
         <v>224</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="U37" s="4"/>
+      <c r="U37" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="V37" s="4"/>
-      <c r="W37" s="4">
+      <c r="W37" s="4"/>
+      <c r="X37" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:24" ht="16.5">
       <c r="A38" s="4">
         <v>81024</v>
       </c>
@@ -3672,37 +3715,38 @@
       <c r="H38" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>0</v>
       </c>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P38" s="4"/>
+      <c r="P38" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q38" s="4"/>
-      <c r="R38" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="R38" s="4"/>
       <c r="S38" s="4" t="s">
         <v>230</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="U38" s="4"/>
+      <c r="U38" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="V38" s="4"/>
-      <c r="W38" s="4">
+      <c r="W38" s="4"/>
+      <c r="X38" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:24" ht="16.5">
       <c r="A39" s="4">
         <v>81025</v>
       </c>
@@ -3727,37 +3771,38 @@
       <c r="H39" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>2</v>
       </c>
-      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P39" s="4"/>
+      <c r="P39" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="R39" s="4"/>
       <c r="S39" s="4" t="s">
         <v>239</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="U39" s="4"/>
+      <c r="U39" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="V39" s="4"/>
-      <c r="W39" s="4">
+      <c r="W39" s="4"/>
+      <c r="X39" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:24" ht="16.5">
       <c r="A40" s="4">
         <v>81026</v>
       </c>
@@ -3782,37 +3827,38 @@
       <c r="H40" s="4">
         <v>810260</v>
       </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P40" s="4"/>
+      <c r="P40" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="R40" s="4"/>
       <c r="S40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="U40" s="4"/>
+      <c r="U40" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="V40" s="4"/>
-      <c r="W40" s="4">
+      <c r="W40" s="4"/>
+      <c r="X40" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:24" ht="16.5">
       <c r="A41" s="9">
         <v>81027</v>
       </c>
@@ -3837,37 +3883,38 @@
       <c r="H41" s="9">
         <v>810270</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
         <v>2</v>
       </c>
-      <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="N41" s="9"/>
       <c r="O41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="R41" s="9"/>
       <c r="S41" s="9" t="s">
         <v>251</v>
       </c>
       <c r="T41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="U41" s="9"/>
+      <c r="U41" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="V41" s="9"/>
-      <c r="W41" s="9">
+      <c r="W41" s="9"/>
+      <c r="X41" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:24" ht="16.5">
       <c r="A42" s="9">
         <v>81028</v>
       </c>
@@ -3892,37 +3939,38 @@
       <c r="H42" s="9">
         <v>810280</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9">
         <v>2</v>
       </c>
-      <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="N42" s="9"/>
       <c r="O42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="R42" s="9"/>
       <c r="S42" s="9" t="s">
         <v>252</v>
       </c>
       <c r="T42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="U42" s="9"/>
+      <c r="U42" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="V42" s="9"/>
-      <c r="W42" s="9">
+      <c r="W42" s="9"/>
+      <c r="X42" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:24" ht="16.5">
       <c r="A43" s="4">
         <v>81029</v>
       </c>
@@ -3947,37 +3995,38 @@
       <c r="H43" s="4">
         <v>810290</v>
       </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N43" s="4"/>
       <c r="O43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="R43" s="4"/>
       <c r="S43" s="4" t="s">
         <v>259</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="U43" s="4"/>
+      <c r="U43" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="V43" s="4"/>
-      <c r="W43" s="4">
+      <c r="W43" s="4"/>
+      <c r="X43" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:24" ht="16.5">
       <c r="A44" s="4">
         <v>81030</v>
       </c>
@@ -4002,37 +4051,38 @@
       <c r="H44" s="4">
         <v>810300</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
         <v>2</v>
       </c>
-      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="4"/>
+      <c r="P44" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
         <v>264</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="U44" s="4"/>
+      <c r="U44" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="V44" s="4"/>
-      <c r="W44" s="4">
+      <c r="W44" s="4"/>
+      <c r="X44" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:24" ht="16.5">
       <c r="A45" s="4">
         <v>81031</v>
       </c>
@@ -4057,29 +4107,27 @@
       <c r="H45" s="8">
         <v>810310</v>
       </c>
-      <c r="I45" s="8">
-        <v>1</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8">
         <v>4</v>
       </c>
-      <c r="L45" s="8">
-        <v>1</v>
-      </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+      <c r="N45" s="8"/>
       <c r="O45" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8">
-        <v>1</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>270</v>
+      <c r="P45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8">
+        <v>1</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>270</v>
@@ -4087,13 +4135,16 @@
       <c r="T45" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="U45" s="8"/>
+      <c r="U45" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="V45" s="8"/>
-      <c r="W45" s="8">
+      <c r="W45" s="8"/>
+      <c r="X45" s="8">
         <v>1001</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:24" ht="16.5">
       <c r="A46" s="4">
         <v>81032</v>
       </c>
@@ -4118,41 +4169,42 @@
       <c r="H46" s="4">
         <v>810320</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>2</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>6</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N46" s="4"/>
       <c r="O46" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P46" s="4"/>
+      <c r="P46" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q46" s="4"/>
-      <c r="R46" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="R46" s="4"/>
       <c r="S46" s="4" t="s">
         <v>286</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="U46" s="4"/>
+      <c r="U46" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="V46" s="4"/>
-      <c r="W46" s="4">
+      <c r="W46" s="4"/>
+      <c r="X46" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:24" ht="16.5">
       <c r="A47" s="4">
         <v>81033</v>
       </c>
@@ -4174,58 +4226,59 @@
       <c r="G47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I47" s="4">
+      <c r="H47" s="4">
+        <v>810330</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>2</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>99</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>6</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N47" s="4"/>
       <c r="O47" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q47" s="4"/>
-      <c r="R47" s="8" t="s">
-        <v>291</v>
-      </c>
+      <c r="R47" s="4"/>
       <c r="S47" s="8" t="s">
         <v>291</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="U47" s="4"/>
+      <c r="U47" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="V47" s="4"/>
-      <c r="W47" s="4">
+      <c r="W47" s="4"/>
+      <c r="X47" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:24" ht="16.5">
       <c r="A48" s="4">
         <v>81034</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>16</v>
@@ -4234,53 +4287,54 @@
         <v>59</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P48" s="4"/>
+      <c r="P48" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q48" s="4"/>
-      <c r="R48" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="R48" s="4"/>
       <c r="S48" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="U48" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="V48" s="4"/>
-      <c r="W48" s="4">
+      <c r="W48" s="4"/>
+      <c r="X48" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:24" ht="16.5">
       <c r="A49" s="4">
         <v>81035</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>16</v>
@@ -4289,35 +4343,36 @@
         <v>59</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N49" s="4"/>
       <c r="O49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P49" s="4"/>
+      <c r="P49" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="Q49" s="4"/>
-      <c r="R49" s="8" t="s">
-        <v>304</v>
-      </c>
+      <c r="R49" s="4"/>
       <c r="S49" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="U49" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="V49" s="4"/>
-      <c r="W49" s="4">
+      <c r="W49" s="4"/>
+      <c r="X49" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E51AEA-2FEA-419E-9592-2A5DE2F31025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793B1FA-4897-447C-BD37-C2AC6B48290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="3180" windowWidth="29145" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="316">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1042,6 +1042,42 @@
   <si>
     <t>IsSameTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동족포식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81036</t>
+  </si>
+  <si>
+    <t>CardDesc_81036</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81036</t>
+  </si>
+  <si>
+    <t>CardName_81037</t>
+  </si>
+  <si>
+    <t>CardDesc_81037</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81037</t>
+  </si>
+  <si>
+    <t>만드라고라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810370, 810371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_037</t>
+  </si>
+  <si>
+    <t>Lucy_036</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,12 +1131,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB5E6A2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1120,6 +1150,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1150,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1167,19 +1209,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1528,11 +1574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1582,19 +1628,19 @@
       <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -2366,585 +2412,585 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A15" s="11">
+    <row r="15" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A15" s="10">
         <v>81001</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>810010</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" s="11" t="b">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A16" s="11">
+    <row r="16" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A16" s="10">
         <v>81002</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>810020</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="11" t="b">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11">
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A17" s="11">
+    <row r="17" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A17" s="10">
         <v>81003</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>810030</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
         <v>0</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="11" t="b">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11">
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A18" s="11">
+    <row r="18" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A18" s="10">
         <v>81004</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>810040</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
         <v>0</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" s="11" t="b">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11">
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A19" s="11">
+    <row r="19" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A19" s="10">
         <v>81005</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>810050</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
         <v>2</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="11" t="b">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11">
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A20" s="11">
+    <row r="20" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A20" s="10">
         <v>81006</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>810060</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
         <v>2</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="11" t="b">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11">
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A21" s="11">
+    <row r="21" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A21" s="10">
         <v>81007</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>810070</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11">
-        <v>1</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10">
         <v>3</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <v>2</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11">
-        <v>1</v>
-      </c>
-      <c r="S21" s="11" t="s">
+      <c r="N21" s="10"/>
+      <c r="O21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11">
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A22" s="11">
+    <row r="22" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A22" s="10">
         <v>81008</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>810080</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10">
         <v>2</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>3</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11">
-        <v>1</v>
-      </c>
-      <c r="S22" s="11" t="s">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10">
+        <v>1</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11">
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A23" s="11">
+    <row r="23" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A23" s="10">
         <v>81009</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>810090</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10">
         <v>2</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
         <v>6</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11">
-        <v>1</v>
-      </c>
-      <c r="S23" s="11" t="s">
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10">
+        <v>1</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="U23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11">
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10">
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="12" customFormat="1" ht="16.5">
-      <c r="A24" s="11">
+    <row r="24" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="A24" s="10">
         <v>81010</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10">
         <v>0</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10">
         <v>14</v>
       </c>
-      <c r="M24" s="11">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11">
-        <v>1</v>
-      </c>
-      <c r="S24" s="11" t="s">
+      <c r="M24" s="10">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10">
+        <v>1</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11">
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10">
         <v>1001</v>
       </c>
     </row>
@@ -4373,6 +4419,118 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="13" customFormat="1" ht="16.5">
+      <c r="A50" s="12">
+        <v>81036</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="12">
+        <v>810350</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12">
+        <v>1</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="16.5">
+      <c r="A51" s="4">
+        <v>81037</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="U51" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793B1FA-4897-447C-BD37-C2AC6B48290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32D586-AEF9-4BE6-B15A-C8E7456191D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="326">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1078,6 +1078,38 @@
   </si>
   <si>
     <t>Lucy_036</t>
+  </si>
+  <si>
+    <t>켈베</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81038</t>
+  </si>
+  <si>
+    <t>CardDesc_81038</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81038</t>
+  </si>
+  <si>
+    <t>Lucy_038</t>
+  </si>
+  <si>
+    <t>CardName_81039</t>
+  </si>
+  <si>
+    <t>CardDesc_81039</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81039</t>
+  </si>
+  <si>
+    <t>Lucy_039</t>
+  </si>
+  <si>
+    <t>주시하는 자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1192,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1224,6 +1256,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1574,11 +1609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4281,7 +4316,7 @@
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="M47" s="4">
         <v>6</v>
@@ -4531,6 +4566,126 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="16.5">
+      <c r="A52" s="15">
+        <v>81038</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="4">
+        <v>810380</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
+        <v>2</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
+        <v>5</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16.5">
+      <c r="A53" s="4">
+        <v>81039</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="4">
+        <v>810390</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
+        <v>5</v>
+      </c>
+      <c r="M53" s="4">
+        <v>3</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="T53" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="U53" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32D586-AEF9-4BE6-B15A-C8E7456191D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3217FB13-55D7-4BE4-A1D4-5C0CD3844ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="346">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1109,6 +1109,70 @@
   </si>
   <si>
     <t>주시하는 자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81040</t>
+  </si>
+  <si>
+    <t>CardDesc_81040</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81040</t>
+  </si>
+  <si>
+    <t>CardName_81041</t>
+  </si>
+  <si>
+    <t>CardDesc_81041</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81041</t>
+  </si>
+  <si>
+    <t>CardName_81042</t>
+  </si>
+  <si>
+    <t>CardDesc_81042</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81042</t>
+  </si>
+  <si>
+    <t>CardName_81043</t>
+  </si>
+  <si>
+    <t>CardDesc_81043</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81043</t>
+  </si>
+  <si>
+    <t>Lucy_040</t>
+  </si>
+  <si>
+    <t>Lucy_041</t>
+  </si>
+  <si>
+    <t>Lucy_042</t>
+  </si>
+  <si>
+    <t>Lucy_043</t>
+  </si>
+  <si>
+    <t>남동생12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언니31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언니666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1256,9 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,11 +1670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4570,7 +4631,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5">
-      <c r="A52" s="15">
+      <c r="A52" s="4">
         <v>81038</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -4686,6 +4747,246 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="16.5">
+      <c r="A54" s="4">
+        <v>81040</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="4">
+        <v>810400</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
+        <v>10</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
+        <v>3</v>
+      </c>
+      <c r="O54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="T54" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="U54" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="16.5">
+      <c r="A55" s="4">
+        <v>81041</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="4">
+        <v>810410</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
+        <v>5</v>
+      </c>
+      <c r="M55" s="4">
+        <v>4</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="16.5">
+      <c r="A56" s="4">
+        <v>81042</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="4">
+        <v>810420</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
+        <v>8</v>
+      </c>
+      <c r="M56" s="4">
+        <v>4</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="U56" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="16.5">
+      <c r="A57" s="4">
+        <v>81043</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="4">
+        <v>810430</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4">
+        <v>3</v>
+      </c>
+      <c r="M57" s="4">
+        <v>3</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="U57" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3217FB13-55D7-4BE4-A1D4-5C0CD3844ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AC580-4BB4-49D8-BED1-123E1AAB2757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="351">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1173,6 +1173,22 @@
   </si>
   <si>
     <t>언니666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81044</t>
+  </si>
+  <si>
+    <t>CardDesc_81044</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81044</t>
+  </si>
+  <si>
+    <t>Lucy_044</t>
+  </si>
+  <si>
+    <t>삼키기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1670,11 +1686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4990,6 +5006,62 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="58" spans="1:24" ht="16.5">
+      <c r="A58" s="4">
+        <v>81044</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="4">
+        <v>810440</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="T58" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="U58" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AC580-4BB4-49D8-BED1-123E1AAB2757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D00704-4AB7-4383-8C68-050B084A8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="362">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1189,6 +1200,42 @@
   </si>
   <si>
     <t>삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마의 트름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81045</t>
+  </si>
+  <si>
+    <t>CardDesc_81045</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81045</t>
+  </si>
+  <si>
+    <t>Lucy_045</t>
+  </si>
+  <si>
+    <t>오염된 성수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81046</t>
+  </si>
+  <si>
+    <t>CardDesc_81046</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81046</t>
+  </si>
+  <si>
+    <t>Lucy_046</t>
+  </si>
+  <si>
+    <t>810460, 810461</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1686,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5062,6 +5109,118 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="59" spans="1:24" ht="16.5">
+      <c r="A59" s="4">
+        <v>81045</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="4">
+        <v>810450</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="T59" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="16.5">
+      <c r="A60" s="4">
+        <v>81046</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="T60" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="U60" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D00704-4AB7-4383-8C68-050B084A8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F06884-F5DC-4FF4-B7CF-E07FF8DDC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="377">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1237,6 +1237,57 @@
   <si>
     <t>810460, 810461</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황고구마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81047</t>
+  </si>
+  <si>
+    <t>CardDesc_81047</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81047</t>
+  </si>
+  <si>
+    <t>Lucy_047</t>
+  </si>
+  <si>
+    <t>핸드카드 선택 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_001</t>
+  </si>
+  <si>
+    <t>Lucy_003</t>
+  </si>
+  <si>
+    <t>뽑을카드 선택 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무덤카드 선택 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99992</t>
+  </si>
+  <si>
+    <t>CardName_99993</t>
+  </si>
+  <si>
+    <t>CardName_99994</t>
   </si>
 </sst>
 </file>
@@ -1733,17 +1784,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
@@ -5221,6 +5272,270 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="61" spans="1:24" ht="16.5">
+      <c r="A61" s="4">
+        <v>81047</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="4">
+        <v>810470</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="U61" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="16.5">
+      <c r="A62" s="4">
+        <v>99991</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="4">
+        <v>999910</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="T62" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="U62" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="16.5">
+      <c r="A63" s="4">
+        <v>99992</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="4">
+        <v>999920</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="16.5">
+      <c r="A64" s="4">
+        <v>99992</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="4">
+        <v>999930</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="U64" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="16.5">
+      <c r="A65" s="4">
+        <v>99993</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="4">
+        <v>999940</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="U65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F06884-F5DC-4FF4-B7CF-E07FF8DDC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948DFF21-2CA4-49B9-9091-2469E49BD69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1575" windowWidth="34815" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="64" spans="1:24" ht="16.5">
       <c r="A64" s="4">
-        <v>99992</v>
+        <v>99993</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>372</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="65" spans="1:24" ht="16.5">
       <c r="A65" s="4">
-        <v>99993</v>
+        <v>99994</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>373</v>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948DFF21-2CA4-49B9-9091-2469E49BD69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2B99D-F228-40CD-BDC1-9EEE3B8C38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1575" windowWidth="34815" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="378">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1288,6 +1288,10 @@
   </si>
   <si>
     <t>CardName_99994</t>
+  </si>
+  <si>
+    <t>CostSatiety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1331,7 +1335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,6 +1378,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1402,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1434,6 +1444,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1784,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1803,20 +1816,22 @@
     <col min="8" max="8" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.75" style="1"/>
-    <col min="14" max="14" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="1"/>
+    <col min="11" max="11" width="8.75" style="1"/>
+    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.75" style="1"/>
+    <col min="15" max="15" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5">
+    <row r="1" spans="1:25" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1850,47 +1865,50 @@
       <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.5">
+    <row r="2" spans="1:25" ht="16.5">
       <c r="A2" s="4">
         <v>100101</v>
       </c>
@@ -1920,39 +1938,40 @@
         <v>2</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>3</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4">
         <v>3</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N2" s="4">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4"/>
       <c r="P2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="Q2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="16.5">
       <c r="A3" s="4">
         <v>100301</v>
       </c>
@@ -1985,30 +2004,31 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5">
       <c r="A4" s="4">
         <v>200101</v>
       </c>
@@ -2043,30 +2063,31 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5">
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5">
       <c r="A5" s="4">
         <v>300101</v>
       </c>
@@ -2097,30 +2118,31 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>9000111</v>
       </c>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5">
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5">
       <c r="A6" s="4">
         <v>300201</v>
       </c>
@@ -2148,33 +2170,34 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
         <v>9000221</v>
       </c>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5">
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -2202,33 +2225,34 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4" t="b">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="Q7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
+      <c r="R7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5">
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5">
       <c r="A8" s="4">
         <v>100201</v>
       </c>
@@ -2258,39 +2282,40 @@
         <v>0</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="4">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>3</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="Q8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5">
       <c r="A9" s="4">
         <v>1007</v>
       </c>
@@ -2320,37 +2345,38 @@
       <c r="K9" s="5">
         <v>20</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="R9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.5">
+      <c r="V9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5">
       <c r="A10" s="4">
         <v>1011</v>
       </c>
@@ -2378,33 +2404,34 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.5">
+      <c r="W10" s="4"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5">
       <c r="A11" s="4">
         <v>1012</v>
       </c>
@@ -2432,33 +2459,34 @@
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="4"/>
+      <c r="T11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="V11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.5">
+      <c r="W11" s="4"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5">
       <c r="A12" s="4">
         <v>1013</v>
       </c>
@@ -2486,33 +2514,34 @@
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O12" s="4"/>
       <c r="P12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="16.5">
+      <c r="V12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.5">
       <c r="A13" s="4">
         <v>1014</v>
       </c>
@@ -2540,33 +2569,34 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.5">
+      <c r="W13" s="4"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16.5">
       <c r="A14" s="4">
         <v>1015</v>
       </c>
@@ -2596,33 +2626,34 @@
         <v>99</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O14" s="4"/>
       <c r="P14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="V14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="W14" s="4"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A15" s="10">
         <v>81001</v>
       </c>
@@ -2655,30 +2686,31 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O15" s="10"/>
       <c r="P15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="S15" s="10"/>
       <c r="T15" s="10" t="s">
         <v>113</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="10"/>
+      <c r="V15" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="W15" s="10"/>
-      <c r="X15" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A16" s="10">
         <v>81002</v>
       </c>
@@ -2711,30 +2743,31 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O16" s="10"/>
       <c r="P16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="S16" s="10"/>
       <c r="T16" s="10" t="s">
         <v>118</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="W16" s="10"/>
-      <c r="X16" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A17" s="10">
         <v>81003</v>
       </c>
@@ -2767,30 +2800,31 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O17" s="10"/>
       <c r="P17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="S17" s="10"/>
       <c r="T17" s="10" t="s">
         <v>123</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="V17" s="10"/>
+      <c r="V17" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="W17" s="10"/>
-      <c r="X17" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A18" s="10">
         <v>81004</v>
       </c>
@@ -2823,30 +2857,31 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O18" s="10"/>
       <c r="P18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="S18" s="10"/>
       <c r="T18" s="10" t="s">
         <v>129</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="V18" s="10"/>
+      <c r="V18" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="W18" s="10"/>
-      <c r="X18" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A19" s="10">
         <v>81005</v>
       </c>
@@ -2879,30 +2914,31 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O19" s="10"/>
       <c r="P19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="S19" s="10"/>
       <c r="T19" s="10" t="s">
         <v>133</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="V19" s="10"/>
+      <c r="V19" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="W19" s="10"/>
-      <c r="X19" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A20" s="10">
         <v>81006</v>
       </c>
@@ -2935,30 +2971,31 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O20" s="10"/>
       <c r="P20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="S20" s="10"/>
       <c r="T20" s="10" t="s">
         <v>140</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="V20" s="10"/>
+      <c r="V20" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="W20" s="10"/>
-      <c r="X20" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A21" s="10">
         <v>81007</v>
       </c>
@@ -2988,25 +3025,23 @@
         <v>1</v>
       </c>
       <c r="K21" s="10"/>
-      <c r="L21" s="10">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10">
         <v>3</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>2</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O21" s="10"/>
       <c r="P21" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10">
-        <v>1</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>145</v>
+      <c r="Q21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10">
+        <v>1</v>
       </c>
       <c r="T21" s="10" t="s">
         <v>145</v>
@@ -3014,13 +3049,16 @@
       <c r="U21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="V21" s="10"/>
+      <c r="V21" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="W21" s="10"/>
-      <c r="X21" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A22" s="10">
         <v>81008</v>
       </c>
@@ -3050,25 +3088,23 @@
         <v>1</v>
       </c>
       <c r="K22" s="10"/>
-      <c r="L22" s="10">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
         <v>2</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="10">
         <v>3</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O22" s="10"/>
       <c r="P22" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10">
-        <v>1</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>150</v>
+      <c r="Q22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10">
+        <v>1</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>150</v>
@@ -3076,13 +3112,16 @@
       <c r="U22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="V22" s="10"/>
+      <c r="V22" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="W22" s="10"/>
-      <c r="X22" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A23" s="10">
         <v>81009</v>
       </c>
@@ -3112,23 +3151,21 @@
         <v>2</v>
       </c>
       <c r="K23" s="10"/>
-      <c r="L23" s="10">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10">
         <v>6</v>
       </c>
-      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="O23" s="10"/>
       <c r="P23" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10">
-        <v>1</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>155</v>
+      <c r="Q23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10">
+        <v>1</v>
       </c>
       <c r="T23" s="10" t="s">
         <v>155</v>
@@ -3136,13 +3173,16 @@
       <c r="U23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="V23" s="10"/>
+      <c r="V23" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="W23" s="10"/>
-      <c r="X23" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="11" customFormat="1" ht="16.5">
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="10">
         <v>81010</v>
       </c>
@@ -3172,25 +3212,23 @@
         <v>0</v>
       </c>
       <c r="K24" s="10"/>
-      <c r="L24" s="10">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10">
         <v>14</v>
       </c>
-      <c r="M24" s="10">
-        <v>1</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10"/>
       <c r="P24" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10">
-        <v>1</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>160</v>
+      <c r="Q24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10">
+        <v>1</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>160</v>
@@ -3198,13 +3236,16 @@
       <c r="U24" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="V24" s="10"/>
+      <c r="V24" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="W24" s="10"/>
-      <c r="X24" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.5">
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16.5">
       <c r="A25" s="4">
         <v>81011</v>
       </c>
@@ -3234,25 +3275,23 @@
         <v>2</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="4">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <v>8</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>4</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O25" s="4"/>
       <c r="P25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>165</v>
+      <c r="Q25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
+        <v>1</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>165</v>
@@ -3260,13 +3299,16 @@
       <c r="U25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="V25" s="4"/>
+      <c r="V25" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="W25" s="4"/>
-      <c r="X25" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.5">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16.5">
       <c r="A26" s="4">
         <v>81012</v>
       </c>
@@ -3296,25 +3338,23 @@
         <v>2</v>
       </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="4">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
         <v>6</v>
       </c>
-      <c r="M26" s="4">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4"/>
       <c r="P26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>170</v>
+      <c r="Q26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
+        <v>1</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>170</v>
@@ -3322,13 +3362,16 @@
       <c r="U26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="W26" s="4"/>
-      <c r="X26" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.5">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.5">
       <c r="A27" s="4">
         <v>81013</v>
       </c>
@@ -3361,30 +3404,31 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O27" s="4"/>
       <c r="P27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="S27" s="4"/>
       <c r="T27" s="4" t="s">
         <v>175</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="V27" s="4"/>
+      <c r="V27" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="W27" s="4"/>
-      <c r="X27" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.5">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5">
       <c r="A28" s="4">
         <v>81014</v>
       </c>
@@ -3419,30 +3463,31 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O28" s="4"/>
       <c r="P28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="S28" s="4"/>
       <c r="T28" s="4" t="s">
         <v>180</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="W28" s="4"/>
-      <c r="X28" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="16.5">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.5">
       <c r="A29" s="4">
         <v>81015</v>
       </c>
@@ -3475,30 +3520,31 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O29" s="4"/>
       <c r="P29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="S29" s="4"/>
       <c r="T29" s="4" t="s">
         <v>185</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V29" s="4"/>
+      <c r="V29" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="W29" s="4"/>
-      <c r="X29" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="16.5">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16.5">
       <c r="A30" s="4">
         <v>81016</v>
       </c>
@@ -3531,30 +3577,31 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O30" s="4"/>
       <c r="P30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="S30" s="4"/>
       <c r="T30" s="4" t="s">
         <v>194</v>
       </c>
       <c r="U30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="W30" s="4"/>
-      <c r="X30" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="16.5">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5">
       <c r="A31" s="4">
         <v>81017</v>
       </c>
@@ -3587,30 +3634,31 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O31" s="4"/>
       <c r="P31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="S31" s="4"/>
       <c r="T31" s="4" t="s">
         <v>195</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="W31" s="4"/>
-      <c r="X31" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="16.5">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5">
       <c r="A32" s="4">
         <v>81018</v>
       </c>
@@ -3643,30 +3691,31 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O32" s="4"/>
       <c r="P32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="S32" s="4"/>
       <c r="T32" s="4" t="s">
         <v>200</v>
       </c>
       <c r="U32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="V32" s="4"/>
+      <c r="V32" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="W32" s="4"/>
-      <c r="X32" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="16.5">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5">
       <c r="A33" s="4">
         <v>81019</v>
       </c>
@@ -3699,30 +3748,31 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O33" s="4"/>
       <c r="P33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="S33" s="4"/>
       <c r="T33" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U33" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="V33" s="4"/>
+      <c r="V33" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="W33" s="4"/>
-      <c r="X33" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="16.5">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5">
       <c r="A34" s="4">
         <v>81020</v>
       </c>
@@ -3755,30 +3805,31 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O34" s="4"/>
       <c r="P34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
         <v>210</v>
       </c>
       <c r="U34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="V34" s="4"/>
+      <c r="V34" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="W34" s="4"/>
-      <c r="X34" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="16.5">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="4">
         <v>81021</v>
       </c>
@@ -3811,30 +3862,31 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O35" s="4"/>
       <c r="P35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R35" s="4"/>
-      <c r="S35" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="S35" s="4"/>
       <c r="T35" s="4" t="s">
         <v>215</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="V35" s="4"/>
+      <c r="V35" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="W35" s="4"/>
-      <c r="X35" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="16.5">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5">
       <c r="A36" s="4">
         <v>81022</v>
       </c>
@@ -3867,30 +3919,31 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O36" s="4"/>
       <c r="P36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q36" s="4"/>
+      <c r="Q36" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R36" s="4"/>
-      <c r="S36" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
         <v>220</v>
       </c>
       <c r="U36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="V36" s="4"/>
+      <c r="V36" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="W36" s="4"/>
-      <c r="X36" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="16.5">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.5">
       <c r="A37" s="4">
         <v>81023</v>
       </c>
@@ -3923,30 +3976,31 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="S37" s="4"/>
       <c r="T37" s="4" t="s">
         <v>224</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="V37" s="4"/>
+      <c r="V37" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="W37" s="4"/>
-      <c r="X37" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.5">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16.5">
       <c r="A38" s="4">
         <v>81024</v>
       </c>
@@ -3979,30 +4033,31 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O38" s="4"/>
       <c r="P38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q38" s="4"/>
+      <c r="Q38" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R38" s="4"/>
-      <c r="S38" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="S38" s="4"/>
       <c r="T38" s="4" t="s">
         <v>230</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="V38" s="4"/>
+      <c r="V38" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="W38" s="4"/>
-      <c r="X38" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="16.5">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16.5">
       <c r="A39" s="4">
         <v>81025</v>
       </c>
@@ -4035,30 +4090,31 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O39" s="4"/>
       <c r="P39" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q39" s="4"/>
+      <c r="Q39" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R39" s="4"/>
-      <c r="S39" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
         <v>239</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="V39" s="4"/>
+      <c r="V39" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="W39" s="4"/>
-      <c r="X39" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="16.5">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16.5">
       <c r="A40" s="4">
         <v>81026</v>
       </c>
@@ -4091,30 +4147,31 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O40" s="4"/>
       <c r="P40" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q40" s="4"/>
+      <c r="Q40" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R40" s="4"/>
-      <c r="S40" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
         <v>244</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="V40" s="4"/>
+      <c r="V40" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="W40" s="4"/>
-      <c r="X40" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="16.5">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16.5">
       <c r="A41" s="9">
         <v>81027</v>
       </c>
@@ -4147,30 +4204,31 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="O41" s="9"/>
       <c r="P41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="S41" s="9"/>
       <c r="T41" s="9" t="s">
         <v>251</v>
       </c>
       <c r="U41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="V41" s="9"/>
+      <c r="V41" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="W41" s="9"/>
-      <c r="X41" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="16.5">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16.5">
       <c r="A42" s="9">
         <v>81028</v>
       </c>
@@ -4203,30 +4261,31 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="O42" s="9"/>
       <c r="P42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="S42" s="9"/>
       <c r="T42" s="9" t="s">
         <v>252</v>
       </c>
       <c r="U42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="V42" s="9"/>
+      <c r="V42" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="W42" s="9"/>
-      <c r="X42" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="16.5">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.5">
       <c r="A43" s="4">
         <v>81029</v>
       </c>
@@ -4259,30 +4318,31 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O43" s="4"/>
       <c r="P43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="S43" s="4"/>
       <c r="T43" s="4" t="s">
         <v>259</v>
       </c>
       <c r="U43" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="V43" s="4"/>
+      <c r="V43" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="W43" s="4"/>
-      <c r="X43" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="16.5">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16.5">
       <c r="A44" s="4">
         <v>81030</v>
       </c>
@@ -4315,30 +4375,31 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O44" s="4"/>
       <c r="P44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R44" s="4"/>
-      <c r="S44" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="S44" s="4"/>
       <c r="T44" s="4" t="s">
         <v>264</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="V44" s="4"/>
+      <c r="V44" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="W44" s="4"/>
-      <c r="X44" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="16.5">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16.5">
       <c r="A45" s="4">
         <v>81031</v>
       </c>
@@ -4368,25 +4429,23 @@
         <v>1</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="L45" s="8">
+      <c r="L45" s="8"/>
+      <c r="M45" s="8">
         <v>4</v>
       </c>
-      <c r="M45" s="8">
-        <v>1</v>
-      </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="N45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45" s="8"/>
       <c r="P45" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8">
-        <v>1</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>270</v>
+      <c r="Q45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8">
+        <v>1</v>
       </c>
       <c r="T45" s="8" t="s">
         <v>270</v>
@@ -4394,13 +4453,16 @@
       <c r="U45" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="V45" s="8"/>
+      <c r="V45" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="W45" s="8"/>
-      <c r="X45" s="8">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="16.5">
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16.5">
       <c r="A46" s="4">
         <v>81032</v>
       </c>
@@ -4430,37 +4492,38 @@
         <v>2</v>
       </c>
       <c r="K46" s="4"/>
-      <c r="L46" s="4">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4">
         <v>6</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>2</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O46" s="4"/>
       <c r="P46" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R46" s="4"/>
-      <c r="S46" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="S46" s="4"/>
       <c r="T46" s="4" t="s">
         <v>286</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="V46" s="4"/>
+      <c r="V46" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="W46" s="4"/>
-      <c r="X46" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="16.5">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.5">
       <c r="A47" s="4">
         <v>81033</v>
       </c>
@@ -4490,37 +4553,38 @@
         <v>2</v>
       </c>
       <c r="K47" s="4"/>
-      <c r="L47" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>6</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O47" s="4"/>
       <c r="P47" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q47" s="4"/>
+      <c r="Q47" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R47" s="4"/>
-      <c r="S47" s="8" t="s">
-        <v>291</v>
-      </c>
+      <c r="S47" s="4"/>
       <c r="T47" s="8" t="s">
         <v>291</v>
       </c>
       <c r="U47" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="V47" s="4"/>
+      <c r="V47" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="W47" s="4"/>
-      <c r="X47" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="16.5">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5">
       <c r="A48" s="4">
         <v>81034</v>
       </c>
@@ -4553,30 +4617,31 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O48" s="4"/>
       <c r="P48" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q48" s="4"/>
+      <c r="Q48" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R48" s="4"/>
-      <c r="S48" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="S48" s="4"/>
       <c r="T48" s="4" t="s">
         <v>296</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="V48" s="4"/>
+      <c r="V48" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="W48" s="4"/>
-      <c r="X48" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="16.5">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16.5">
       <c r="A49" s="4">
         <v>81035</v>
       </c>
@@ -4609,30 +4674,31 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O49" s="4"/>
       <c r="P49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q49" s="4"/>
+      <c r="Q49" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R49" s="4"/>
-      <c r="S49" s="8" t="s">
-        <v>303</v>
-      </c>
+      <c r="S49" s="4"/>
       <c r="T49" s="8" t="s">
         <v>303</v>
       </c>
       <c r="U49" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="V49" s="4"/>
+      <c r="V49" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="W49" s="4"/>
-      <c r="X49" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" s="13" customFormat="1" ht="16.5">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="13" customFormat="1" ht="16.5">
       <c r="A50" s="12">
         <v>81036</v>
       </c>
@@ -4665,30 +4731,31 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="O50" s="12"/>
       <c r="P50" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="Q50" s="12"/>
+      <c r="Q50" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="R50" s="12"/>
-      <c r="S50" s="4" t="s">
-        <v>315</v>
-      </c>
+      <c r="S50" s="12"/>
       <c r="T50" s="4" t="s">
         <v>315</v>
       </c>
       <c r="U50" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="V50" s="12"/>
+      <c r="V50" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="W50" s="12"/>
-      <c r="X50" s="12">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="16.5">
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16.5">
       <c r="A51" s="4">
         <v>81037</v>
       </c>
@@ -4718,33 +4785,36 @@
         <v>0</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="L51" s="4">
+        <v>30</v>
+      </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O51" s="4"/>
       <c r="P51" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R51" s="4"/>
-      <c r="S51" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="S51" s="4"/>
       <c r="T51" s="8" t="s">
         <v>314</v>
       </c>
       <c r="U51" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="V51" s="4"/>
+      <c r="V51" s="8" t="s">
+        <v>314</v>
+      </c>
       <c r="W51" s="4"/>
-      <c r="X51" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="16.5">
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="16.5">
       <c r="A52" s="4">
         <v>81038</v>
       </c>
@@ -4774,37 +4844,38 @@
         <v>2</v>
       </c>
       <c r="K52" s="4"/>
-      <c r="L52" s="4">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4">
         <v>5</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>2</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O52" s="4"/>
       <c r="P52" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R52" s="4"/>
-      <c r="S52" s="8" t="s">
-        <v>320</v>
-      </c>
+      <c r="S52" s="4"/>
       <c r="T52" s="8" t="s">
         <v>320</v>
       </c>
       <c r="U52" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="V52" s="4"/>
+      <c r="V52" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="W52" s="4"/>
-      <c r="X52" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="16.5">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16.5">
       <c r="A53" s="4">
         <v>81039</v>
       </c>
@@ -4834,37 +4905,38 @@
         <v>2</v>
       </c>
       <c r="K53" s="4"/>
-      <c r="L53" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
         <v>5</v>
       </c>
-      <c r="M53" s="4">
+      <c r="N53" s="4">
         <v>3</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O53" s="4"/>
       <c r="P53" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R53" s="4"/>
-      <c r="S53" s="8" t="s">
-        <v>324</v>
-      </c>
+      <c r="S53" s="4"/>
       <c r="T53" s="8" t="s">
         <v>324</v>
       </c>
       <c r="U53" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="V53" s="4"/>
+      <c r="V53" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="W53" s="4"/>
-      <c r="X53" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="16.5">
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16.5">
       <c r="A54" s="4">
         <v>81040</v>
       </c>
@@ -4894,37 +4966,38 @@
         <v>1</v>
       </c>
       <c r="K54" s="4"/>
-      <c r="L54" s="4">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4">
         <v>10</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4">
         <v>3</v>
       </c>
-      <c r="O54" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="P54" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q54" s="4"/>
+      <c r="Q54" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R54" s="4"/>
-      <c r="S54" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="S54" s="4"/>
       <c r="T54" s="8" t="s">
         <v>338</v>
       </c>
       <c r="U54" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="V54" s="4"/>
+      <c r="V54" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="W54" s="4"/>
-      <c r="X54" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="16.5">
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16.5">
       <c r="A55" s="4">
         <v>81041</v>
       </c>
@@ -4954,37 +5027,38 @@
         <v>1</v>
       </c>
       <c r="K55" s="4"/>
-      <c r="L55" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4">
         <v>5</v>
       </c>
-      <c r="M55" s="4">
+      <c r="N55" s="4">
         <v>4</v>
       </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O55" s="4"/>
       <c r="P55" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R55" s="4"/>
-      <c r="S55" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="S55" s="4"/>
       <c r="T55" s="8" t="s">
         <v>339</v>
       </c>
       <c r="U55" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="V55" s="4"/>
+      <c r="V55" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="W55" s="4"/>
-      <c r="X55" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="16.5">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16.5">
       <c r="A56" s="4">
         <v>81042</v>
       </c>
@@ -5014,37 +5088,38 @@
         <v>1</v>
       </c>
       <c r="K56" s="4"/>
-      <c r="L56" s="4">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4">
         <v>8</v>
       </c>
-      <c r="M56" s="4">
+      <c r="N56" s="4">
         <v>4</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O56" s="4"/>
       <c r="P56" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q56" s="4"/>
+      <c r="Q56" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R56" s="4"/>
-      <c r="S56" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="S56" s="4"/>
       <c r="T56" s="8" t="s">
         <v>340</v>
       </c>
       <c r="U56" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="V56" s="4"/>
+      <c r="V56" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="W56" s="4"/>
-      <c r="X56" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="16.5">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16.5">
       <c r="A57" s="4">
         <v>81043</v>
       </c>
@@ -5074,37 +5149,38 @@
         <v>2</v>
       </c>
       <c r="K57" s="4"/>
-      <c r="L57" s="4">
-        <v>3</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="4">
         <v>3</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N57" s="4">
+        <v>3</v>
+      </c>
+      <c r="O57" s="4"/>
       <c r="P57" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q57" s="4"/>
+      <c r="Q57" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R57" s="4"/>
-      <c r="S57" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="S57" s="4"/>
       <c r="T57" s="8" t="s">
         <v>341</v>
       </c>
       <c r="U57" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="V57" s="4"/>
+      <c r="V57" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="W57" s="4"/>
-      <c r="X57" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="16.5">
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16.5">
       <c r="A58" s="4">
         <v>81044</v>
       </c>
@@ -5137,30 +5213,31 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
-      <c r="O58" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O58" s="4"/>
       <c r="P58" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q58" s="4"/>
+      <c r="Q58" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R58" s="4"/>
-      <c r="S58" s="8" t="s">
-        <v>349</v>
-      </c>
+      <c r="S58" s="4"/>
       <c r="T58" s="8" t="s">
         <v>349</v>
       </c>
       <c r="U58" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="V58" s="4"/>
+      <c r="V58" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="W58" s="4"/>
-      <c r="X58" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="16.5">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16.5">
       <c r="A59" s="4">
         <v>81045</v>
       </c>
@@ -5193,30 +5270,31 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O59" s="4"/>
       <c r="P59" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q59" s="4"/>
+      <c r="Q59" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R59" s="4"/>
-      <c r="S59" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="S59" s="4"/>
       <c r="T59" s="8" t="s">
         <v>355</v>
       </c>
       <c r="U59" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="V59" s="4"/>
+      <c r="V59" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="W59" s="4"/>
-      <c r="X59" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="16.5">
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16.5">
       <c r="A60" s="4">
         <v>81046</v>
       </c>
@@ -5249,30 +5327,31 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
-      <c r="O60" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O60" s="4"/>
       <c r="P60" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q60" s="4"/>
+      <c r="Q60" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R60" s="4"/>
-      <c r="S60" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="S60" s="4"/>
       <c r="T60" s="8" t="s">
         <v>360</v>
       </c>
       <c r="U60" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="V60" s="4"/>
+      <c r="V60" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="W60" s="4"/>
-      <c r="X60" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="16.5">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16.5">
       <c r="A61" s="4">
         <v>81047</v>
       </c>
@@ -5305,30 +5384,31 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O61" s="4"/>
       <c r="P61" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R61" s="4"/>
-      <c r="S61" s="8" t="s">
-        <v>366</v>
-      </c>
+      <c r="S61" s="4"/>
       <c r="T61" s="8" t="s">
         <v>366</v>
       </c>
       <c r="U61" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="V61" s="4"/>
+      <c r="V61" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="W61" s="4"/>
-      <c r="X61" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="16.5">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16.5">
       <c r="A62" s="4">
         <v>99991</v>
       </c>
@@ -5357,30 +5437,31 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O62" s="4"/>
       <c r="P62" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q62" s="4"/>
+      <c r="Q62" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R62" s="4"/>
-      <c r="S62" s="8" t="s">
-        <v>369</v>
-      </c>
+      <c r="S62" s="4"/>
       <c r="T62" s="8" t="s">
         <v>369</v>
       </c>
       <c r="U62" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="V62" s="4"/>
+      <c r="V62" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="W62" s="4"/>
-      <c r="X62" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="16.5">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16.5">
       <c r="A63" s="4">
         <v>99992</v>
       </c>
@@ -5409,30 +5490,31 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O63" s="4"/>
       <c r="P63" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q63" s="4"/>
+      <c r="Q63" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R63" s="4"/>
-      <c r="S63" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="S63" s="4"/>
       <c r="T63" s="8" t="s">
         <v>118</v>
       </c>
       <c r="U63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="V63" s="4"/>
+      <c r="V63" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="W63" s="4"/>
-      <c r="X63" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="16.5">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="16.5">
       <c r="A64" s="4">
         <v>99993</v>
       </c>
@@ -5461,30 +5543,31 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O64" s="4"/>
       <c r="P64" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q64" s="4"/>
+      <c r="Q64" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R64" s="4"/>
-      <c r="S64" s="8" t="s">
-        <v>370</v>
-      </c>
+      <c r="S64" s="4"/>
       <c r="T64" s="8" t="s">
         <v>370</v>
       </c>
       <c r="U64" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="V64" s="4"/>
+      <c r="V64" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="W64" s="4"/>
-      <c r="X64" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="16.5">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="16.5">
       <c r="A65" s="4">
         <v>99994</v>
       </c>
@@ -5513,26 +5596,27 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="O65" s="4"/>
       <c r="P65" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q65" s="4"/>
+      <c r="Q65" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="R65" s="4"/>
-      <c r="S65" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="S65" s="4"/>
       <c r="T65" s="8" t="s">
         <v>129</v>
       </c>
       <c r="U65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="V65" s="4"/>
+      <c r="V65" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="W65" s="4"/>
-      <c r="X65" s="4">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2B99D-F228-40CD-BDC1-9EEE3B8C38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFB403-B5EF-4DFF-9ABA-1FE10BC863EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="384">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1291,6 +1291,26 @@
   </si>
   <si>
     <t>CostSatiety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81048</t>
+  </si>
+  <si>
+    <t>CardDesc_81048</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81048</t>
+  </si>
+  <si>
+    <t>묵직한 한방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_048</t>
+  </si>
+  <si>
+    <t>810480, 810481</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1797,11 +1817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2653,262 +2673,246 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A15" s="10">
+    <row r="15" spans="1:25" ht="16.5">
+      <c r="A15" s="4">
+        <v>99991</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4">
+        <v>999910</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5">
+      <c r="A16" s="4">
+        <v>99992</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="4">
+        <v>999920</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5">
+      <c r="A17" s="4">
+        <v>99993</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="4">
+        <v>999930</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5">
+      <c r="A18" s="4">
+        <v>99994</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4">
+        <v>999940</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="10">
         <v>81001</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="10">
-        <v>810010</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A16" s="10">
-        <v>81002</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="10">
-        <v>810020</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A17" s="10">
-        <v>81003</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="10">
-        <v>810030</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A18" s="10">
-        <v>81004</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="10">
-        <v>810040</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A19" s="10">
-        <v>81005</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H19" s="10">
-        <v>810050</v>
+        <v>810010</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2924,13 +2928,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
@@ -2940,19 +2944,19 @@
     </row>
     <row r="20" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A20" s="10">
-        <v>81006</v>
+        <v>81002</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>16</v>
@@ -2961,11 +2965,11 @@
         <v>57</v>
       </c>
       <c r="H20" s="10">
-        <v>810060</v>
+        <v>810020</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2981,13 +2985,13 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -2997,60 +3001,54 @@
     </row>
     <row r="21" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A21" s="10">
-        <v>81007</v>
+        <v>81003</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="10">
-        <v>810070</v>
+        <v>810030</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10">
-        <v>3</v>
-      </c>
-      <c r="N21" s="10">
-        <v>2</v>
-      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="10"/>
-      <c r="S21" s="10">
-        <v>1</v>
-      </c>
+      <c r="S21" s="10"/>
       <c r="T21" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -3060,60 +3058,54 @@
     </row>
     <row r="22" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A22" s="10">
-        <v>81008</v>
+        <v>81004</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="10">
-        <v>810080</v>
+        <v>810040</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10">
-        <v>2</v>
-      </c>
-      <c r="N22" s="10">
-        <v>3</v>
-      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="10"/>
-      <c r="S22" s="10">
-        <v>1</v>
-      </c>
+      <c r="S22" s="10"/>
       <c r="T22" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
@@ -3123,28 +3115,28 @@
     </row>
     <row r="23" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A23" s="10">
-        <v>81009</v>
+        <v>81005</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>135</v>
       </c>
       <c r="H23" s="10">
-        <v>810090</v>
+        <v>810050</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10">
@@ -3152,29 +3144,25 @@
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="10">
-        <v>6</v>
-      </c>
+      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="10">
-        <v>1</v>
-      </c>
+      <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
@@ -3184,60 +3172,54 @@
     </row>
     <row r="24" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="10">
-        <v>81010</v>
+        <v>81006</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>273</v>
+      <c r="H24" s="10">
+        <v>810060</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="10">
-        <v>14</v>
-      </c>
-      <c r="N24" s="10">
-        <v>1</v>
-      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="10"/>
-      <c r="S24" s="10">
-        <v>1</v>
-      </c>
+      <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
@@ -3245,272 +3227,280 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16.5">
-      <c r="A25" s="4">
-        <v>81011</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="4" t="s">
+    <row r="25" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A25" s="10">
+        <v>81007</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="10">
+        <v>810070</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10">
+        <v>3</v>
+      </c>
+      <c r="N25" s="10">
+        <v>2</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A26" s="10">
+        <v>81008</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="10">
+        <v>810080</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10">
+        <v>2</v>
+      </c>
+      <c r="N26" s="10">
+        <v>3</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A27" s="10">
+        <v>81009</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="H27" s="10">
+        <v>810090</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
         <v>2</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
-        <v>8</v>
-      </c>
-      <c r="N25" s="4">
-        <v>4</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="16.5">
-      <c r="A26" s="4">
-        <v>81012</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10">
+        <v>6</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10">
+        <v>1</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A28" s="10">
+        <v>81010</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>2</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
-        <v>6</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4">
-        <v>1</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="16.5">
-      <c r="A27" s="4">
-        <v>81013</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="H28" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
         <v>0</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="16.5">
-      <c r="A28" s="4">
-        <v>81014</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10">
+        <v>14</v>
+      </c>
+      <c r="N28" s="10">
+        <v>1</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10">
+        <v>1</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10">
         <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="16.5">
       <c r="A29" s="4">
-        <v>81015</v>
+        <v>81011</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>135</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
@@ -3518,25 +3508,31 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="M29" s="4">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4">
+        <v>4</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
       <c r="T29" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -3546,54 +3542,60 @@
     </row>
     <row r="30" spans="1:25" ht="16.5">
       <c r="A30" s="4">
-        <v>81016</v>
+        <v>81012</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="4">
-        <v>810160</v>
+        <v>63</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="4">
+        <v>6</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
       <c r="T30" s="4" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -3603,19 +3605,19 @@
     </row>
     <row r="31" spans="1:25" ht="16.5">
       <c r="A31" s="4">
-        <v>81017</v>
+        <v>81013</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>16</v>
@@ -3624,11 +3626,11 @@
         <v>57</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -3644,13 +3646,13 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3660,32 +3662,34 @@
     </row>
     <row r="32" spans="1:25" ht="16.5">
       <c r="A32" s="4">
-        <v>81018</v>
+        <v>81014</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="4">
-        <v>810180</v>
-      </c>
-      <c r="I32" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3701,13 +3705,13 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -3717,28 +3721,28 @@
     </row>
     <row r="33" spans="1:25" ht="16.5">
       <c r="A33" s="4">
-        <v>81019</v>
+        <v>81015</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4">
@@ -3758,13 +3762,13 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3774,19 +3778,19 @@
     </row>
     <row r="34" spans="1:25" ht="16.5">
       <c r="A34" s="4">
-        <v>81020</v>
+        <v>81016</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>16</v>
@@ -3795,7 +3799,7 @@
         <v>57</v>
       </c>
       <c r="H34" s="4">
-        <v>810200</v>
+        <v>810160</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4">
@@ -3815,13 +3819,13 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
@@ -3831,19 +3835,19 @@
     </row>
     <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="4">
-        <v>81021</v>
+        <v>81017</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>16</v>
@@ -3851,12 +3855,12 @@
       <c r="G35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="4">
-        <v>810210</v>
+      <c r="H35" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3867,18 +3871,18 @@
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -3888,32 +3892,32 @@
     </row>
     <row r="36" spans="1:25" ht="16.5">
       <c r="A36" s="4">
-        <v>81022</v>
+        <v>81018</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H36" s="4">
-        <v>810220</v>
+        <v>810180</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -3924,18 +3928,18 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -3945,28 +3949,28 @@
     </row>
     <row r="37" spans="1:25" ht="16.5">
       <c r="A37" s="4">
-        <v>81023</v>
+        <v>81019</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="4">
-        <v>810230</v>
+        <v>57</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -3986,13 +3990,13 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -4002,32 +4006,32 @@
     </row>
     <row r="38" spans="1:25" ht="16.5">
       <c r="A38" s="4">
-        <v>81024</v>
+        <v>81020</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>279</v>
+        <v>57</v>
+      </c>
+      <c r="H38" s="4">
+        <v>810200</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -4038,18 +4042,18 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -4059,32 +4063,32 @@
     </row>
     <row r="39" spans="1:25" ht="16.5">
       <c r="A39" s="4">
-        <v>81025</v>
+        <v>81021</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>280</v>
+        <v>57</v>
+      </c>
+      <c r="H39" s="4">
+        <v>810210</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -4100,13 +4104,13 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -4116,32 +4120,32 @@
     </row>
     <row r="40" spans="1:25" ht="16.5">
       <c r="A40" s="4">
-        <v>81026</v>
+        <v>81022</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H40" s="4">
-        <v>810260</v>
+        <v>810220</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -4157,13 +4161,13 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -4172,147 +4176,147 @@
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5">
-      <c r="A41" s="9">
-        <v>81027</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="A41" s="4">
+        <v>81023</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="9">
-        <v>810270</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9">
+      <c r="H41" s="4">
+        <v>810230</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>2</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="9" t="b">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="U41" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="V41" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5">
-      <c r="A42" s="9">
-        <v>81028</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="A42" s="4">
+        <v>81024</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="9">
-        <v>810280</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9">
-        <v>2</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="9" t="b">
+      <c r="H42" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>0</v>
       </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="U42" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="V42" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="16.5">
       <c r="A43" s="4">
-        <v>81029</v>
+        <v>81025</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="4">
-        <v>810290</v>
+        <v>63</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -4323,18 +4327,18 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -4344,32 +4348,32 @@
     </row>
     <row r="44" spans="1:25" ht="16.5">
       <c r="A44" s="4">
-        <v>81030</v>
+        <v>81026</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="H44" s="4">
-        <v>810300</v>
+        <v>810260</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -4385,13 +4389,13 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -4400,183 +4404,169 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="16.5">
-      <c r="A45" s="4">
-        <v>81031</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="8">
-        <v>810310</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8">
-        <v>1</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8">
-        <v>4</v>
-      </c>
-      <c r="N45" s="8">
-        <v>1</v>
-      </c>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8">
-        <v>1</v>
-      </c>
-      <c r="T45" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="U45" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="V45" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8">
+      <c r="A45" s="9">
+        <v>81027</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="9">
+        <v>810270</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9">
+        <v>2</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="U45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="16.5">
-      <c r="A46" s="4">
-        <v>81032</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H46" s="4">
-        <v>810320</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4">
+      <c r="A46" s="9">
+        <v>81028</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="9">
+        <v>810280</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9">
         <v>2</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4">
-        <v>6</v>
-      </c>
-      <c r="N46" s="4">
-        <v>2</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="U46" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="16.5">
       <c r="A47" s="4">
-        <v>81033</v>
+        <v>81029</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>290</v>
+        <v>255</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="H47" s="4">
-        <v>810330</v>
+        <v>810290</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>3</v>
-      </c>
-      <c r="N47" s="4">
-        <v>6</v>
-      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q47" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="U47" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="V47" s="8" t="s">
-        <v>291</v>
+      <c r="T47" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
@@ -4586,32 +4576,32 @@
     </row>
     <row r="48" spans="1:25" ht="16.5">
       <c r="A48" s="4">
-        <v>81034</v>
+        <v>81030</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>297</v>
+        <v>135</v>
+      </c>
+      <c r="H48" s="4">
+        <v>810300</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -4627,13 +4617,13 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
@@ -4643,153 +4633,165 @@
     </row>
     <row r="49" spans="1:25" ht="16.5">
       <c r="A49" s="4">
-        <v>81035</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>302</v>
+        <v>81031</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="8">
+        <v>810310</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8">
+        <v>1</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8">
+        <v>1</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="V49" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16.5">
+      <c r="A50" s="4">
+        <v>81032</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="U49" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="V49" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" s="13" customFormat="1" ht="16.5">
-      <c r="A50" s="12">
-        <v>81036</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="12">
-        <v>810350</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12">
-        <v>1</v>
-      </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
+      <c r="H50" s="4">
+        <v>810320</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4">
+        <v>2</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4">
+        <v>6</v>
+      </c>
+      <c r="N50" s="4">
+        <v>2</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
       <c r="T50" s="4" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12">
+        <v>286</v>
+      </c>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="16.5">
       <c r="A51" s="4">
-        <v>81037</v>
+        <v>81033</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>311</v>
+        <v>287</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>313</v>
+      <c r="H51" s="4">
+        <v>810330</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="4">
-        <v>30</v>
-      </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4">
+        <v>3</v>
+      </c>
+      <c r="N51" s="4">
+        <v>6</v>
+      </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="b">
         <v>1</v>
@@ -4800,13 +4802,13 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="8" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
@@ -4816,41 +4818,37 @@
     </row>
     <row r="52" spans="1:25" ht="16.5">
       <c r="A52" s="4">
-        <v>81038</v>
+        <v>81034</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="4">
-        <v>810380</v>
+      <c r="H52" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4">
-        <v>5</v>
-      </c>
-      <c r="N52" s="4">
-        <v>2</v>
-      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="b">
         <v>1</v>
@@ -4860,14 +4858,14 @@
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="U52" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="V52" s="8" t="s">
-        <v>320</v>
+      <c r="T52" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -4877,41 +4875,37 @@
     </row>
     <row r="53" spans="1:25" ht="16.5">
       <c r="A53" s="4">
-        <v>81039</v>
+        <v>81035</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>323</v>
+        <v>302</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="4">
-        <v>810390</v>
+      <c r="H53" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4">
-        <v>5</v>
-      </c>
-      <c r="N53" s="4">
-        <v>3</v>
-      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="b">
         <v>1</v>
@@ -4922,13 +4916,13 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="8" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -4936,104 +4930,98 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16.5">
-      <c r="A54" s="4">
-        <v>81040</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="4" t="s">
+    <row r="54" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A54" s="12">
+        <v>81036</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="4">
-        <v>810400</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4">
-        <v>10</v>
-      </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4">
-        <v>3</v>
-      </c>
-      <c r="P54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="U54" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="V54" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4">
+      <c r="H54" s="12">
+        <v>810350</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12">
+        <v>1</v>
+      </c>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12">
         <v>1001</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="16.5">
       <c r="A55" s="4">
-        <v>81041</v>
+        <v>81037</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="4">
-        <v>810410</v>
+      <c r="H55" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
-        <v>5</v>
-      </c>
-      <c r="N55" s="4">
-        <v>4</v>
-      </c>
+      <c r="L55" s="4">
+        <v>30</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="b">
         <v>1</v>
@@ -5044,13 +5032,13 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -5060,19 +5048,19 @@
     </row>
     <row r="56" spans="1:25" ht="16.5">
       <c r="A56" s="4">
-        <v>81042</v>
+        <v>81038</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>18</v>
@@ -5081,19 +5069,19 @@
         <v>59</v>
       </c>
       <c r="H56" s="4">
-        <v>810420</v>
+        <v>810380</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N56" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4" t="b">
@@ -5105,13 +5093,13 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="8" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
@@ -5121,19 +5109,19 @@
     </row>
     <row r="57" spans="1:25" ht="16.5">
       <c r="A57" s="4">
-        <v>81043</v>
+        <v>81039</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>18</v>
@@ -5142,7 +5130,7 @@
         <v>59</v>
       </c>
       <c r="H57" s="4">
-        <v>810430</v>
+        <v>810390</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4">
@@ -5151,7 +5139,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" s="4">
         <v>3</v>
@@ -5166,13 +5154,13 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -5182,28 +5170,28 @@
     </row>
     <row r="58" spans="1:25" ht="16.5">
       <c r="A58" s="4">
-        <v>81044</v>
+        <v>81040</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H58" s="4">
-        <v>810440</v>
+        <v>810400</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4">
@@ -5211,9 +5199,13 @@
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="M58" s="4">
+        <v>10</v>
+      </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
+      <c r="O58" s="4">
+        <v>3</v>
+      </c>
       <c r="P58" s="4" t="b">
         <v>1</v>
       </c>
@@ -5223,13 +5215,13 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="8" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
@@ -5239,28 +5231,28 @@
     </row>
     <row r="59" spans="1:25" ht="16.5">
       <c r="A59" s="4">
-        <v>81045</v>
+        <v>81041</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="H59" s="4">
-        <v>810450</v>
+        <v>810410</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4">
@@ -5268,8 +5260,12 @@
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
+      <c r="M59" s="4">
+        <v>5</v>
+      </c>
+      <c r="N59" s="4">
+        <v>4</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="b">
         <v>1</v>
@@ -5280,13 +5276,13 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -5296,28 +5292,28 @@
     </row>
     <row r="60" spans="1:25" ht="16.5">
       <c r="A60" s="4">
-        <v>81046</v>
+        <v>81042</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>361</v>
+        <v>59</v>
+      </c>
+      <c r="H60" s="4">
+        <v>810420</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4">
@@ -5325,8 +5321,12 @@
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+      <c r="M60" s="4">
+        <v>8</v>
+      </c>
+      <c r="N60" s="4">
+        <v>4</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4" t="b">
         <v>1</v>
@@ -5337,13 +5337,13 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="8" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -5353,37 +5353,41 @@
     </row>
     <row r="61" spans="1:25" ht="16.5">
       <c r="A61" s="4">
-        <v>81047</v>
+        <v>81043</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H61" s="4">
-        <v>810470</v>
+        <v>810430</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+      <c r="M61" s="4">
+        <v>3</v>
+      </c>
+      <c r="N61" s="4">
+        <v>3</v>
+      </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="b">
         <v>1</v>
@@ -5394,13 +5398,13 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="8" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -5410,24 +5414,28 @@
     </row>
     <row r="62" spans="1:25" ht="16.5">
       <c r="A62" s="4">
-        <v>99991</v>
+        <v>81044</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+        <v>346</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="F62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H62" s="4">
-        <v>999910</v>
+        <v>810440</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4">
@@ -5447,13 +5455,13 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="8" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -5463,24 +5471,28 @@
     </row>
     <row r="63" spans="1:25" ht="16.5">
       <c r="A63" s="4">
-        <v>99992</v>
+        <v>81045</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H63" s="4">
-        <v>999920</v>
+        <v>810450</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4">
@@ -5500,13 +5512,13 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="8" t="s">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -5516,24 +5528,28 @@
     </row>
     <row r="64" spans="1:25" ht="16.5">
       <c r="A64" s="4">
-        <v>99993</v>
+        <v>81046</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="F64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" s="4">
-        <v>999930</v>
+        <v>135</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4">
@@ -5553,13 +5569,13 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -5569,16 +5585,20 @@
     </row>
     <row r="65" spans="1:25" ht="16.5">
       <c r="A65" s="4">
-        <v>99994</v>
+        <v>81047</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="F65" s="4" t="s">
         <v>16</v>
       </c>
@@ -5586,7 +5606,7 @@
         <v>57</v>
       </c>
       <c r="H65" s="4">
-        <v>999940</v>
+        <v>810470</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4">
@@ -5606,17 +5626,76 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="8" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="4">
+        <v>81048</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10">
+        <v>1</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10">
+        <v>50</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U66" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="V66" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFB403-B5EF-4DFF-9ABA-1FE10BC863EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D5414-1474-4B8A-9ACA-7E7522309509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="388">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1312,6 +1312,20 @@
   <si>
     <t>810480, 810481</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99995</t>
+  </si>
+  <si>
+    <t>CardName_99996</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,12 +1412,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1432,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1464,9 +1472,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,11 +1822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1885,7 +1890,7 @@
       <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>377</v>
       </c>
       <c r="M1" s="14" t="s">
@@ -2885,135 +2890,127 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="10">
+    <row r="19" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A19" s="12">
+        <v>99995</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="12">
+        <v>999950</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A20" s="12">
+        <v>99996</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="12">
+        <v>999960</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="10">
         <v>81001</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="10">
-        <v>810010</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A20" s="10">
-        <v>81002</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="10">
-        <v>810020</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A21" s="10">
-        <v>81003</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>16</v>
@@ -3022,11 +3019,11 @@
         <v>57</v>
       </c>
       <c r="H21" s="10">
-        <v>810030</v>
+        <v>810010</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -3042,13 +3039,13 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -3058,19 +3055,19 @@
     </row>
     <row r="22" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A22" s="10">
-        <v>81004</v>
+        <v>81002</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>16</v>
@@ -3079,11 +3076,11 @@
         <v>57</v>
       </c>
       <c r="H22" s="10">
-        <v>810040</v>
+        <v>810020</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -3099,13 +3096,13 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
@@ -3115,32 +3112,32 @@
     </row>
     <row r="23" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A23" s="10">
-        <v>81005</v>
+        <v>81003</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H23" s="10">
-        <v>810050</v>
+        <v>810030</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3156,13 +3153,13 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
@@ -3172,19 +3169,19 @@
     </row>
     <row r="24" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="10">
-        <v>81006</v>
+        <v>81004</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>16</v>
@@ -3193,11 +3190,11 @@
         <v>57</v>
       </c>
       <c r="H24" s="10">
-        <v>810060</v>
+        <v>810040</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3213,13 +3210,13 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
@@ -3229,60 +3226,54 @@
     </row>
     <row r="25" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A25" s="10">
-        <v>81007</v>
+        <v>81005</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H25" s="10">
-        <v>810070</v>
+        <v>810050</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="10">
-        <v>3</v>
-      </c>
-      <c r="N25" s="10">
-        <v>2</v>
-      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="10"/>
-      <c r="S25" s="10">
-        <v>1</v>
-      </c>
+      <c r="S25" s="10"/>
       <c r="T25" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
@@ -3292,60 +3283,54 @@
     </row>
     <row r="26" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A26" s="10">
-        <v>81008</v>
+        <v>81006</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="10">
-        <v>810080</v>
+        <v>810060</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="10">
-        <v>2</v>
-      </c>
-      <c r="N26" s="10">
-        <v>3</v>
-      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="10"/>
-      <c r="S26" s="10">
-        <v>1</v>
-      </c>
+      <c r="S26" s="10"/>
       <c r="T26" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
@@ -3355,39 +3340,41 @@
     </row>
     <row r="27" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A27" s="10">
-        <v>81009</v>
+        <v>81007</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H27" s="10">
-        <v>810090</v>
+        <v>810070</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10">
-        <v>6</v>
-      </c>
-      <c r="N27" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="N27" s="10">
+        <v>2</v>
+      </c>
       <c r="O27" s="10"/>
       <c r="P27" s="10" t="b">
         <v>1</v>
@@ -3400,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
@@ -3416,19 +3403,19 @@
     </row>
     <row r="28" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A28" s="10">
-        <v>81010</v>
+        <v>81008</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>18</v>
@@ -3436,20 +3423,20 @@
       <c r="G28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>273</v>
+      <c r="H28" s="10">
+        <v>810080</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10" t="b">
@@ -3463,13 +3450,13 @@
         <v>1</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
@@ -3477,182 +3464,186 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16.5">
-      <c r="A29" s="4">
-        <v>81011</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="4" t="s">
+    <row r="29" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A29" s="10">
+        <v>81009</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="H29" s="10">
+        <v>810090</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
         <v>2</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
-        <v>8</v>
-      </c>
-      <c r="N29" s="4">
-        <v>4</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="16.5">
-      <c r="A30" s="4">
-        <v>81012</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10">
+        <v>6</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10">
+        <v>1</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A30" s="10">
+        <v>81010</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
-        <v>6</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4">
-        <v>1</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4">
+      <c r="G30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
+        <v>0</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
+        <v>14</v>
+      </c>
+      <c r="N30" s="10">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10">
+        <v>1</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10">
         <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="16.5">
       <c r="A31" s="4">
-        <v>81013</v>
+        <v>81011</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="M31" s="4">
+        <v>8</v>
+      </c>
+      <c r="N31" s="4">
+        <v>4</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
       <c r="T31" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3662,56 +3653,60 @@
     </row>
     <row r="32" spans="1:25" ht="16.5">
       <c r="A32" s="4">
-        <v>81014</v>
+        <v>81012</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="4">
+        <v>6</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
       <c r="T32" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -3721,32 +3716,32 @@
     </row>
     <row r="33" spans="1:25" ht="16.5">
       <c r="A33" s="4">
-        <v>81015</v>
+        <v>81013</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3762,13 +3757,13 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3778,19 +3773,19 @@
     </row>
     <row r="34" spans="1:25" ht="16.5">
       <c r="A34" s="4">
-        <v>81016</v>
+        <v>81014</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>16</v>
@@ -3798,10 +3793,12 @@
       <c r="G34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="4">
-        <v>810160</v>
-      </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J34" s="4">
         <v>1</v>
       </c>
@@ -3819,13 +3816,13 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
@@ -3835,32 +3832,32 @@
     </row>
     <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="4">
-        <v>81017</v>
+        <v>81015</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3876,13 +3873,13 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -3892,32 +3889,32 @@
     </row>
     <row r="36" spans="1:25" ht="16.5">
       <c r="A36" s="4">
-        <v>81018</v>
+        <v>81016</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H36" s="4">
-        <v>810180</v>
+        <v>810160</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -3933,13 +3930,13 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -3949,19 +3946,19 @@
     </row>
     <row r="37" spans="1:25" ht="16.5">
       <c r="A37" s="4">
-        <v>81019</v>
+        <v>81017</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>16</v>
@@ -3970,11 +3967,11 @@
         <v>57</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -3990,13 +3987,13 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -4006,32 +4003,32 @@
     </row>
     <row r="38" spans="1:25" ht="16.5">
       <c r="A38" s="4">
-        <v>81020</v>
+        <v>81018</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H38" s="4">
-        <v>810200</v>
+        <v>810180</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -4047,13 +4044,13 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -4063,19 +4060,19 @@
     </row>
     <row r="39" spans="1:25" ht="16.5">
       <c r="A39" s="4">
-        <v>81021</v>
+        <v>81019</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>16</v>
@@ -4083,12 +4080,12 @@
       <c r="G39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="4">
-        <v>810210</v>
+      <c r="H39" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -4099,18 +4096,18 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -4120,19 +4117,19 @@
     </row>
     <row r="40" spans="1:25" ht="16.5">
       <c r="A40" s="4">
-        <v>81022</v>
+        <v>81020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>16</v>
@@ -4141,11 +4138,11 @@
         <v>57</v>
       </c>
       <c r="H40" s="4">
-        <v>810220</v>
+        <v>810200</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -4156,18 +4153,18 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -4177,32 +4174,32 @@
     </row>
     <row r="41" spans="1:25" ht="16.5">
       <c r="A41" s="4">
-        <v>81023</v>
+        <v>81021</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H41" s="4">
-        <v>810230</v>
+        <v>810210</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4213,18 +4210,18 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
@@ -4234,28 +4231,28 @@
     </row>
     <row r="42" spans="1:25" ht="16.5">
       <c r="A42" s="4">
-        <v>81024</v>
+        <v>81022</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>279</v>
+        <v>57</v>
+      </c>
+      <c r="H42" s="4">
+        <v>810220</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4">
@@ -4275,13 +4272,13 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -4291,28 +4288,28 @@
     </row>
     <row r="43" spans="1:25" ht="16.5">
       <c r="A43" s="4">
-        <v>81025</v>
+        <v>81023</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>280</v>
+        <v>135</v>
+      </c>
+      <c r="H43" s="4">
+        <v>810230</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
@@ -4327,18 +4324,18 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -4348,32 +4345,32 @@
     </row>
     <row r="44" spans="1:25" ht="16.5">
       <c r="A44" s="4">
-        <v>81026</v>
+        <v>81024</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="4">
-        <v>810260</v>
+        <v>135</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -4389,13 +4386,13 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -4404,320 +4401,314 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="16.5">
-      <c r="A45" s="9">
+      <c r="A45" s="4">
+        <v>81025</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="16.5">
+      <c r="A46" s="4">
+        <v>81026</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="4">
+        <v>810260</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.5">
+      <c r="A47" s="9">
         <v>81027</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H47" s="9">
         <v>810270</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9">
         <v>2</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="9" t="b">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9" t="s">
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="U45" s="9" t="s">
+      <c r="U47" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="V45" s="9" t="s">
+      <c r="V47" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="16.5">
-      <c r="A46" s="9">
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5">
+      <c r="A48" s="9">
         <v>81028</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H48" s="9">
         <v>810280</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9">
         <v>2</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="9" t="b">
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9" t="s">
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="U46" s="9" t="s">
+      <c r="U48" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="V46" s="9" t="s">
+      <c r="V48" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="16.5">
-      <c r="A47" s="4">
-        <v>81029</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="4">
-        <v>810290</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="V47" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="16.5">
-      <c r="A48" s="4">
-        <v>81030</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48" s="4">
-        <v>810300</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4">
-        <v>2</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U48" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4">
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="16.5">
       <c r="A49" s="4">
-        <v>81031</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="8">
-        <v>810310</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8">
-        <v>4</v>
-      </c>
-      <c r="N49" s="8">
-        <v>1</v>
-      </c>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8">
-        <v>1</v>
-      </c>
-      <c r="T49" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="U49" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="V49" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8">
+        <v>81029</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="4">
+        <v>810290</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="16.5">
       <c r="A50" s="4">
-        <v>81032</v>
+        <v>81030</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="H50" s="4">
-        <v>810320</v>
+        <v>810300</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4">
@@ -4725,12 +4716,8 @@
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4">
-        <v>6</v>
-      </c>
-      <c r="N50" s="4">
-        <v>2</v>
-      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="b">
         <v>1</v>
@@ -4741,13 +4728,13 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
@@ -4757,98 +4744,104 @@
     </row>
     <row r="51" spans="1:25" ht="16.5">
       <c r="A51" s="4">
-        <v>81033</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>287</v>
+        <v>81031</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F51" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="4">
-        <v>810330</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4">
-        <v>3</v>
-      </c>
-      <c r="N51" s="4">
-        <v>6</v>
-      </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
+      <c r="G51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="8">
+        <v>810310</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8">
+        <v>4</v>
+      </c>
+      <c r="N51" s="8">
+        <v>1</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8">
+        <v>1</v>
+      </c>
       <c r="T51" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4">
+        <v>270</v>
+      </c>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="16.5">
       <c r="A52" s="4">
-        <v>81034</v>
+        <v>81032</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>297</v>
+      <c r="H52" s="4">
+        <v>810320</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="M52" s="4">
+        <v>6</v>
+      </c>
+      <c r="N52" s="4">
+        <v>2</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="b">
         <v>1</v>
@@ -4859,13 +4852,13 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -4875,37 +4868,41 @@
     </row>
     <row r="53" spans="1:25" ht="16.5">
       <c r="A53" s="4">
-        <v>81035</v>
+        <v>81033</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>301</v>
+      <c r="H53" s="4">
+        <v>810330</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="M53" s="4">
+        <v>3</v>
+      </c>
+      <c r="N53" s="4">
+        <v>6</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="b">
         <v>1</v>
@@ -4916,13 +4913,13 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -4930,78 +4927,78 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="13" customFormat="1" ht="16.5">
-      <c r="A54" s="12">
-        <v>81036</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F54" s="12" t="s">
+    <row r="54" spans="1:25" ht="16.5">
+      <c r="A54" s="4">
+        <v>81034</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="12">
-        <v>810350</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12">
-        <v>1</v>
-      </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
+      <c r="H54" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12">
+        <v>296</v>
+      </c>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="16.5">
       <c r="A55" s="4">
-        <v>81037</v>
+        <v>81035</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>16</v>
@@ -5010,16 +5007,14 @@
         <v>59</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="4"/>
-      <c r="L55" s="4">
-        <v>30</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -5032,13 +5027,13 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -5046,104 +5041,98 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16.5">
-      <c r="A56" s="4">
-        <v>81038</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="4" t="s">
+    <row r="56" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A56" s="12">
+        <v>81036</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="4">
-        <v>810380</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4">
-        <v>2</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>5</v>
-      </c>
-      <c r="N56" s="4">
-        <v>2</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="U56" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="V56" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4">
+      <c r="H56" s="12">
+        <v>810350</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12">
+        <v>1</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12">
         <v>1001</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="16.5">
       <c r="A57" s="4">
-        <v>81039</v>
+        <v>81037</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="4">
-        <v>810390</v>
+      <c r="H57" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4">
-        <v>5</v>
-      </c>
-      <c r="N57" s="4">
-        <v>3</v>
-      </c>
+      <c r="L57" s="4">
+        <v>30</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4" t="b">
         <v>1</v>
@@ -5154,13 +5143,13 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -5170,19 +5159,19 @@
     </row>
     <row r="58" spans="1:25" ht="16.5">
       <c r="A58" s="4">
-        <v>81040</v>
+        <v>81038</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>18</v>
@@ -5191,21 +5180,21 @@
         <v>59</v>
       </c>
       <c r="H58" s="4">
-        <v>810400</v>
+        <v>810380</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4">
-        <v>10</v>
-      </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N58" s="4">
+        <v>2</v>
+      </c>
+      <c r="O58" s="4"/>
       <c r="P58" s="4" t="b">
         <v>1</v>
       </c>
@@ -5215,13 +5204,13 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
@@ -5231,19 +5220,19 @@
     </row>
     <row r="59" spans="1:25" ht="16.5">
       <c r="A59" s="4">
-        <v>81041</v>
+        <v>81039</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
@@ -5252,11 +5241,11 @@
         <v>59</v>
       </c>
       <c r="H59" s="4">
-        <v>810410</v>
+        <v>810390</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -5264,7 +5253,7 @@
         <v>5</v>
       </c>
       <c r="N59" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="b">
@@ -5276,13 +5265,13 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -5292,19 +5281,19 @@
     </row>
     <row r="60" spans="1:25" ht="16.5">
       <c r="A60" s="4">
-        <v>81042</v>
+        <v>81040</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>18</v>
@@ -5313,7 +5302,7 @@
         <v>59</v>
       </c>
       <c r="H60" s="4">
-        <v>810420</v>
+        <v>810400</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4">
@@ -5322,12 +5311,12 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4">
-        <v>8</v>
-      </c>
-      <c r="N60" s="4">
-        <v>4</v>
-      </c>
-      <c r="O60" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4">
+        <v>3</v>
+      </c>
       <c r="P60" s="4" t="b">
         <v>1</v>
       </c>
@@ -5337,13 +5326,13 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -5353,19 +5342,19 @@
     </row>
     <row r="61" spans="1:25" ht="16.5">
       <c r="A61" s="4">
-        <v>81043</v>
+        <v>81041</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>18</v>
@@ -5374,19 +5363,19 @@
         <v>59</v>
       </c>
       <c r="H61" s="4">
-        <v>810430</v>
+        <v>810410</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="b">
@@ -5398,13 +5387,13 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -5414,28 +5403,28 @@
     </row>
     <row r="62" spans="1:25" ht="16.5">
       <c r="A62" s="4">
-        <v>81044</v>
+        <v>81042</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H62" s="4">
-        <v>810440</v>
+        <v>810420</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4">
@@ -5443,8 +5432,12 @@
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
+      <c r="M62" s="4">
+        <v>8</v>
+      </c>
+      <c r="N62" s="4">
+        <v>4</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4" t="b">
         <v>1</v>
@@ -5455,13 +5448,13 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -5471,37 +5464,41 @@
     </row>
     <row r="63" spans="1:25" ht="16.5">
       <c r="A63" s="4">
-        <v>81045</v>
+        <v>81043</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="H63" s="4">
-        <v>810450</v>
+        <v>810430</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="M63" s="4">
+        <v>3</v>
+      </c>
+      <c r="N63" s="4">
+        <v>3</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4" t="b">
         <v>1</v>
@@ -5512,13 +5509,13 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -5528,28 +5525,28 @@
     </row>
     <row r="64" spans="1:25" ht="16.5">
       <c r="A64" s="4">
-        <v>81046</v>
+        <v>81044</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>361</v>
+        <v>59</v>
+      </c>
+      <c r="H64" s="4">
+        <v>810440</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4">
@@ -5569,13 +5566,13 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -5585,28 +5582,28 @@
     </row>
     <row r="65" spans="1:25" ht="16.5">
       <c r="A65" s="4">
-        <v>81047</v>
+        <v>81045</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H65" s="4">
-        <v>810470</v>
+        <v>810450</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4">
@@ -5626,13 +5623,13 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
@@ -5640,62 +5637,176 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="16.5">
       <c r="A66" s="4">
-        <v>81048</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>381</v>
+        <v>81046</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F66" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="U66" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="V66" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="16.5">
+      <c r="A67" s="4">
+        <v>81047</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="4">
+        <v>810470</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="4">
+        <v>81048</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10">
-        <v>1</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10">
+      <c r="I68" s="10"/>
+      <c r="J68" s="10">
+        <v>1</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10">
         <v>50</v>
       </c>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="10" t="b">
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="8" t="s">
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="U66" s="8" t="s">
+      <c r="U68" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="V66" s="8" t="s">
+      <c r="V68" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10">
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D5414-1474-4B8A-9ACA-7E7522309509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8E80D-A86F-4AF9-A252-66838BD9A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="394">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1326,6 +1326,26 @@
   </si>
   <si>
     <t>CardName_99996</t>
+  </si>
+  <si>
+    <t>슬라임 킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81049</t>
+  </si>
+  <si>
+    <t>CardDesc_81049</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81049</t>
+  </si>
+  <si>
+    <t>Lucy_049</t>
+  </si>
+  <si>
+    <t>810490, 810491, 810492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1822,11 +1842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5810,6 +5830,67 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="69" spans="1:25" ht="16.5">
+      <c r="A69" s="4">
+        <v>81049</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4">
+        <v>99</v>
+      </c>
+      <c r="N69" s="4">
+        <v>4</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="U69" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="V69" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8E80D-A86F-4AF9-A252-66838BD9A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C31779-05D0-41BB-96FF-711AC75D6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="399">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1345,6 +1345,22 @@
   </si>
   <si>
     <t>810490, 810491, 810492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81050</t>
+  </si>
+  <si>
+    <t>CardDesc_81050</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81050</t>
+  </si>
+  <si>
+    <t>Lucy_050</t>
+  </si>
+  <si>
+    <t>탐식의 욕망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,11 +1858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5891,6 +5907,65 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="70" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="4">
+        <v>81050</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="10">
+        <v>810500</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10">
+        <v>0</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10">
+        <v>10</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C31779-05D0-41BB-96FF-711AC75D6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F7BDF-AB63-46B2-8FAB-4D510DF83345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="415">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1361,6 +1361,58 @@
   </si>
   <si>
     <t>탐식의 욕망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81051</t>
+  </si>
+  <si>
+    <t>CardDesc_81051</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81051</t>
+  </si>
+  <si>
+    <t>CardName_81052</t>
+  </si>
+  <si>
+    <t>CardDesc_81052</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81052</t>
+  </si>
+  <si>
+    <t>CardName_81053</t>
+  </si>
+  <si>
+    <t>CardDesc_81053</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81053</t>
+  </si>
+  <si>
+    <t>Lucy_051</t>
+  </si>
+  <si>
+    <t>Lucy_052</t>
+  </si>
+  <si>
+    <t>Lucy_053</t>
+  </si>
+  <si>
+    <t>810530, 810531</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1858,11 +1910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5966,6 +6018,181 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="71" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="4">
+        <v>81051</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="10">
+        <v>810500</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10">
+        <v>0</v>
+      </c>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10">
+        <v>10</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="V71" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="4">
+        <v>81052</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="10">
+        <v>810500</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10">
+        <v>0</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10">
+        <v>10</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="U72" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="V72" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="4">
+        <v>81053</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="U73" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="V73" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F7BDF-AB63-46B2-8FAB-4D510DF83345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8EA83-9C7B-4E68-AEB4-365D9D441335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="419">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1414,6 +1414,20 @@
   <si>
     <t>810530, 810531</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 최대치 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_99997</t>
+  </si>
+  <si>
+    <t>CardName_99998</t>
   </si>
 </sst>
 </file>
@@ -1910,11 +1924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3084,135 +3098,127 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
+    <row r="21" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A21" s="12">
+        <v>99997</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="12">
+        <v>999970</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A22" s="12">
+        <v>99998</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="12">
+        <v>999980</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="10">
         <v>81001</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="10">
-        <v>810010</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A22" s="10">
-        <v>81002</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="10">
-        <v>810020</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" s="11" customFormat="1" ht="16.5">
-      <c r="A23" s="10">
-        <v>81003</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>16</v>
@@ -3221,11 +3227,11 @@
         <v>57</v>
       </c>
       <c r="H23" s="10">
-        <v>810030</v>
+        <v>810010</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3241,13 +3247,13 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="24" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="10">
-        <v>81004</v>
+        <v>81002</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>16</v>
@@ -3278,11 +3284,11 @@
         <v>57</v>
       </c>
       <c r="H24" s="10">
-        <v>810040</v>
+        <v>810020</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3298,13 +3304,13 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
@@ -3314,32 +3320,32 @@
     </row>
     <row r="25" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A25" s="10">
-        <v>81005</v>
+        <v>81003</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H25" s="10">
-        <v>810050</v>
+        <v>810030</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3355,13 +3361,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="26" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A26" s="10">
-        <v>81006</v>
+        <v>81004</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>16</v>
@@ -3392,11 +3398,11 @@
         <v>57</v>
       </c>
       <c r="H26" s="10">
-        <v>810060</v>
+        <v>810040</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3412,13 +3418,13 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
@@ -3428,60 +3434,54 @@
     </row>
     <row r="27" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A27" s="10">
-        <v>81007</v>
+        <v>81005</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H27" s="10">
-        <v>810070</v>
+        <v>810050</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="10">
-        <v>3</v>
-      </c>
-      <c r="N27" s="10">
-        <v>2</v>
-      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="10"/>
-      <c r="S27" s="10">
-        <v>1</v>
-      </c>
+      <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
@@ -3491,60 +3491,54 @@
     </row>
     <row r="28" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A28" s="10">
-        <v>81008</v>
+        <v>81006</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H28" s="10">
-        <v>810080</v>
+        <v>810060</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="10">
-        <v>2</v>
-      </c>
-      <c r="N28" s="10">
-        <v>3</v>
-      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="10"/>
-      <c r="S28" s="10">
-        <v>1</v>
-      </c>
+      <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
@@ -3554,39 +3548,41 @@
     </row>
     <row r="29" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A29" s="10">
-        <v>81009</v>
+        <v>81007</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H29" s="10">
-        <v>810090</v>
+        <v>810070</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10">
-        <v>6</v>
-      </c>
-      <c r="N29" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="N29" s="10">
+        <v>2</v>
+      </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10" t="b">
         <v>1</v>
@@ -3599,13 +3595,13 @@
         <v>1</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
@@ -3615,19 +3611,19 @@
     </row>
     <row r="30" spans="1:25" s="11" customFormat="1" ht="16.5">
       <c r="A30" s="10">
-        <v>81010</v>
+        <v>81008</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>18</v>
@@ -3635,20 +3631,20 @@
       <c r="G30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>273</v>
+      <c r="H30" s="10">
+        <v>810080</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10" t="b">
@@ -3662,13 +3658,13 @@
         <v>1</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
@@ -3676,182 +3672,186 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16.5">
-      <c r="A31" s="4">
-        <v>81011</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" s="4" t="s">
+    <row r="31" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A31" s="10">
+        <v>81009</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="H31" s="10">
+        <v>810090</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
         <v>2</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
-        <v>8</v>
-      </c>
-      <c r="N31" s="4">
-        <v>4</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="16.5">
-      <c r="A32" s="4">
-        <v>81012</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <v>6</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10">
+        <v>1</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="11" customFormat="1" ht="16.5">
+      <c r="A32" s="10">
+        <v>81010</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4">
-        <v>2</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4">
-        <v>6</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4">
+      <c r="G32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10">
+        <v>14</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10">
         <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="16.5">
       <c r="A33" s="4">
-        <v>81013</v>
+        <v>81011</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="4">
+        <v>8</v>
+      </c>
+      <c r="N33" s="4">
+        <v>4</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
       <c r="T33" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3861,56 +3861,60 @@
     </row>
     <row r="34" spans="1:25" ht="16.5">
       <c r="A34" s="4">
-        <v>81014</v>
+        <v>81012</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I34" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="M34" s="4">
+        <v>6</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Q34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
       <c r="T34" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
@@ -3920,32 +3924,32 @@
     </row>
     <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="4">
-        <v>81015</v>
+        <v>81013</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3961,13 +3965,13 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -3977,19 +3981,19 @@
     </row>
     <row r="36" spans="1:25" ht="16.5">
       <c r="A36" s="4">
-        <v>81016</v>
+        <v>81014</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>16</v>
@@ -3997,10 +4001,12 @@
       <c r="G36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="4">
-        <v>810160</v>
-      </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I36" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J36" s="4">
         <v>1</v>
       </c>
@@ -4018,13 +4024,13 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -4034,32 +4040,32 @@
     </row>
     <row r="37" spans="1:25" ht="16.5">
       <c r="A37" s="4">
-        <v>81017</v>
+        <v>81015</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -4075,13 +4081,13 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -4091,32 +4097,32 @@
     </row>
     <row r="38" spans="1:25" ht="16.5">
       <c r="A38" s="4">
-        <v>81018</v>
+        <v>81016</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H38" s="4">
-        <v>810180</v>
+        <v>810160</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -4132,13 +4138,13 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -4148,19 +4154,19 @@
     </row>
     <row r="39" spans="1:25" ht="16.5">
       <c r="A39" s="4">
-        <v>81019</v>
+        <v>81017</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>16</v>
@@ -4169,11 +4175,11 @@
         <v>57</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -4189,13 +4195,13 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -4205,32 +4211,32 @@
     </row>
     <row r="40" spans="1:25" ht="16.5">
       <c r="A40" s="4">
-        <v>81020</v>
+        <v>81018</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H40" s="4">
-        <v>810200</v>
+        <v>810180</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -4246,13 +4252,13 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -4262,19 +4268,19 @@
     </row>
     <row r="41" spans="1:25" ht="16.5">
       <c r="A41" s="4">
-        <v>81021</v>
+        <v>81019</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>16</v>
@@ -4282,12 +4288,12 @@
       <c r="G41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="4">
-        <v>810210</v>
+      <c r="H41" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4298,18 +4304,18 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
@@ -4319,19 +4325,19 @@
     </row>
     <row r="42" spans="1:25" ht="16.5">
       <c r="A42" s="4">
-        <v>81022</v>
+        <v>81020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>16</v>
@@ -4340,11 +4346,11 @@
         <v>57</v>
       </c>
       <c r="H42" s="4">
-        <v>810220</v>
+        <v>810200</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -4355,18 +4361,18 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -4376,32 +4382,32 @@
     </row>
     <row r="43" spans="1:25" ht="16.5">
       <c r="A43" s="4">
-        <v>81023</v>
+        <v>81021</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H43" s="4">
-        <v>810230</v>
+        <v>810210</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -4412,18 +4418,18 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -4433,28 +4439,28 @@
     </row>
     <row r="44" spans="1:25" ht="16.5">
       <c r="A44" s="4">
-        <v>81024</v>
+        <v>81022</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>279</v>
+        <v>57</v>
+      </c>
+      <c r="H44" s="4">
+        <v>810220</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4">
@@ -4474,13 +4480,13 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -4490,28 +4496,28 @@
     </row>
     <row r="45" spans="1:25" ht="16.5">
       <c r="A45" s="4">
-        <v>81025</v>
+        <v>81023</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>280</v>
+        <v>135</v>
+      </c>
+      <c r="H45" s="4">
+        <v>810230</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4">
@@ -4526,18 +4532,18 @@
         <v>1</v>
       </c>
       <c r="Q45" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
@@ -4547,32 +4553,32 @@
     </row>
     <row r="46" spans="1:25" ht="16.5">
       <c r="A46" s="4">
-        <v>81026</v>
+        <v>81024</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="4">
-        <v>810260</v>
+        <v>135</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -4588,13 +4594,13 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
@@ -4603,320 +4609,314 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="16.5">
-      <c r="A47" s="9">
+      <c r="A47" s="4">
+        <v>81025</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
+        <v>2</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="16.5">
+      <c r="A48" s="4">
+        <v>81026</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="4">
+        <v>810260</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="16.5">
+      <c r="A49" s="9">
         <v>81027</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H49" s="9">
         <v>810270</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9">
         <v>2</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="9" t="b">
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9" t="s">
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="U47" s="9" t="s">
+      <c r="U49" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="V47" s="9" t="s">
+      <c r="V49" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="16.5">
-      <c r="A48" s="9">
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16.5">
+      <c r="A50" s="9">
         <v>81028</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H50" s="9">
         <v>810280</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9">
         <v>2</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="9" t="b">
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9" t="s">
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="U48" s="9" t="s">
+      <c r="U50" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="V48" s="9" t="s">
+      <c r="V50" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="16.5">
-      <c r="A49" s="4">
-        <v>81029</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="4">
-        <v>810290</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="16.5">
-      <c r="A50" s="4">
-        <v>81030</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="4">
-        <v>810300</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4">
-        <v>2</v>
-      </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4">
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9">
         <v>1001</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="16.5">
       <c r="A51" s="4">
-        <v>81031</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="8">
-        <v>810310</v>
-      </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8">
-        <v>1</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8">
-        <v>4</v>
-      </c>
-      <c r="N51" s="8">
-        <v>1</v>
-      </c>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8">
-        <v>1</v>
-      </c>
-      <c r="T51" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="U51" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="V51" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8">
+        <v>81029</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="4">
+        <v>810290</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="16.5">
       <c r="A52" s="4">
-        <v>81032</v>
+        <v>81030</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="H52" s="4">
-        <v>810320</v>
+        <v>810300</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4">
@@ -4924,12 +4924,8 @@
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4">
-        <v>6</v>
-      </c>
-      <c r="N52" s="4">
-        <v>2</v>
-      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="b">
         <v>1</v>
@@ -4940,13 +4936,13 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -4956,98 +4952,104 @@
     </row>
     <row r="53" spans="1:25" ht="16.5">
       <c r="A53" s="4">
-        <v>81033</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>287</v>
+        <v>81031</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="4">
-        <v>810330</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4">
-        <v>2</v>
-      </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
-        <v>3</v>
-      </c>
-      <c r="N53" s="4">
-        <v>6</v>
-      </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
+      <c r="G53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="8">
+        <v>810310</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8">
+        <v>1</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8">
+        <v>4</v>
+      </c>
+      <c r="N53" s="8">
+        <v>1</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8">
+        <v>1</v>
+      </c>
       <c r="T53" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4">
+        <v>270</v>
+      </c>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8">
         <v>1001</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="16.5">
       <c r="A54" s="4">
-        <v>81034</v>
+        <v>81032</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>297</v>
+      <c r="H54" s="4">
+        <v>810320</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="M54" s="4">
+        <v>6</v>
+      </c>
+      <c r="N54" s="4">
+        <v>2</v>
+      </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="b">
         <v>1</v>
@@ -5058,13 +5060,13 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
@@ -5074,37 +5076,41 @@
     </row>
     <row r="55" spans="1:25" ht="16.5">
       <c r="A55" s="4">
-        <v>81035</v>
+        <v>81033</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>301</v>
+      <c r="H55" s="4">
+        <v>810330</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="M55" s="4">
+        <v>3</v>
+      </c>
+      <c r="N55" s="4">
+        <v>6</v>
+      </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="b">
         <v>1</v>
@@ -5115,13 +5121,13 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -5129,78 +5135,78 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="13" customFormat="1" ht="16.5">
-      <c r="A56" s="12">
-        <v>81036</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F56" s="12" t="s">
+    <row r="56" spans="1:25" ht="16.5">
+      <c r="A56" s="4">
+        <v>81034</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="12">
-        <v>810350</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12">
-        <v>1</v>
-      </c>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
+      <c r="H56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
       <c r="T56" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12">
+        <v>296</v>
+      </c>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="16.5">
       <c r="A57" s="4">
-        <v>81037</v>
+        <v>81035</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>16</v>
@@ -5209,16 +5215,14 @@
         <v>59</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="4"/>
-      <c r="L57" s="4">
-        <v>30</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -5231,13 +5235,13 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -5245,104 +5249,98 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16.5">
-      <c r="A58" s="4">
-        <v>81038</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="4" t="s">
+    <row r="58" spans="1:25" s="13" customFormat="1" ht="16.5">
+      <c r="A58" s="12">
+        <v>81036</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="4">
-        <v>810380</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4">
-        <v>2</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4">
-        <v>5</v>
-      </c>
-      <c r="N58" s="4">
-        <v>2</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="U58" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="V58" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4">
+      <c r="H58" s="12">
+        <v>810350</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12">
+        <v>1</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12">
         <v>1001</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="16.5">
       <c r="A59" s="4">
-        <v>81039</v>
+        <v>81037</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H59" s="4">
-        <v>810390</v>
+      <c r="H59" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4">
-        <v>5</v>
-      </c>
-      <c r="N59" s="4">
-        <v>3</v>
-      </c>
+      <c r="L59" s="4">
+        <v>30</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="b">
         <v>1</v>
@@ -5353,13 +5351,13 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -5369,19 +5367,19 @@
     </row>
     <row r="60" spans="1:25" ht="16.5">
       <c r="A60" s="4">
-        <v>81040</v>
+        <v>81038</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>18</v>
@@ -5390,21 +5388,21 @@
         <v>59</v>
       </c>
       <c r="H60" s="4">
-        <v>810400</v>
+        <v>810380</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4">
-        <v>10</v>
-      </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N60" s="4">
+        <v>2</v>
+      </c>
+      <c r="O60" s="4"/>
       <c r="P60" s="4" t="b">
         <v>1</v>
       </c>
@@ -5414,13 +5412,13 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -5430,19 +5428,19 @@
     </row>
     <row r="61" spans="1:25" ht="16.5">
       <c r="A61" s="4">
-        <v>81041</v>
+        <v>81039</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>18</v>
@@ -5451,11 +5449,11 @@
         <v>59</v>
       </c>
       <c r="H61" s="4">
-        <v>810410</v>
+        <v>810390</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -5463,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="N61" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="b">
@@ -5475,13 +5473,13 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -5491,19 +5489,19 @@
     </row>
     <row r="62" spans="1:25" ht="16.5">
       <c r="A62" s="4">
-        <v>81042</v>
+        <v>81040</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>18</v>
@@ -5512,7 +5510,7 @@
         <v>59</v>
       </c>
       <c r="H62" s="4">
-        <v>810420</v>
+        <v>810400</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4">
@@ -5521,12 +5519,12 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4">
-        <v>8</v>
-      </c>
-      <c r="N62" s="4">
-        <v>4</v>
-      </c>
-      <c r="O62" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4">
+        <v>3</v>
+      </c>
       <c r="P62" s="4" t="b">
         <v>1</v>
       </c>
@@ -5536,13 +5534,13 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -5552,19 +5550,19 @@
     </row>
     <row r="63" spans="1:25" ht="16.5">
       <c r="A63" s="4">
-        <v>81043</v>
+        <v>81041</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>18</v>
@@ -5573,19 +5571,19 @@
         <v>59</v>
       </c>
       <c r="H63" s="4">
-        <v>810430</v>
+        <v>810410</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N63" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4" t="b">
@@ -5597,13 +5595,13 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -5613,28 +5611,28 @@
     </row>
     <row r="64" spans="1:25" ht="16.5">
       <c r="A64" s="4">
-        <v>81044</v>
+        <v>81042</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H64" s="4">
-        <v>810440</v>
+        <v>810420</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4">
@@ -5642,8 +5640,12 @@
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
+      <c r="M64" s="4">
+        <v>8</v>
+      </c>
+      <c r="N64" s="4">
+        <v>4</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4" t="b">
         <v>1</v>
@@ -5654,13 +5656,13 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -5670,37 +5672,41 @@
     </row>
     <row r="65" spans="1:25" ht="16.5">
       <c r="A65" s="4">
-        <v>81045</v>
+        <v>81043</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="H65" s="4">
-        <v>810450</v>
+        <v>810430</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
+      <c r="M65" s="4">
+        <v>3</v>
+      </c>
+      <c r="N65" s="4">
+        <v>3</v>
+      </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4" t="b">
         <v>1</v>
@@ -5711,13 +5717,13 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
@@ -5727,28 +5733,28 @@
     </row>
     <row r="66" spans="1:25" ht="16.5">
       <c r="A66" s="4">
-        <v>81046</v>
+        <v>81044</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>361</v>
+        <v>59</v>
+      </c>
+      <c r="H66" s="4">
+        <v>810440</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4">
@@ -5768,13 +5774,13 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="U66" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
@@ -5784,28 +5790,28 @@
     </row>
     <row r="67" spans="1:25" ht="16.5">
       <c r="A67" s="4">
-        <v>81047</v>
+        <v>81045</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="H67" s="4">
-        <v>810470</v>
+        <v>810450</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4">
@@ -5825,13 +5831,13 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
@@ -5839,89 +5845,87 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="16.5">
       <c r="A68" s="4">
-        <v>81048</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>381</v>
+        <v>81046</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F68" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10">
-        <v>1</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10">
-        <v>50</v>
-      </c>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
+      <c r="H68" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
       <c r="T68" s="8" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="U68" s="8" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10">
+        <v>360</v>
+      </c>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="16.5">
       <c r="A69" s="4">
-        <v>81049</v>
+        <v>81047</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>393</v>
+        <v>57</v>
+      </c>
+      <c r="H69" s="4">
+        <v>810470</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4">
@@ -5929,12 +5933,8 @@
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4">
-        <v>99</v>
-      </c>
-      <c r="N69" s="4">
-        <v>4</v>
-      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4" t="b">
         <v>1</v>
@@ -5945,13 +5945,13 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="8" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="U69" s="8" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -5961,19 +5961,19 @@
     </row>
     <row r="70" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="4">
-        <v>81050</v>
+        <v>81048</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>16</v>
@@ -5981,16 +5981,16 @@
       <c r="G70" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H70" s="10">
-        <v>810500</v>
+      <c r="H70" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -6004,13 +6004,13 @@
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="8" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="W70" s="10"/>
       <c r="X70" s="10"/>
@@ -6018,80 +6018,82 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="16.5">
       <c r="A71" s="4">
-        <v>81051</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>399</v>
+        <v>81049</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>16</v>
+        <v>391</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H71" s="10">
-        <v>810500</v>
-      </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10">
-        <v>0</v>
-      </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10">
-        <v>10</v>
-      </c>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4">
+        <v>99</v>
+      </c>
+      <c r="N71" s="4">
+        <v>4</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
       <c r="T71" s="8" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10">
+        <v>392</v>
+      </c>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="72" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="4">
-        <v>81052</v>
+        <v>81050</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>16</v>
@@ -6122,13 +6124,13 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
       <c r="T72" s="8" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="W72" s="10"/>
       <c r="X72" s="10"/>
@@ -6138,19 +6140,19 @@
     </row>
     <row r="73" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="4">
-        <v>81053</v>
+        <v>81051</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>16</v>
@@ -6158,38 +6160,156 @@
       <c r="G73" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>414</v>
+      <c r="H73" s="10">
+        <v>810500</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10">
         <v>0</v>
       </c>
       <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
+      <c r="L73" s="10">
+        <v>10</v>
+      </c>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q73" s="4" t="b">
-        <v>1</v>
+      <c r="Q73" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
       <c r="T73" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="W73" s="10"/>
       <c r="X73" s="10"/>
       <c r="Y73" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="4">
+        <v>81052</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="10">
+        <v>810500</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10">
+        <v>0</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10">
+        <v>10</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="U74" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="V74" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="4">
+        <v>81053</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="V75" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8EA83-9C7B-4E68-AEB4-365D9D441335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DACA124-77C3-42AF-9D0F-9671D7B0A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="429">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1428,6 +1428,38 @@
   </si>
   <si>
     <t>CardName_99998</t>
+  </si>
+  <si>
+    <t>CardName_81054</t>
+  </si>
+  <si>
+    <t>CardDesc_81054</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81054</t>
+  </si>
+  <si>
+    <t>810540, 810541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_054</t>
+  </si>
+  <si>
+    <t>위액 슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81055</t>
+  </si>
+  <si>
+    <t>CardDesc_81055</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81055</t>
+  </si>
+  <si>
+    <t>Lucy_055</t>
   </si>
 </sst>
 </file>
@@ -1924,11 +1956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6050,7 +6082,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="N71" s="4">
         <v>4</v>
@@ -6313,6 +6345,124 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="76" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="4">
+        <v>81054</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10">
+        <v>2</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="U76" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="16.5">
+      <c r="A77" s="4">
+        <v>81055</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="4">
+        <v>810550</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
+        <v>2</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4">
+        <v>99</v>
+      </c>
+      <c r="N77" s="4">
+        <v>2</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="U77" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="V77" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DACA124-77C3-42AF-9D0F-9671D7B0A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888E2602-1CCB-4E73-897E-EF5003C2A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1960,7 +1960,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6190,19 +6190,17 @@
         <v>16</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="H73" s="10">
-        <v>810500</v>
+        <v>810510</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" s="10"/>
-      <c r="L73" s="10">
-        <v>10</v>
-      </c>
+      <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -6252,16 +6250,14 @@
         <v>135</v>
       </c>
       <c r="H74" s="10">
-        <v>810500</v>
+        <v>810520</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" s="10"/>
-      <c r="L74" s="10">
-        <v>10</v>
-      </c>
+      <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888E2602-1CCB-4E73-897E-EF5003C2A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94764C7A-602E-415B-8967-01885F268F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="444">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1460,6 +1460,54 @@
   </si>
   <si>
     <t>Lucy_055</t>
+  </si>
+  <si>
+    <t>몽마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81056</t>
+  </si>
+  <si>
+    <t>CardDesc_81056</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81056</t>
+  </si>
+  <si>
+    <t>Lucy_056</t>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81057</t>
+  </si>
+  <si>
+    <t>CardDesc_81057</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81057</t>
+  </si>
+  <si>
+    <t>전투준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81058</t>
+  </si>
+  <si>
+    <t>CardDesc_81058</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81058</t>
+  </si>
+  <si>
+    <t>Lucy_057</t>
+  </si>
+  <si>
+    <t>Lucy_058</t>
   </si>
 </sst>
 </file>
@@ -1956,11 +2004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6197,7 +6245,7 @@
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
@@ -6207,8 +6255,8 @@
       <c r="P73" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q73" s="10" t="b">
-        <v>0</v>
+      <c r="Q73" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
@@ -6264,8 +6312,8 @@
       <c r="P74" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Q74" s="10" t="b">
-        <v>0</v>
+      <c r="Q74" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
@@ -6430,7 +6478,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="N77" s="4">
         <v>2</v>
@@ -6456,6 +6504,181 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="16.5">
+      <c r="A78" s="4">
+        <v>81056</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="4">
+        <v>810560</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4">
+        <v>2</v>
+      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4">
+        <v>2</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="U78" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="V78" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="16.5">
+      <c r="A79" s="4">
+        <v>81057</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="4">
+        <v>810570</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="U79" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="16.5">
+      <c r="A80" s="4">
+        <v>81058</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" s="4">
+        <v>810580</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="U80" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="V80" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94764C7A-602E-415B-8967-01885F268F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4685E15-5F26-4F84-A53B-7B3B6B5F0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="455">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1508,6 +1508,40 @@
   </si>
   <si>
     <t>Lucy_058</t>
+  </si>
+  <si>
+    <t>식욕 폭발</t>
+  </si>
+  <si>
+    <t>공허의 바다</t>
+  </si>
+  <si>
+    <t>CardName_81059</t>
+  </si>
+  <si>
+    <t>CardDesc_81059</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81059</t>
+  </si>
+  <si>
+    <t>CardName_81060</t>
+  </si>
+  <si>
+    <t>CardDesc_81060</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81060</t>
+  </si>
+  <si>
+    <t>Lucy_059</t>
+  </si>
+  <si>
+    <t>Lucy_060</t>
+  </si>
+  <si>
+    <t>810600, 810601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2004,11 +2038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6682,6 +6716,124 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="81" spans="1:25" ht="16.5">
+      <c r="A81" s="4">
+        <v>81059</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="4">
+        <v>810590</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4">
+        <v>30</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="16.5">
+      <c r="A82" s="4">
+        <v>81060</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
+        <v>80</v>
+      </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="U82" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="V82" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4685E15-5F26-4F84-A53B-7B3B6B5F0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C0608-E97A-4039-887A-D32ECF8A3C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="470">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1542,6 +1542,54 @@
   <si>
     <t>810600, 810601</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81061</t>
+  </si>
+  <si>
+    <t>CardDesc_81061</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81061</t>
+  </si>
+  <si>
+    <t>CardName_81062</t>
+  </si>
+  <si>
+    <t>CardDesc_81062</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81062</t>
+  </si>
+  <si>
+    <t>CardName_81063</t>
+  </si>
+  <si>
+    <t>CardDesc_81063</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81063</t>
+  </si>
+  <si>
+    <t>꼬치구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_061</t>
+  </si>
+  <si>
+    <t>Lucy_062</t>
+  </si>
+  <si>
+    <t>Lucy_063</t>
   </si>
 </sst>
 </file>
@@ -2038,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6834,6 +6882,177 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="83" spans="1:25" ht="16.5">
+      <c r="A83" s="4">
+        <v>81061</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H83" s="4">
+        <v>810610</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
+        <v>2</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="U83" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="V83" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="16.5">
+      <c r="A84" s="4">
+        <v>81062</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="4">
+        <v>810620</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
+        <v>3</v>
+      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="U84" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="V84" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="16.5">
+      <c r="A85" s="4">
+        <v>81063</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" s="4">
+        <v>810630</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="V85" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C0608-E97A-4039-887A-D32ECF8A3C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1196ED2A-070B-4A64-A34D-4B9872770ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="475">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1590,6 +1590,22 @@
   </si>
   <si>
     <t>Lucy_063</t>
+  </si>
+  <si>
+    <t>소룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81064</t>
+  </si>
+  <si>
+    <t>CardDesc_81064</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81064</t>
+  </si>
+  <si>
+    <t>Lucy_064</t>
   </si>
 </sst>
 </file>
@@ -2086,11 +2102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7053,6 +7069,63 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="86" spans="1:25" ht="16.5">
+      <c r="A86" s="4">
+        <v>81064</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="4">
+        <v>810640</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="U86" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="V86" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1196ED2A-070B-4A64-A34D-4B9872770ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B82A14-975E-4AE0-80BF-6ED9D808E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="480">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1606,6 +1606,22 @@
   </si>
   <si>
     <t>Lucy_064</t>
+  </si>
+  <si>
+    <t>집어삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81065</t>
+  </si>
+  <si>
+    <t>CardDesc_81065</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81065</t>
+  </si>
+  <si>
+    <t>Lucy_065</t>
   </si>
 </sst>
 </file>
@@ -2102,11 +2118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6930,7 +6946,9 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
+      <c r="N83" s="4">
+        <v>3</v>
+      </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4" t="b">
         <v>1</v>
@@ -6987,7 +7005,9 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
+      <c r="N84" s="4">
+        <v>3</v>
+      </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4" t="b">
         <v>1</v>
@@ -7044,7 +7064,9 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
+      <c r="N85" s="4">
+        <v>2</v>
+      </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4" t="b">
         <v>1</v>
@@ -7126,6 +7148,65 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="87" spans="1:25" ht="16.5">
+      <c r="A87" s="4">
+        <v>81065</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H87" s="4">
+        <v>810650</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4">
+        <v>2</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4">
+        <v>2</v>
+      </c>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B82A14-975E-4AE0-80BF-6ED9D808E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E6C7F-A7AA-4DA5-B870-A233F0073E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="491">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1622,6 +1622,42 @@
   </si>
   <si>
     <t>Lucy_065</t>
+  </si>
+  <si>
+    <t>지독한숙취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿰뚫는일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81066</t>
+  </si>
+  <si>
+    <t>CardDesc_81066</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81066</t>
+  </si>
+  <si>
+    <t>CardName_81067</t>
+  </si>
+  <si>
+    <t>CardDesc_81067</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81067</t>
+  </si>
+  <si>
+    <t>Lucy_066</t>
+  </si>
+  <si>
+    <t>Lucy_067</t>
+  </si>
+  <si>
+    <t>810660, 810661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2118,11 +2154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3430,7 +3466,9 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="10">
+        <v>3</v>
+      </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10" t="b">
         <v>1</v>
@@ -3487,7 +3525,9 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="N24" s="10">
+        <v>2</v>
+      </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10" t="b">
         <v>1</v>
@@ -3544,7 +3584,9 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10" t="b">
         <v>1</v>
@@ -3715,7 +3757,9 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="10">
+        <v>3</v>
+      </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10" t="b">
         <v>1</v>
@@ -4207,7 +4251,9 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="b">
         <v>1</v>
@@ -4264,7 +4310,9 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4">
+        <v>2</v>
+      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="b">
         <v>1</v>
@@ -4321,7 +4369,9 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="N38" s="4">
+        <v>2</v>
+      </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="b">
         <v>1</v>
@@ -4378,7 +4428,9 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="N39" s="4">
+        <v>6</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="b">
         <v>1</v>
@@ -4435,7 +4487,9 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="N40" s="4">
+        <v>2</v>
+      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="b">
         <v>1</v>
@@ -4492,7 +4546,9 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="b">
         <v>1</v>
@@ -4720,7 +4776,9 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4">
+        <v>3</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4" t="b">
         <v>1</v>
@@ -4891,7 +4949,9 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="4">
+        <v>5</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4" t="b">
         <v>1</v>
@@ -6187,7 +6247,9 @@
         <v>50</v>
       </c>
       <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
+      <c r="N70" s="10">
+        <v>4</v>
+      </c>
       <c r="O70" s="10"/>
       <c r="P70" s="10" t="b">
         <v>1</v>
@@ -6421,7 +6483,9 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
+      <c r="N74" s="10">
+        <v>3</v>
+      </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10" t="b">
         <v>1</v>
@@ -6889,7 +6953,9 @@
         <v>80</v>
       </c>
       <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="N82" s="4">
+        <v>12</v>
+      </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4" t="b">
         <v>1</v>
@@ -7207,6 +7273,124 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="88" spans="1:25" ht="16.5">
+      <c r="A88" s="4">
+        <v>81066</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4">
+        <v>2</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4">
+        <v>3</v>
+      </c>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="U88" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="V88" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="16.5">
+      <c r="A89" s="4">
+        <v>81067</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H89" s="4">
+        <v>810670</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4">
+        <v>2</v>
+      </c>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="U89" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="V89" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E6C7F-A7AA-4DA5-B870-A233F0073E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0749FE-B11A-431E-A13B-879D6A1AB67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="501">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1658,6 +1658,36 @@
   <si>
     <t>810660, 810661</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81068</t>
+  </si>
+  <si>
+    <t>CardDesc_81068</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81068</t>
+  </si>
+  <si>
+    <t>CardName_81069</t>
+  </si>
+  <si>
+    <t>CardDesc_81069</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81069</t>
+  </si>
+  <si>
+    <t>마왕의장막</t>
+  </si>
+  <si>
+    <t>마왕의비수</t>
+  </si>
+  <si>
+    <t>Lucy_068</t>
+  </si>
+  <si>
+    <t>Lucy_069</t>
   </si>
 </sst>
 </file>
@@ -2154,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q93" sqref="Q93"/>
+      <selection pane="bottomLeft" activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7391,6 +7421,120 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="90" spans="1:25" ht="16.5">
+      <c r="A90" s="4">
+        <v>81068</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="4">
+        <v>810680</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="U90" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="V90" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="16.5">
+      <c r="A91" s="4">
+        <v>81069</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H91" s="4">
+        <v>810690</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="V91" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0749FE-B11A-431E-A13B-879D6A1AB67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA4C821-1215-4290-9ED4-63F224671E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="506">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1688,6 +1688,22 @@
   </si>
   <si>
     <t>Lucy_069</t>
+  </si>
+  <si>
+    <t>CardName_81070</t>
+  </si>
+  <si>
+    <t>CardDesc_81070</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81070</t>
+  </si>
+  <si>
+    <t>Lucy_070</t>
+  </si>
+  <si>
+    <t>마왕의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2184,11 +2200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q97" sqref="Q97"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7535,6 +7551,65 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="92" spans="1:25" ht="16.5">
+      <c r="A92" s="4">
+        <v>81070</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H92" s="4">
+        <v>810700</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4">
+        <v>50</v>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="U92" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="V92" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA4C821-1215-4290-9ED4-63F224671E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626CCCF2-F76A-438F-9BC4-2F6C2E17E48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="511">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1704,6 +1704,22 @@
   <si>
     <t>마왕의가호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전소화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81071</t>
+  </si>
+  <si>
+    <t>CardDesc_81071</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81071</t>
+  </si>
+  <si>
+    <t>Lucy_071</t>
   </si>
 </sst>
 </file>
@@ -2200,11 +2216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7610,6 +7626,63 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="93" spans="1:25" ht="16.5">
+      <c r="A93" s="4">
+        <v>81071</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" s="4">
+        <v>810710</v>
+      </c>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4">
+        <v>3</v>
+      </c>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="V93" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626CCCF2-F76A-438F-9BC4-2F6C2E17E48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9406004C-5439-4021-8CD9-2380C8F6DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="522">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1720,6 +1720,40 @@
   </si>
   <si>
     <t>Lucy_071</t>
+  </si>
+  <si>
+    <t>CardName_81072</t>
+  </si>
+  <si>
+    <t>CardDesc_81072</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81072</t>
+  </si>
+  <si>
+    <t>CardName_81073</t>
+  </si>
+  <si>
+    <t>CardDesc_81073</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81073</t>
+  </si>
+  <si>
+    <t>부패의 숨결</t>
+  </si>
+  <si>
+    <t>위액 분비</t>
+  </si>
+  <si>
+    <t>Lucy_072</t>
+  </si>
+  <si>
+    <t>Lucy_073</t>
+  </si>
+  <si>
+    <t>810730, 810731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2216,11 +2250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7683,6 +7717,120 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="94" spans="1:25" ht="16.5">
+      <c r="A94" s="4">
+        <v>81072</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="4">
+        <v>810720</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="U94" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="V94" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="16.5">
+      <c r="A95" s="4">
+        <v>81073</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4">
+        <v>2</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="U95" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="V95" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9406004C-5439-4021-8CD9-2380C8F6DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AF260-8A0A-429B-8213-2E6E450BD60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="532">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1743,16 +1743,48 @@
     <t>부패의 숨결</t>
   </si>
   <si>
+    <t>Lucy_072</t>
+  </si>
+  <si>
+    <t>Lucy_073</t>
+  </si>
+  <si>
+    <t>810730, 810731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>위액 분비</t>
-  </si>
-  <si>
-    <t>Lucy_072</t>
-  </si>
-  <si>
-    <t>Lucy_073</t>
-  </si>
-  <si>
-    <t>810730, 810731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_81074</t>
+  </si>
+  <si>
+    <t>CardDesc_81074</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81074</t>
+  </si>
+  <si>
+    <t>CardName_81075</t>
+  </si>
+  <si>
+    <t>CardDesc_81075</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81075</t>
+  </si>
+  <si>
+    <t>수박</t>
+  </si>
+  <si>
+    <t>Lucy_074</t>
+  </si>
+  <si>
+    <t>Lucy_075</t>
+  </si>
+  <si>
+    <t>조명탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2250,11 +2282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7755,18 +7787,18 @@
         <v>1</v>
       </c>
       <c r="Q94" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U94" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V94" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
@@ -7779,7 +7811,7 @@
         <v>81073</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>514</v>
@@ -7797,7 +7829,7 @@
         <v>135</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4">
@@ -7812,22 +7844,136 @@
         <v>1</v>
       </c>
       <c r="Q95" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U95" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V95" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="16.5">
+      <c r="A96" s="4">
+        <v>81074</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="4">
+        <v>810740</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4">
+        <v>2</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="U96" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="V96" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="16.5">
+      <c r="A97" s="4">
+        <v>81075</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H97" s="4">
+        <v>810750</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="V97" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4">
         <v>1001</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/CardData.xlsx
+++ b/Assets/ERang/Excels/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AF260-8A0A-429B-8213-2E6E450BD60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE307F3D-B1CF-4627-B34D-24648C829604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="537">
   <si>
     <t>CardName_1003</t>
   </si>
@@ -1775,6 +1775,15 @@
     <t>CardShortDesc_81075</t>
   </si>
   <si>
+    <t>CardName_81076</t>
+  </si>
+  <si>
+    <t>CardDesc_81076</t>
+  </si>
+  <si>
+    <t>CardShortDesc_81076</t>
+  </si>
+  <si>
     <t>수박</t>
   </si>
   <si>
@@ -1785,6 +1794,13 @@
   </si>
   <si>
     <t>조명탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy_076</t>
+  </si>
+  <si>
+    <t>황금고블린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2282,11 +2298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7868,7 +7884,7 @@
         <v>81074</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>522</v>
@@ -7906,13 +7922,13 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
       <c r="T96" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="U96" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="V96" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
@@ -7925,7 +7941,7 @@
         <v>81075</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>525</v>
@@ -7963,17 +7979,78 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
       <c r="T97" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="U97" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="V97" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="16.5">
+      <c r="A98" s="4">
+        <v>81076</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H98" s="4">
+        <v>810760</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4">
+        <v>2</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4">
+        <v>99</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="U98" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="V98" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4">
         <v>1001</v>
       </c>
     </row>
